--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/FP_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/FP_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LLM_Events_example_evidence_Doc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Event_Name_Sleep</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>negation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_in_gt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Doc</t>
         </is>
@@ -548,52 +558,62 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-10 07:00:00'), Timestamp('2180-03-10 07:18:00'))</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nursing admit note 0615\ns:  i stopped taking my blood pressure medicine.  i was supposed to see my doctor today.\n\no:  patient stopped taking lopressor 1 month ago as above (? confused it with "back pain" med), and presented to osh with c/o back pain and chills with bp up to 187/104 hr 104.\n\npmh includes afib, ascending aortic resection [**7-26**], htn.\npatient is allergic sulfa and pcn.\n\nsocially - patient lives with wife and son.  wife is legally [**month/year (2) 5720**] and patient is her primary care giver.  patient very anxious as wife is home alone at this point.\n\ncv - hr 130\'s 2:1 block, bp down to 104/70 on nipride .5mcg/kg/min and labetolol .73mg/min.  [**month/year (2) **] placed l radial in er.\n\nresp - o2 on 3ln/p with oxygen saturation 95-97% with decreased bs at bases\n\ngi - abd is soft with +bs.  patient\'s last stool [**3-9**]\n\ngu - urinating in urinal, but patient has spilled on himself, so i/o is inaccurate\n\nlabs - pnd\n\na:  84yom with history aortic aneurism now presents with htn as he self dc/d his lopressor\n\np:  monitor hr with goal 60 and bp with goal 100/.  titrate meds accordingly,  check pnd labs, monitor u/o and place foley cath, check pnd labs, social service to assist with home situation (son lives with parents and patient\'s wife is legally [**month/year (2) 5720**]).\n', 'event': ['Excretion', 'Pain', 'Family', 'Sleep', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "patient history",\n      "attribute_value": "afib, ascending aortic resection, htn"\n    },\n    {\n      "attribute_name": "allergies",\n      "attribute_value": "sulfa and pcn"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "urinating in urinal, but patient has spilled on himself, so i/o is inaccurate",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "inaccurate"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "c/o back pain and chills with bp up to 187/104 hr 104",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "patient lives with wife and son.  wife is legally [**month/year (2) 5720**] and patient is her primary care giver.",\n      "actor": "patient",\n      "object": "wife and son",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "lives with",\n          "relation": "wife and son"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'inaccurate'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'lives with', 'relation': 'wife and son'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['urinating in urinal, but patient has spilled on himself, so i/o is inaccurate', 'c/o back pain and chills with bp up to 187/104 hr 104', 'patient lives with wife and son.  wife is legally [**month/year (2) 5720**] and patient is her primary care giver.', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-10 07:00:00 and 2180-03-10 07:18:00):\n           ccu nursing admit note 0615\ns:  i stopped taking my blood pressure medicine.  i was supposed to see my doctor today.\n\no:  patient stopped taking lopressor 1 month ago as above (? confused it with "back pain" med), and presented to osh with c/o back pain and chills with bp up to 187/104 hr 104.\n\npmh includes afib, ascending aortic resection [**7-26**], htn.\npatient is allergic sulfa and pcn.\n\nsocially - patient lives with wife and son.  wife is legally [**month/year (2) 5720**] and patient is her primary care giver.  patient very anxious as wife is home alone at this point.\n\ncv - hr 130\'s 2:1 block, bp down to 104/70 on nipride .5mcg/kg/min and labetolol .73mg/min.  [**month/year (2) **] placed l radial in er.\n\nresp - o2 on 3ln/p with oxygen saturation 95-97% with decreased bs at bases\n\ngi - abd is soft with +bs.  patient\'s last stool [**3-9**]\n\ngu - urinating in urinal, but patient has spilled on himself, so i/o is inaccurate\n\nlabs - pnd\n\na:  84yom with history aortic aneurism now presents with htn as he self dc/d his lopressor\n\np:  monitor hr with goal 60 and bp with goal 100/.  titrate meds accordingly,  check pnd labs, monitor u/o and place foley cath, check pnd labs, social service to assist with home situation (son lives with parents and patient\'s wife is legally [**month/year (2) 5720**]).\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'afib, ascending aortic resection, htn'}, {'attribute_name': 'allergies', 'attribute_value': 'sulfa and pcn'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 22.072134325047955}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Excretion', 'Pain', 'Family', 'Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'inaccurate'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'lives with', 'relation': 'wife and son'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>['urinating in urinal, but patient has spilled on himself, so i/o is inaccurate', 'c/o back pain and chills with bp up to 187/104 hr 104', 'patient lives with wife and son.  wife is legally [**month/year (2) 5720**] and patient is her primary care giver.', '', '']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:urinating in urinal, but patient has spilled on himself, so i/o is inaccurate', 'e2=Pain|1:c/o back pain and chills with bp up to 187/104 hr 104', 'e3=Family|1:patient lives with wife and son.  wife is legally [**month/year (2) 5720**] and patient is her primary care giver.', 'e4=Sleep|1:', 'e5=Eating|1:']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -632,52 +652,62 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-10 18:17:00'), Timestamp('2180-03-10 18:58:00'))</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn: please see flowsheet for objective data\n\ncardiac: received on labetolol&amp; nipride,hr 130's aflutter,bp 100-140/70/84 maps 82-104,given 10mg iv lopressor and labetolol drip increased to 3mg/min. received 60mg lasix this am due to rales all the way up. tee was difficult received 3mg versed and 100mcg fentanyl.no clots seen ef 25%. hr came down to 110-112 aflutter bp 100-110/. cardioverted,sedated with 40mcg propofol. post cardioversion hr 60-70's nsr profoundly hypotensive diastolic blood pressure to 40's given 500cc normal saline bolus and 300mcg neo,bp came back up. at 4pm given amiodorone 400mg by mouth,protonix and sq heparin. map's increased to 78-80 restarted labetolol to 3mg/min from 4:15 to 5:15pm,then patient became nauseas,inc large stool,bp dropped to 60/ neo drip started ekg obtained,labs sent abg drawn. patient felt awful,grey and diaphoretic. currently hr 70's nsr bp 100's/70's on neo at 86mcg/kg/min. patient still feels awful unable to articulate.\n\nresp: currently on 6l np,face mask 10liters. this am rales all the way up sats dropping to mid 80's,given 60mg lasix with great response. still has crackles 1/2 up.abg this afternoon with hypotension 7.47/20/60.after cardioversion was noted to have up to 40second periods of apnea.\n\ngu: foley cath placed this am,600cc in bladder. after lasix put out large amount even after fluid bolus is 500cc negative. last bun/creat 18/1.7\n\ngi: vomitted very small amount of bile at time of large loose bm.only has had small amount of gingerale and a cracker with amiodorone.\n\nid: afebrile,wbc wnl\n\nheme: hct on admission 46 repeat this afternoon 43\n\nneuro: alert and oriented x3,all day did not c/o of anything until hypotension ,now feels awful.\n\nsocial: daughter and wife in to visit.patient has been caring for his wife who is legally [** 5720**] and has health issues. no one in family was aware that he had stopped taking his meds. patient also seemed confused regarding his meds. need social work consult and possible home eval.\n\na/p: 84 year old gentleman stopped taking his meds a month ago due to back pain presents with hypertension descending aortic aneurysm by ct scan. now in nsr after cardioversion. off labetolol and nipride and now on neo drip. abd ultrasound done and surgery involved. to have pa line placed tonight and possible ct scan with contrast.\n    continue to closely monitor hemodynamics\n    check results of labs\n    emotional support patient and family\n", 'event': ['Excretion', 'Eating', 'Pain', 'Family', 'Sleep', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "patient\'s history",\n      "attribute_value": "stopped taking his meds a month ago due to back pain"\n    },\n    {\n      "attribute_name": "patient\'s condition",\n      "attribute_value": "hypertension descending aortic aneurysm by ct scan"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "Foley cath placed this am,600cc in bladder. after lasix put out large amount even after fluid bolus is 500cc negative.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "this am",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "large amount",\n          "quality": "negative"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "only has had small amount of gingerale and a cracker with amiodorone.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "gingerale and a cracker",\n          "amount": "small amount",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "patient has been caring for his wife who is legally [** 5720**] and has health issues.",\n      "actor": "patient\'s wife",\n      "object": "patient\'s wife",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "daughter and wife in to visit.",\n      "actor": "patient\'s family",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "daughter and wife"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "after cardioversion was noted to have up to 40second periods of apnea.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "cardioversion",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "apnea",\n          "duration": "40second periods"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "patient felt awful,grey and diaphoretic.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "severe",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "after",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "before",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'large amount', 'quality': 'negative'}}}, {'Eating': {'Eating': {'food': 'gingerale and a cracker', 'amount': 'small amount', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter and wife'}}}, {'Sleep': {'Sleep': {'quality': 'apnea', 'duration': '40second periods'}}}, {'Pain': {'Pain': {'severity': 'severe', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['Foley cath placed this am,600cc in bladder. after lasix put out large amount even after fluid bolus is 500cc negative.', 'only has had small amount of gingerale and a cracker with amiodorone.', 'patient has been caring for his wife who is legally [** 5720**] and has health issues.', 'daughter and wife in to visit.', 'after cardioversion was noted to have up to 40second periods of apnea.', 'patient felt awful,grey and diaphoretic.'], 'event_time': ['this am', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'cardioversion', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-10 18:17:00 and 2180-03-10 18:58:00):\n           ccu npn: please see flowsheet for objective data\n\ncardiac: received on labetolol&amp; nipride,hr 130\'s aflutter,bp 100-140/70/84 maps 82-104,given 10mg iv lopressor and labetolol drip increased to 3mg/min. received 60mg lasix this am due to rales all the way up. tee was difficult received 3mg versed and 100mcg fentanyl.no clots seen ef 25%. hr came down to 110-112 aflutter bp 100-110/. cardioverted,sedated with 40mcg propofol. post cardioversion hr 60-70\'s nsr profoundly hypotensive diastolic blood pressure to 40\'s given 500cc normal saline bolus and 300mcg neo,bp came back up. at 4pm given amiodorone 400mg by mouth,protonix and sq heparin. map\'s increased to 78-80 restarted labetolol to 3mg/min from 4:15 to 5:15pm,then patient became nauseas,inc large stool,bp dropped to 60/ neo drip started ekg obtained,labs sent abg drawn. patient felt awful,grey and diaphoretic. currently hr 70\'s nsr bp 100\'s/70\'s on neo at 86mcg/kg/min. patient still feels awful unable to articulate.\n\nresp: currently on 6l np,face mask 10liters. this am rales all the way up sats dropping to mid 80\'s,given 60mg lasix with great response. still has crackles 1/2 up.abg this afternoon with hypotension 7.47/20/60.after cardioversion was noted to have up to 40second periods of apnea.\n\ngu: foley cath placed this am,600cc in bladder. after lasix put out large amount even after fluid bolus is 500cc negative. last bun/creat 18/1.7\n\ngi: vomitted very small amount of bile at time of large loose bm.only has had small amount of gingerale and a cracker with amiodorone.\n\nid: afebrile,wbc wnl\n\nheme: hct on admission 46 repeat this afternoon 43\n\nneuro: alert and oriented x3,all day did not c/o of anything until hypotension ,now feels awful.\n\nsocial: daughter and wife in to visit.patient has been caring for his wife who is legally [** 5720**] and has health issues. no one in family was aware that he had stopped taking his meds. patient also seemed confused regarding his meds. need social work consult and possible home eval.\n\na/p: 84 year old gentleman stopped taking his meds a month ago due to back pain presents with hypertension descending aortic aneurysm by ct scan. now in nsr after cardioversion. off labetolol and nipride and now on neo drip. abd ultrasound done and surgery involved. to have pa line placed tonight and possible ct scan with contrast.\n    continue to closely monitor hemodynamics\n    check results of labs\n    emotional support patient and family\n\n        ', 'case_attributes': [[{'attribute_name': "patient's history", 'attribute_value': 'stopped taking his meds a month ago due to back pain'}, {'attribute_name': "patient's condition", 'attribute_value': 'hypertension descending aortic aneurysm by ct scan'}]], 'actor': ['patient', 'patient', "patient's wife", "patient's family", 'patient', 'patient'], 'event_detection_time': 30.12508165789768}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['after cardioversion was noted to have up to 40second periods of apnea.']</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apnea', 'duration': '40second periods'}}}]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Pain', 'Family', 'Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'large amount', 'quality': 'negative'}}}, {'Eating': {'Eating': {'food': 'gingerale and a cracker', 'amount': 'small amount', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter and wife'}}}, {'Sleep': {'Sleep': {'quality': 'apnea', 'duration': '40second periods'}}}, {'Pain': {'Pain': {'severity': 'severe', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>['Foley cath placed this am,600cc in bladder. after lasix put out large amount even after fluid bolus is 500cc negative.', 'only has had small amount of gingerale and a cracker with amiodorone.', 'patient has been caring for his wife who is legally [** 5720**] and has health issues.', 'daughter and wife in to visit.', 'after cardioversion was noted to have up to 40second periods of apnea.', 'patient felt awful,grey and diaphoretic.']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>['e1=Excretion|0:Foley cath placed this am,600cc in bladder. after lasix put out large amount even after fluid bolus is 500cc negative.', 'e2=Eating|1:only has had small amount of gingerale and a cracker with amiodorone.', 'e3=Pain|1:patient has been caring for his wife who is legally [** 5720**] and has health issues.', 'e4=Family|1:daughter and wife in to visit.', 'e5=Sleep|1:after cardioversion was noted to have up to 40second periods of apnea.', 'e6=Pain|1:patient felt awful,grey and diaphoretic.']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -714,52 +744,62 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-12 16:02:00'), Timestamp('2180-03-12 16:10:00'))</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'text': '84 yr old c dissecting aortic aneurysm .\n\nsr c blocked beats .bp labile ranging 160 to 77 systolic.labetolol drip for short time .to have mri this pm. k, mg repleted .milrinone continues on .375.amniodarone dc iv .patient feels nauseous when bp under 110\n\nbs diminished ,7.38/32/115/20 on 6lnp\n\ntaking cl liquids,pos bs ,no stool\n\nhuo 10 to 20,creat\n\npatient restless.co low back pain some releif c tylenol and sitting on side of bed .\n\nlabile bp unexplained ,need mri to check aneurysm\n\nfollow hct,lytes\naim bp 110 to 120\nmri this pm\n\naim bp 110 to 120 sys\n\n', 'event': ['Pain', 'Pain', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "84"\n        },\n        {\n            "attribute_name": "medical_condition",\n            "attribute_value": "dissecting aortic aneurysm"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient feels nauseous when bp under 110",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "low blood pressure",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "nauseous",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient restless.co low back pain some releif c tylenol and sitting on side of bed",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "some relief with tylenol and sitting on side of bed",\n                    "location": "low back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "taking cl liquids,pos bs ,no stool",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "cl liquids",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "taking cl liquids,pos bs ,no stool",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "no stool",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "patient restless",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "restless",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'nauseous', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'some relief with tylenol and sitting on side of bed', 'location': 'low back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'cl liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'no stool', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['patient feels nauseous when bp under 110', 'patient restless.co low back pain some releif c tylenol and sitting on side of bed', 'taking cl liquids,pos bs ,no stool', 'taking cl liquids,pos bs ,no stool', 'patient restless'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, False], 'caused_by': ['low blood pressure', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-12 16:02:00 and 2180-03-12 16:10:00):\n           84 yr old c dissecting aortic aneurysm .\n\nsr c blocked beats .bp labile ranging 160 to 77 systolic.labetolol drip for short time .to have mri this pm. k, mg repleted .milrinone continues on .375.amniodarone dc iv .patient feels nauseous when bp under 110\n\nbs diminished ,7.38/32/115/20 on 6lnp\n\ntaking cl liquids,pos bs ,no stool\n\nhuo 10 to 20,creat\n\npatient restless.co low back pain some releif c tylenol and sitting on side of bed .\n\nlabile bp unexplained ,need mri to check aneurysm\n\nfollow hct,lytes\naim bp 110 to 120\nmri this pm\n\naim bp 110 to 120 sys\n\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '84'}, {'attribute_name': 'medical_condition', 'attribute_value': 'dissecting aortic aneurysm'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.186753024812788}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>['patient restless']</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Pain', 'Pain', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'nauseous', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'some relief with tylenol and sitting on side of bed', 'location': 'low back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'cl liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'no stool', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['patient feels nauseous when bp under 110', 'patient restless.co low back pain some releif c tylenol and sitting on side of bed', 'taking cl liquids,pos bs ,no stool', 'taking cl liquids,pos bs ,no stool', 'patient restless']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient feels nauseous when bp under 110', 'e2=Pain|1:patient restless.co low back pain some releif c tylenol and sitting on side of bed', 'e3=Eating|1:taking cl liquids,pos bs ,no stool', 'e4=Excretion|1:taking cl liquids,pos bs ,no stool', 'e5=Sleep|1:patient restless']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -794,52 +834,62 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-13 17:35:00'), Timestamp('2180-03-13 18:41:00'))</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'text': 'nursing note 7a-7p\ns:"i knew i had to go".\no: see careview for objective data.\ncv- tele sb/sr, no vea, hr 58-72, conts with labile bps 86-140s. has a labetalol drops (0.5-2.0mg) ordered pro re nata to maintain sbps in 100-120 range d/t aortic dissection. milrinone @ 0.375mcg/kg/min conts. has a l rad a-line intact/sharp. bil u/e pulses palp, bil l/e pulses were dopplerable. latest hct 40.7, k+ 3.6 was repleated.\nresp- ls diminished in bases, conts on 6l n/c sats &gt;95%, no c/o sob.\nneuro-a+ox3, no periods of confusion. pearl/mae, sits @ edge of bed adlib, no c/o pain.\nid-tmax 98.4 by mouth, wbc 6.3\ngi/gu- abd soft +bs, incont of loose stool x1 plus bm x2 on bedpan ob-. good by mouth intake. foley intact voiding scant amts of amber urine 15-20cc/hr, cre 2.4, bun 3.6  abd mri pending to assess renal perfusion.  24hr i+o +590.\na/p: 84yo male with a decending aortic dissection to bifurcation c/b cardiogenic shock, arf ? renal artery affected. cont to monitor sbps keeping within range, check hct and monitor c/o back pain for s/s of expansion in the dissection. needs mri of abd tonight!\n', 'event': ['Excretion', 'Eating', 'Excretion', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "age",\n      "attribute_value": "84"\n    },\n    {\n      "attribute_name": "gender",\n      "attribute_value": "male"\n    },\n    {\n      "attribute_name": "diagnosis",\n      "attribute_value": "descending aortic dissection to bifurcation with cardiogenic shock and possible renal artery affected"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "incont of loose stool x1 plus bm x2 on bedpan ob-",\n      "actor": "patient",\n      "object": "stool",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "x1 plus bm x2",\n          "quality": "loose"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "good by mouth intake",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "foley intact voiding scant amts of amber urine 15-20cc/hr",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "scant amts",\n          "quality": "amber"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "no c/o pain",\n      "actor": "patient",\n      "object": "pain",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "no periods of confusion",\n      "actor": "patient",\n      "object": "sleep",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1 plus bm x2', 'quality': 'loose'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'scant amts', 'quality': 'amber'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['incont of loose stool x1 plus bm x2 on bedpan ob-', 'good by mouth intake', 'foley intact voiding scant amts of amber urine 15-20cc/hr', 'no c/o pain', 'no periods of confusion'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-13 17:35:00 and 2180-03-13 18:41:00):\n           nursing note 7a-7p\ns:"i knew i had to go".\no: see careview for objective data.\ncv- tele sb/sr, no vea, hr 58-72, conts with labile bps 86-140s. has a labetalol drops (0.5-2.0mg) ordered pro re nata to maintain sbps in 100-120 range d/t aortic dissection. milrinone @ 0.375mcg/kg/min conts. has a l rad a-line intact/sharp. bil u/e pulses palp, bil l/e pulses were dopplerable. latest hct 40.7, k+ 3.6 was repleated.\nresp- ls diminished in bases, conts on 6l n/c sats &gt;95%, no c/o sob.\nneuro-a+ox3, no periods of confusion. pearl/mae, sits @ edge of bed adlib, no c/o pain.\nid-tmax 98.4 by mouth, wbc 6.3\ngi/gu- abd soft +bs, incont of loose stool x1 plus bm x2 on bedpan ob-. good by mouth intake. foley intact voiding scant amts of amber urine 15-20cc/hr, cre 2.4, bun 3.6  abd mri pending to assess renal perfusion.  24hr i+o +590.\na/p: 84yo male with a decending aortic dissection to bifurcation c/b cardiogenic shock, arf ? renal artery affected. cont to monitor sbps keeping within range, check hct and monitor c/o back pain for s/s of expansion in the dissection. needs mri of abd tonight!\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '84'}, {'attribute_name': 'gender', 'attribute_value': 'male'}, {'attribute_name': 'diagnosis', 'attribute_value': 'descending aortic dissection to bifurcation with cardiogenic shock and possible renal artery affected'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.983358117984608}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['no periods of confusion']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Excretion', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1 plus bm x2', 'quality': 'loose'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'scant amts', 'quality': 'amber'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['incont of loose stool x1 plus bm x2 on bedpan ob-', 'good by mouth intake', 'foley intact voiding scant amts of amber urine 15-20cc/hr', 'no c/o pain', 'no periods of confusion']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:incont of loose stool x1 plus bm x2 on bedpan ob-', 'e2=Eating|1:good by mouth intake', 'e3=Excretion|1:foley intact voiding scant amts of amber urine 15-20cc/hr', 'e4=Pain|1:no c/o pain', 'e5=Sleep|1:no periods of confusion']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -878,52 +928,62 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-15 04:55:00'), Timestamp('2180-03-15 05:25:00'))</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu npn 7p-7a\ns: "when am i going to be able to get out of bed and walk around?"\no: see carevue and update for complete assessment data\nhpi: 84yo admitted [**3-10**] w/sob and backpain found to have type b aortic dissection descending from thoracic aorta to l common iliac artery. h/o htn, type a dissection \'[**77**] status post emergent surgical repair c/b embolic cva. tee [**3-10**] showed global hypokinesis with newly depressed lvef 25% (from 60% on \'[**77**]). current hospitalization c/b new onset rapid a flutter v. a tach with 2:1 conduction, cardioversion to nsr [**3-10**] c/b hypotension requiring neo, arf with cr up to 2.7, extremely labile bp requiring both labetalol and neo at times. pa line placed [**3-11**] revealed ci of 1.7, up to 3 after starting milrinone, was self d/c\'d [**3-12**].\nros:\ncv: cont labetolol 0.5-1.5mg/min to maintain diastolic blood pressure 100-120, ranging 90s-150s/ depending on level of alertness. milrinone weaned to 0.25mcg/kg/min. hr sb 58-60, no ectopy, hct stable, am labs pending. no c/o cp/sob. distal pulses palp/dop, bp equal bilat ues. plan for cath today to eval coronaries and hemodynamics.\n\nresp: nc frequently dislodged, spo2 on ra 89-96%. ls clear, diminished @ bases with fine rales 1/4 up posteriorly. bilat atelectasis appreciated on mri.\n\ngi/gu: abd soft, nontender, nondistended, +bs/-bm, tolerating by mouth meds with sips. npo after mn for cath [**3-15**].  foley draining cyu, excellent response to 60mg lasix ivp given @ [**2174**]. +325 yesterday, -850 since mn. am bun/cr pending. mri revealing that renal artery perfusion is not inhibited by dissection.\n\nid: afebrile although warm to touch. tmax 98.6 by mouth. wbc 5.8(5.6)\n\nskin: multiple areas of ecchymosis. r hand 22g piv erythematous, nontender, flushes easily, left in d/t poor peripheral access. lac also needs to be d/c\'d (in on [**3-10**]). l hand edematous from ? infiltration of old iv site.\n\nneuro: a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline). tylenol for back pain with relief.\n\na: 84yo with type b descending arotic dissection, bp cont labile and cont to require labetalol. also cont on milrinone. improving renal sts, responded well to diuresis.\np: to cath today to eval hemodynamic sts, follow up am labs. monitor fluid sts. teaching re: procedure, continue to support patient. and family. ? start by mouth bb.\n', 'event': ['Pain', 'Eating', 'Excretion', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "age",\n      "attribute_value": "84"\n    },\n    {\n      "attribute_name": "admission_date",\n      "attribute_value": "[**3-10**]"\n    },\n    {\n      "attribute_name": "medical_history",\n      "attribute_value": "htn, type a dissection \'[**77**] status post emergent surgical repair c/b embolic cva"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o backpain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "tolerating by mouth meds with sips",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "meds",\n          "amount": "sips",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "+325 yesterday, -850 since mn",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline)",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "restless",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "continue to support patient. and family",\n      "actor": "staff",\n      "object": "family",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "support",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "simultaneous",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'support', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ['c/o backpain', 'tolerating by mouth meds with sips', '+325 yesterday, -850 since mn', 'a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline)', 'continue to support patient. and family'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-15 04:55:00 and 2180-03-15 05:25:00):\n           ccu npn 7p-7a\ns: "when am i going to be able to get out of bed and walk around?"\no: see carevue and update for complete assessment data\nhpi: 84yo admitted [**3-10**] w/sob and backpain found to have type b aortic dissection descending from thoracic aorta to l common iliac artery. h/o htn, type a dissection \'[**77**] status post emergent surgical repair c/b embolic cva. tee [**3-10**] showed global hypokinesis with newly depressed lvef 25% (from 60% on \'[**77**]). current hospitalization c/b new onset rapid a flutter v. a tach with 2:1 conduction, cardioversion to nsr [**3-10**] c/b hypotension requiring neo, arf with cr up to 2.7, extremely labile bp requiring both labetalol and neo at times. pa line placed [**3-11**] revealed ci of 1.7, up to 3 after starting milrinone, was self d/c\'d [**3-12**].\nros:\ncv: cont labetolol 0.5-1.5mg/min to maintain diastolic blood pressure 100-120, ranging 90s-150s/ depending on level of alertness. milrinone weaned to 0.25mcg/kg/min. hr sb 58-60, no ectopy, hct stable, am labs pending. no c/o cp/sob. distal pulses palp/dop, bp equal bilat ues. plan for cath today to eval coronaries and hemodynamics.\n\nresp: nc frequently dislodged, spo2 on ra 89-96%. ls clear, diminished @ bases with fine rales 1/4 up posteriorly. bilat atelectasis appreciated on mri.\n\ngi/gu: abd soft, nontender, nondistended, +bs/-bm, tolerating by mouth meds with sips. npo after mn for cath [**3-15**].  foley draining cyu, excellent response to 60mg lasix ivp given @ [**2174**]. +325 yesterday, -850 since mn. am bun/cr pending. mri revealing that renal artery perfusion is not inhibited by dissection.\n\nid: afebrile although warm to touch. tmax 98.6 by mouth. wbc 5.8(5.6)\n\nskin: multiple areas of ecchymosis. r hand 22g piv erythematous, nontender, flushes easily, left in d/t poor peripheral access. lac also needs to be d/c\'d (in on [**3-10**]). l hand edematous from ? infiltration of old iv site.\n\nneuro: a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline). tylenol for back pain with relief.\n\na: 84yo with type b descending arotic dissection, bp cont labile and cont to require labetalol. also cont on milrinone. improving renal sts, responded well to diuresis.\np: to cath today to eval hemodynamic sts, follow up am labs. monitor fluid sts. teaching re: procedure, continue to support patient. and family. ? start by mouth bb.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '84'}, {'attribute_name': 'admission_date', 'attribute_value': '[**3-10**]'}, {'attribute_name': 'medical_history', 'attribute_value': "htn, type a dissection '[**77**] status post emergent surgical repair c/b embolic cva"}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'staff'], 'event_detection_time': 24.269232797203586}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>['a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline)']</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'support', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['c/o backpain', 'tolerating by mouth meds with sips', '+325 yesterday, -850 since mn', 'a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline)', 'continue to support patient. and family']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>['e1=Pain|0:c/o backpain', 'e2=Eating|1:tolerating by mouth meds with sips', 'e3=Excretion|1:+325 yesterday, -850 since mn', 'e4=Sleep|1:a&amp;ox3, dangling at bedside at times and c/o restlessness (baseline)', 'e5=Family|1:continue to support patient. and family']</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -960,52 +1020,62 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-15 18:40:00'), Timestamp('2180-03-15 19:15:00'))</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu progress note:\n\ns: "my son doesn\'t help at all at home, all he does is eat and sleep"\n\no:  please see flow sheet for objective data\n\ncv: tele: sinus brady w/no ectopy. hr 50-57, abp 103-148/50-68. milrinone and labetelol drips dc\'d. started on by mouth labetelol diastolic blood pressure 140\'s given hydralazine 10 mg by mouth given with little effect. diastolic blood pressure goal to 120. hct 39.6- k 3.8, 40 meq kcl given. repeat k 4.3. mg 2.\n\nresp: o2 5l nc. ls diminished at the bases. no labored breathing, zero retractions, sp02 92-97%.\n\ngi/gu: abd soft, non-distended, bs present x4. bm x1 mod brown formed stool. by mouth intake fair. gu: foley draining clear, yellow urine. lasix 80 mg iv given with good effect. negative 1900cc\'s since twelve a.m. bun 38, crea 2.1.\n\nneuro: patient a&amp;o x 3, moving all extremities, follows commands, restless at times. verbalized overwhelming responsibilities at home, social worker consulted.\n\niv access: picc line placed right upper arm (single lumen).\n\na) successfully weaned off of labetalol and milrinone drips. patient tolerated by mouth labetalol and hydralazine well. ? cath tomorrow.\n\np) monitor vital signs, lung sounds, i &amp; o, labs. keep diastolic blood pressure therapeutic range w/in 110-120. continute to monitor urinary output with follow-up labs. offer emotional support and update family on plan of care.\n\n                                                      [**first name8 (namepattern2) 1309**] [**last name (namepattern1) 9102**], sn\n\n\n', 'event': ['Eating', 'Sleep', 'Family', 'Pain', 'Excretion', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "all he does is eat and sleep",\n            "actor": "patient\'s son",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "all he does is eat and sleep",\n            "actor": "patient\'s son",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "my son doesn\'t help at all at home",\n            "actor": "patient\'s son",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "son"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "verbalized overwhelming responsibilities at home",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "overwhelming",\n                    "location": "home",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "bm x1 mod brown formed stool",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "x1",\n                    "quality": "mod brown formed"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "by mouth intake fair",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "fair",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "foley draining clear, yellow urine",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "clear, yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Sleep",\n            "text_quote": "restless at times",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "restless",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "after",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'son'}}}, {'Pain': {'Pain': {'severity': 'overwhelming', 'location': 'home', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1', 'quality': 'mod brown formed'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'fair', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear, yellow'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e6'}]], 'text_quotes': ['all he does is eat and sleep', 'all he does is eat and sleep', "my son doesn't help at all at home", 'verbalized overwhelming responsibilities at home', 'bm x1 mod brown formed stool', 'by mouth intake fair', 'foley draining clear, yellow urine', 'restless at times'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-15 18:40:00 and 2180-03-15 19:15:00):\n           ccu progress note:\n\ns: "my son doesn\'t help at all at home, all he does is eat and sleep"\n\no:  please see flow sheet for objective data\n\ncv: tele: sinus brady w/no ectopy. hr 50-57, abp 103-148/50-68. milrinone and labetelol drips dc\'d. started on by mouth labetelol diastolic blood pressure 140\'s given hydralazine 10 mg by mouth given with little effect. diastolic blood pressure goal to 120. hct 39.6- k 3.8, 40 meq kcl given. repeat k 4.3. mg 2.\n\nresp: o2 5l nc. ls diminished at the bases. no labored breathing, zero retractions, sp02 92-97%.\n\ngi/gu: abd soft, non-distended, bs present x4. bm x1 mod brown formed stool. by mouth intake fair. gu: foley draining clear, yellow urine. lasix 80 mg iv given with good effect. negative 1900cc\'s since twelve a.m. bun 38, crea 2.1.\n\nneuro: patient a&amp;o x 3, moving all extremities, follows commands, restless at times. verbalized overwhelming responsibilities at home, social worker consulted.\n\niv access: picc line placed right upper arm (single lumen).\n\na) successfully weaned off of labetalol and milrinone drips. patient tolerated by mouth labetalol and hydralazine well. ? cath tomorrow.\n\np) monitor vital signs, lung sounds, i &amp; o, labs. keep diastolic blood pressure therapeutic range w/in 110-120. continute to monitor urinary output with follow-up labs. offer emotional support and update family on plan of care.\n\n                                                      [**first name8 (namepattern2) 1309**] [**last name (namepattern1) 9102**], sn\n\n\n\n        ', 'case_attributes': [[]], 'actor': ["patient's son", "patient's son", "patient's son", 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 28.65463290596381}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>['all he does is eat and sleep', 'restless at times']</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>['Eating', 'Sleep', 'Family', 'Pain', 'Excretion', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'son'}}}, {'Pain': {'Pain': {'severity': 'overwhelming', 'location': 'home', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1', 'quality': 'mod brown formed'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'fair', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear, yellow'}}}, {'Sleep': {'Sleep': {'quality': 'restless', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>['all he does is eat and sleep', 'all he does is eat and sleep', "my son doesn't help at all at home", 'verbalized overwhelming responsibilities at home', 'bm x1 mod brown formed stool', 'by mouth intake fair', 'foley draining clear, yellow urine', 'restless at times']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>['e1=Eating|1:all he does is eat and sleep', 'e2=Sleep|1:all he does is eat and sleep', "e3=Family|1:my son doesn't help at all at home", 'e4=Pain|1:verbalized overwhelming responsibilities at home', 'e5=Excretion|1:bm x1 mod brown formed stool', 'e6=Eating|1:by mouth intake fair', 'e7=Excretion|1:foley draining clear, yellow urine', 'e8=Sleep|1:restless at times']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -1039,52 +1109,62 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-14 04:36:00'), Timestamp('2162-06-14 05:10:00'))</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'text': "39 year old female history of coughing past few weeks. patient was found to have cardiomyopathy and is in heart failure. patient was taking coreg 3.125mg [**hospital1 **] and lasix 40 mg qd at home. patient was tolerating by mouth meds until [**6-12**] a.m. she felt weak and dizzy. patient ef was 15%. ? cardiomyopathy from viral illness diagnosed on [**6-8**]. pts husband is a nurse [**first name (titles) 14**] [**last name (titles) 2**] he requested patient be transferred here from [**hospital 1227**] hosp.\n\ncv:nsr/st c freq/occa pvc's. patient has 5 runs of vt each with 8-10 beats of vt. patient received her captopril 6.25mg at 2200 and received lasix 20mg at 2200 and since has had very low bp in the 80's. beta blocker has been on hold until bp maps are greater than 65. maps now 64. hr 104-80. hct 42.2, k 4.3. small pericardial effusion and sever global vent hypokinesis found on echo.\n\nresp: patient has nonproductive cough for past few weeks. patient has benzonatate ordered for coughing patient received one this a.m and it helped with her coughing. patient ls coarse at bases. no o2 maintaining oxygen saturation of 97%. sob with exertion.\n\nneuro:patient has a history of depression and patient does appear sad. patient is alert and oriented x3. patient lives at [**location 10814**] with husband and two children. patient has complained that she hasnt slept in days.\n\ngu:patient tolerating sips of water. bs +, + bm guaic -.\n\ngi:1500cc a day fluid restriction. patient responded well to lasix -600cc.\n\na:39yo female with new onset of cardiomyopathy witha ef of 15%.\n\np: patient [**month (only) 108**] need cardiaccath to evaluate coronary arteries. fluid restriction. keep pain free patient was taking percocet for chest pain at home. emotional support.\n", 'event': ['Pain', 'Sleep', 'Eating', 'Excretion', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "39"\n        },\n        {\n            "attribute_name": "gender",\n            "attribute_value": "female"\n        },\n        {\n            "attribute_name": "medical history",\n            "attribute_value": "coughing past few weeks, cardiomyopathy, heart failure"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient was taking percocet for chest pain at home.",\n            "actor": "patient",\n            "object": "chest",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient has complained that she hasn\'t slept in days.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "days"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "patient tolerating sips of water.",\n            "actor": "patient",\n            "object": "water",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "water",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "gu:patient tolerating sips of water. bs +, + bm guaic -.",\n            "actor": "patient",\n            "object": "bowel movement",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "Unknown",\n                    "quality": "positive"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "pts husband is a nurse [**first name (titles) 14**] [**last name (titles) 2**]",\n            "actor": "husband",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "husband"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'days'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'positive'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['patient was taking percocet for chest pain at home.', "patient has complained that she hasn't slept in days.", 'patient tolerating sips of water.', 'gu:patient tolerating sips of water. bs +, + bm guaic -.', 'pts husband is a nurse [**first name (titles) 14**] [**last name (titles) 2**]'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-14 04:36:00 and 2162-06-14 05:10:00):\n           39 year old female history of coughing past few weeks. patient was found to have cardiomyopathy and is in heart failure. patient was taking coreg 3.125mg [**hospital1 **] and lasix 40 mg qd at home. patient was tolerating by mouth meds until [**6-12**] a.m. she felt weak and dizzy. patient ef was 15%. ? cardiomyopathy from viral illness diagnosed on [**6-8**]. pts husband is a nurse [**first name (titles) 14**] [**last name (titles) 2**] he requested patient be transferred here from [**hospital 1227**] hosp.\n\ncv:nsr/st c freq/occa pvc\'s. patient has 5 runs of vt each with 8-10 beats of vt. patient received her captopril 6.25mg at 2200 and received lasix 20mg at 2200 and since has had very low bp in the 80\'s. beta blocker has been on hold until bp maps are greater than 65. maps now 64. hr 104-80. hct 42.2, k 4.3. small pericardial effusion and sever global vent hypokinesis found on echo.\n\nresp: patient has nonproductive cough for past few weeks. patient has benzonatate ordered for coughing patient received one this a.m and it helped with her coughing. patient ls coarse at bases. no o2 maintaining oxygen saturation of 97%. sob with exertion.\n\nneuro:patient has a history of depression and patient does appear sad. patient is alert and oriented x3. patient lives at [**location 10814**] with husband and two children. patient has complained that she hasnt slept in days.\n\ngu:patient tolerating sips of water. bs +, + bm guaic -.\n\ngi:1500cc a day fluid restriction. patient responded well to lasix -600cc.\n\na:39yo female with new onset of cardiomyopathy witha ef of 15%.\n\np: patient [**month (only) 108**] need cardiaccath to evaluate coronary arteries. fluid restriction. keep pain free patient was taking percocet for chest pain at home. emotional support.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '39'}, {'attribute_name': 'gender', 'attribute_value': 'female'}, {'attribute_name': 'medical history', 'attribute_value': 'coughing past few weeks, cardiomyopathy, heart failure'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'husband'], 'event_detection_time': 22.44903660286218}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>["patient has complained that she hasn't slept in days."]</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'days'}}}]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion', 'Family']</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'days'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'positive'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['patient was taking percocet for chest pain at home.', "patient has complained that she hasn't slept in days.", 'patient tolerating sips of water.', 'gu:patient tolerating sips of water. bs +, + bm guaic -.', 'pts husband is a nurse [**first name (titles) 14**] [**last name (titles) 2**]']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient was taking percocet for chest pain at home.', "e2=Sleep|0:patient has complained that she hasn't slept in days.", 'e3=Eating|1:patient tolerating sips of water.', 'e4=Excretion|1:gu:patient tolerating sips of water. bs +, + bm guaic -.', 'e5=Family|1:pts husband is a nurse [**first name (titles) 14**] [**last name (titles) 2**]']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1119,52 +1199,62 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-16 22:17:00'), Timestamp('2162-06-16 22:43:00'))</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'text': 'nursing progress note 1900-2300\ns: "i feel like i can\'t catch my breath"\n\no: please see carevue for complete objective data.\n\nresp: c/o sob and increased wob. lungs apically clr w insp wheezes/crackles in bases. ho notified. c/o pain in r back associated c deep breathing cough. gave 2mg mso4, with little effect. productive cough with blood tinged sputum. taking guaf/codeine and benzonatate atc for cough.\n\ncv: hr 100\'s, st, with freq pvc\'s and asymptomatic 6 beat run of vt x 1, on amio by mouth. rec\'d coreg and captopril doses this pm. pulses palp.\n\ngi/gu: vomited sputum and water during episode of coughing. no further c/o nausea. no bm this shift. foley draining minimal amber urine. ~even for day and +800cc for los.\n\nid: had rec\'d tylenol @ 1800 for increasing temp. spiked to 102.0 @ [**2155**]. gave ibuprofen @ 2100 with little effect. sent bc x 2, needs urine cx.\n\nneuro/social: a&amp;o x 3, mae, oob to commode x 1 during the day. cooperative and in good spirits. supportive family. sister staying with her this evening.\n\na/p: 39 year old c severe cardiomyopathy and hf, being w/u by [**hospital1 364**] for transplant. cont to monitor temp and give tylenol. give expectorants atc for cough. pain meds pro re nata, emotionally support patient and family.\n', 'event': ['Pain', 'Excretion', 'Family', 'Pain', 'Eating', 'Sleep', 'Excretion', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "39"\n        },\n        {\n            "attribute_name": "medical condition",\n            "attribute_value": "severe cardiomyopathy and heart failure"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o pain in r back associated c deep breathing cough",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "right back",\n                    "duration": "during deep breathing cough"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "vomited sputum and water during episode of coughing",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "coughing",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "vomit",\n                    "frequency": "once",\n                    "quality": "sputum and water"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "supportive family. sister staying with her this evening",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "sister"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "gave 2mg mso4, with little effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "taking guaf/codeine and benzonatate atc for cough",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "guaf/codeine and benzonatate",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "a&amp;o x 3, mae, oob to commode x 1 during the day",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "day",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "foley draining minimal amber urine. ~even for day and +800cc for los",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "minimal",\n                    "quality": "amber"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "gave ibuprofen @ 2100 with little effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "2100",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Excretion",\n            "text_quote": "sent bc x 2, needs urine cx",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "twice",\n                    "quality": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "after",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e6",\n            "relation": "after",\n            "event_id_2": "e7"\n        },\n        {\n            "event_id_1": "e7",\n            "relation": "before",\n            "event_id_2": "e8"\n        },\n        {\n            "event_id_1": "e8",\n            "relation": "after",\n            "event_id_2": "e9"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'moderate', 'location': 'right back', 'duration': 'during deep breathing cough'}}}, {'Excretion': {'Excretion': {'type': 'vomit', 'frequency': 'once', 'quality': 'sputum and water'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sister'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'guaf/codeine and benzonatate', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'minimal', 'quality': 'amber'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'twice', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'after', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'after', 'event_id_2': 'e9'}]], 'text_quotes': ['c/o pain in r back associated c deep breathing cough', 'vomited sputum and water during episode of coughing', 'supportive family. sister staying with her this evening', 'gave 2mg mso4, with little effect', 'taking guaf/codeine and benzonatate atc for cough', 'a&amp;o x 3, mae, oob to commode x 1 during the day', 'foley draining minimal amber urine. ~even for day and +800cc for los', 'gave ibuprofen @ 2100 with little effect', 'sent bc x 2, needs urine cx'], 'event_time': ['Unknown', 'Unknown', 'evening', 'Unknown', 'Unknown', 'day', 'Unknown', '2100', 'Unknown'], 'negation': [False, False, False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'coughing', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-16 22:17:00 and 2162-06-16 22:43:00):\n           nursing progress note 1900-2300\ns: "i feel like i can\'t catch my breath"\n\no: please see carevue for complete objective data.\n\nresp: c/o sob and increased wob. lungs apically clr w insp wheezes/crackles in bases. ho notified. c/o pain in r back associated c deep breathing cough. gave 2mg mso4, with little effect. productive cough with blood tinged sputum. taking guaf/codeine and benzonatate atc for cough.\n\ncv: hr 100\'s, st, with freq pvc\'s and asymptomatic 6 beat run of vt x 1, on amio by mouth. rec\'d coreg and captopril doses this pm. pulses palp.\n\ngi/gu: vomited sputum and water during episode of coughing. no further c/o nausea. no bm this shift. foley draining minimal amber urine. ~even for day and +800cc for los.\n\nid: had rec\'d tylenol @ 1800 for increasing temp. spiked to 102.0 @ [**2155**]. gave ibuprofen @ 2100 with little effect. sent bc x 2, needs urine cx.\n\nneuro/social: a&amp;o x 3, mae, oob to commode x 1 during the day. cooperative and in good spirits. supportive family. sister staying with her this evening.\n\na/p: 39 year old c severe cardiomyopathy and hf, being w/u by [**hospital1 364**] for transplant. cont to monitor temp and give tylenol. give expectorants atc for cough. pain meds pro re nata, emotionally support patient and family.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '39'}, {'attribute_name': 'medical condition', 'attribute_value': 'severe cardiomyopathy and heart failure'}]], 'actor': ['patient', 'patient', 'family member', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 41.64349093195051}</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>['a&amp;o x 3, mae, oob to commode x 1 during the day']</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Family', 'Pain', 'Eating', 'Sleep', 'Excretion', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'moderate', 'location': 'right back', 'duration': 'during deep breathing cough'}}}, {'Excretion': {'Excretion': {'type': 'vomit', 'frequency': 'once', 'quality': 'sputum and water'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sister'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'guaf/codeine and benzonatate', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'minimal', 'quality': 'amber'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'twice', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>['c/o pain in r back associated c deep breathing cough', 'vomited sputum and water during episode of coughing', 'supportive family. sister staying with her this evening', 'gave 2mg mso4, with little effect', 'taking guaf/codeine and benzonatate atc for cough', 'a&amp;o x 3, mae, oob to commode x 1 during the day', 'foley draining minimal amber urine. ~even for day and +800cc for los', 'gave ibuprofen @ 2100 with little effect', 'sent bc x 2, needs urine cx']</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o pain in r back associated c deep breathing cough', 'e2=Excretion|1:vomited sputum and water during episode of coughing', 'e3=Family|1:supportive family. sister staying with her this evening', 'e4=Pain|1:gave 2mg mso4, with little effect', 'e5=Eating|1:taking guaf/codeine and benzonatate atc for cough', 'e6=Sleep|1:a&amp;o x 3, mae, oob to commode x 1 during the day', 'e7=Excretion|1:foley draining minimal amber urine. ~even for day and +800cc for los', 'e8=Pain|1:gave ibuprofen @ 2100 with little effect', 'e9=Excretion|1:sent bc x 2, needs urine cx']</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'after', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'after', 'event_id_2': 'e9'}]]</t>
         </is>
@@ -1201,52 +1291,62 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-19 05:10:00'), Timestamp('2162-06-19 05:37:00'))</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'text': 'nursing progress note 1900-0700\ns: "i feel so great today, like i have more energy"\n\no: please see carevue for complete objective data.\n\ncv: hr 70-100\'s, nsr/st, with ocas pvc\'s. on dig and amio by mouth. diastolic blood pressure 90-110\'s, on captopril. tolerates by mouth meds well. pulses palp.\ncvp 12-15, pad\'s 20\'s, co/ci/svr-5.6/2.63/986. c/o l sided cp, [**5-4**], ekg done, no changes. gave mso4 2mg iv c complete relief.\n\nresp: sats 96-100 on ra. ocas wears 2l nc if sob or coughing. sputum sent. lungs clr c coarse bases. productive cough, tan-ish/yellow sputum-ocassionally blood tinged.\n\ngi/gu: nas diet, bs present, no bm this shift. needs stool cx. foley draining clr yellow urine. +1.1l for los. ~ -450cc for day.\n\nid/access: on ceftriaxone and vanco. gave tylenol @ [**2155**] for temp 100.1, now afebrile. rij swan, l radial a-line. iv tubings changed.\n\nneuro/social: a&amp;o x 3, copperative and pleasant. oob to commode/chair during day. c/o of generalized pain, associated c coughing and db. gave mso4 2mg for pain, but patient stated she thinks she is having nightmares from the morphine. family member stays during the night with patient. husband here last night. very supportive and helpful family.\n\na: 39 year old female with severe cardiomyopathy and hf, w/u by [**hospital1 364**] for transplant, titrating oral meds, off milrinone for over 12 hours.\n\np: continue to monitor hemodynamics and cardiac numbers. advance activity and enc appetite. fluid restriction 1500cc. follow up c labs and monitor uo. emotionally support patient and family and keep updated on plan.\n', 'event': ['Pain', 'Eating', 'Excretion', 'Family', 'Sleep', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "39"\n        },\n        {\n            "attribute_name": "gender",\n            "attribute_value": "female"\n        },\n        {\n            "attribute_name": "diagnosis",\n            "attribute_value": "severe cardiomyopathy and heart failure"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o of generalized pain, associated c coughing and db.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "generalized",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "nas diet, bs present",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "nas diet",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "foley draining clr yellow urine. +1.1l for los.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "clr yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "family member stays during the night with patient. husband here last night.",\n            "actor": "patient\'s family member",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "husband"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "family member stays during the night with patient.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "gave mso4 2mg for pain, but patient stated she thinks she is having nightmares from the morphine.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "morphine",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "simultaneous",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'generalized', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'nas diet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clr yellow'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ['c/o of generalized pain, associated c coughing and db.', 'nas diet, bs present', 'foley draining clr yellow urine. +1.1l for los.', 'family member stays during the night with patient. husband here last night.', 'family member stays during the night with patient.', 'gave mso4 2mg for pain, but patient stated she thinks she is having nightmares from the morphine.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'night', 'night', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'morphine'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-19 05:10:00 and 2162-06-19 05:37:00):\n           nursing progress note 1900-0700\ns: "i feel so great today, like i have more energy"\n\no: please see carevue for complete objective data.\n\ncv: hr 70-100\'s, nsr/st, with ocas pvc\'s. on dig and amio by mouth. diastolic blood pressure 90-110\'s, on captopril. tolerates by mouth meds well. pulses palp.\ncvp 12-15, pad\'s 20\'s, co/ci/svr-5.6/2.63/986. c/o l sided cp, [**5-4**], ekg done, no changes. gave mso4 2mg iv c complete relief.\n\nresp: sats 96-100 on ra. ocas wears 2l nc if sob or coughing. sputum sent. lungs clr c coarse bases. productive cough, tan-ish/yellow sputum-ocassionally blood tinged.\n\ngi/gu: nas diet, bs present, no bm this shift. needs stool cx. foley draining clr yellow urine. +1.1l for los. ~ -450cc for day.\n\nid/access: on ceftriaxone and vanco. gave tylenol @ [**2155**] for temp 100.1, now afebrile. rij swan, l radial a-line. iv tubings changed.\n\nneuro/social: a&amp;o x 3, copperative and pleasant. oob to commode/chair during day. c/o of generalized pain, associated c coughing and db. gave mso4 2mg for pain, but patient stated she thinks she is having nightmares from the morphine. family member stays during the night with patient. husband here last night. very supportive and helpful family.\n\na: 39 year old female with severe cardiomyopathy and hf, w/u by [**hospital1 364**] for transplant, titrating oral meds, off milrinone for over 12 hours.\n\np: continue to monitor hemodynamics and cardiac numbers. advance activity and enc appetite. fluid restriction 1500cc. follow up c labs and monitor uo. emotionally support patient and family and keep updated on plan.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '39'}, {'attribute_name': 'gender', 'attribute_value': 'female'}, {'attribute_name': 'diagnosis', 'attribute_value': 'severe cardiomyopathy and heart failure'}]], 'actor': ['patient', 'patient', 'patient', "patient's family member", 'patient', 'patient'], 'event_detection_time': 25.54609092208557}</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>['family member stays during the night with patient.']</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Family', 'Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'generalized', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'nas diet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clr yellow'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['c/o of generalized pain, associated c coughing and db.', 'nas diet, bs present', 'foley draining clr yellow urine. +1.1l for los.', 'family member stays during the night with patient. husband here last night.', 'family member stays during the night with patient.', 'gave mso4 2mg for pain, but patient stated she thinks she is having nightmares from the morphine.']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o of generalized pain, associated c coughing and db.', 'e2=Eating|1:nas diet, bs present', 'e3=Excretion|1:foley draining clr yellow urine. +1.1l for los.', 'e4=Family|1:family member stays during the night with patient. husband here last night.', 'e5=Sleep|1:family member stays during the night with patient.', 'e6=Pain|1:gave mso4 2mg for pain, but patient stated she thinks she is having nightmares from the morphine.']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -1281,52 +1381,62 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-19 18:21:00'), Timestamp('2162-06-19 18:36:00'))</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu npn 0700-1900\n\ns/o: "i feel so much better"\n\nneuro/pain: a&amp;0 x3. muscular pain assoc with coughing, denies need for pain meds. oob to chair today, some fatigue but tolerated well. pleasant &amp; co-op with care. no anxiety episodes this shift.\n\ncv: see carevue for co/ci #\'s. co improved post captopril. u/o &gt; 5occ/hr. bp &gt;100/60 on dig, amio, &amp; captopril. swan d/c\'d, r ij introducer d/c\'d (side arm clotted). a-line d/c\'d.\n\nresp: ls decreased rll, clear upper bilat with faint rales lll. coughing up blood tinged sputum.\non ceftaz, azithromax for presumed pnx.\n\ngi/gu: tolerating by mouth\'s, bm x2, sent for viral cx. u/o improving on captopril. cont\'s on 1500cc fr.\nid: temp 98.5, no temp spike, on iv vanco. id following. line tips sent for cx\'s.\n\na/p: afebrile on iv abx. responding to medical management for dcm. id w/u in progress. cont cardiopulm assessment.\n', 'event': ['Pain', 'Sleep', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "muscular pain assoc with coughing, denies need for pain meds.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "muscular",\n                    "duration": "assoc with coughing"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "no anxiety episodes this shift.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "bm x2, sent for viral cx.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "x2"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "tolerating by mouth\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'mild', 'location': 'muscular', 'duration': 'assoc with coughing'}}}, {'Sleep': {'Sleep': {}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x2'}}}, {'Eating': {'Eating': {}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['muscular pain assoc with coughing, denies need for pain meds.', 'no anxiety episodes this shift.', 'bm x2, sent for viral cx.', "tolerating by mouth's", ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-19 18:21:00 and 2162-06-19 18:36:00):\n           ccu npn 0700-1900\n\ns/o: "i feel so much better"\n\nneuro/pain: a&amp;0 x3. muscular pain assoc with coughing, denies need for pain meds. oob to chair today, some fatigue but tolerated well. pleasant &amp; co-op with care. no anxiety episodes this shift.\n\ncv: see carevue for co/ci #\'s. co improved post captopril. u/o &gt; 5occ/hr. bp &gt;100/60 on dig, amio, &amp; captopril. swan d/c\'d, r ij introducer d/c\'d (side arm clotted). a-line d/c\'d.\n\nresp: ls decreased rll, clear upper bilat with faint rales lll. coughing up blood tinged sputum.\non ceftaz, azithromax for presumed pnx.\n\ngi/gu: tolerating by mouth\'s, bm x2, sent for viral cx. u/o improving on captopril. cont\'s on 1500cc fr.\nid: temp 98.5, no temp spike, on iv vanco. id following. line tips sent for cx\'s.\n\na/p: afebrile on iv abx. responding to medical management for dcm. id w/u in progress. cont cardiopulm assessment.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 16.667975070886314}</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['no anxiety episodes this shift.']</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'mild', 'location': 'muscular', 'duration': 'assoc with coughing'}}}, {'Sleep': {'Sleep': {}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x2'}}}, {'Eating': {'Eating': {}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['muscular pain assoc with coughing, denies need for pain meds.', 'no anxiety episodes this shift.', 'bm x2, sent for viral cx.', "tolerating by mouth's", '']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>['e1=Pain|1:muscular pain assoc with coughing, denies need for pain meds.', 'e2=Sleep|1:no anxiety episodes this shift.', 'e3=Excretion|1:bm x2, sent for viral cx.', "e4=Eating|1:tolerating by mouth's", 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1361,52 +1471,62 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-12 18:23:00'), Timestamp('2164-12-12 18:41:00'))</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'text': 'please refer to carevue for complete assessment and specifics.\n\npatient was sent to or at 11:00am. status post lt suboccipital crani for decompression. patient returned from or at 17:00.\n\nneuro: lethargic, progressively more alert and oriented. currently patient ox3, mae spont/purp, following commands consistently, perl 3mm sluggish, patient appears to have slight lt eye droop continue to monitor. vent drain levelled at 5cm above tragus, draining blood tinged fluid, icp 2-6.\n\ncv: hr 56-88, sb-nsr, no ectopy, diastolic blood pressure parameters 100-140, nipride titrated accordingly.\n\nresp: patient extubated upon arrival by anaesthesia attending dr. [**last name (stitle) 5126**].oxygen saturation &gt;95% on 5l via vm. lung sounds clear, no sob.\n\ngi: abd soft, nt/nd, absent bs, remains npo currently.\n\ngu: foley draining adeq clear yellow urine.\n\nid: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2\n\nplan: moniotr vs, neuro status, resp status, labs. diastolic blood pressure 100-140. repeat head ct this evening. ?cardiac echo and mri tomorrow. cont current mgmt.\n\n\n', 'event': ['Sleep', 'Excretion', 'Eating', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post lt suboccipital crani for decompression"\n        },\n        {\n            "attribute_name": "npo currently"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "neuro: lethargic, progressively more alert and oriented.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "lethargic"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu: foley draining adeq clear yellow urine.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "adeq",\n                    "quality": "clear yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "gi: abd soft, nt/nd, absent bs, remains npo currently.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "None",\n                    "amount": "None",\n                    "method": "None"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "neuro: ... patient appears to have slight lt eye droop continue to monitor.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "slight",\n                    "location": "lt eye",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "id: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'lethargic'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adeq', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'None'}}}, {'Pain': {'Pain': {'severity': 'slight', 'location': 'lt eye', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['neuro: lethargic, progressively more alert and oriented.', 'gu: foley draining adeq clear yellow urine.', 'gi: abd soft, nt/nd, absent bs, remains npo currently.', 'neuro: ... patient appears to have slight lt eye droop continue to monitor.', 'id: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-12 18:23:00 and 2164-12-12 18:41:00):\n           please refer to carevue for complete assessment and specifics.\n\npatient was sent to or at 11:00am. status post lt suboccipital crani for decompression. patient returned from or at 17:00.\n\nneuro: lethargic, progressively more alert and oriented. currently patient ox3, mae spont/purp, following commands consistently, perl 3mm sluggish, patient appears to have slight lt eye droop continue to monitor. vent drain levelled at 5cm above tragus, draining blood tinged fluid, icp 2-6.\n\ncv: hr 56-88, sb-nsr, no ectopy, diastolic blood pressure parameters 100-140, nipride titrated accordingly.\n\nresp: patient extubated upon arrival by anaesthesia attending dr. [**last name (stitle) 5126**].oxygen saturation &gt;95% on 5l via vm. lung sounds clear, no sob.\n\ngi: abd soft, nt/nd, absent bs, remains npo currently.\n\ngu: foley draining adeq clear yellow urine.\n\nid: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2\n\nplan: moniotr vs, neuro status, resp status, labs. diastolic blood pressure 100-140. repeat head ct this evening. ?cardiac echo and mri tomorrow. cont current mgmt.\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'status post lt suboccipital crani for decompression'}, {'attribute_name': 'npo currently'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.11011535511352}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['neuro: lethargic, progressively more alert and oriented.', 'id: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2']</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lethargic'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lethargic'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adeq', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'None'}}}, {'Pain': {'Pain': {'severity': 'slight', 'location': 'lt eye', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>['neuro: lethargic, progressively more alert and oriented.', 'gu: foley draining adeq clear yellow urine.', 'gi: abd soft, nt/nd, absent bs, remains npo currently.', 'neuro: ... patient appears to have slight lt eye droop continue to monitor.', 'id: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:neuro: lethargic, progressively more alert and oriented.', 'e2=Excretion|1:gu: foley draining adeq clear yellow urine.', 'e3=Eating|1:gi: abd soft, nt/nd, absent bs, remains npo currently.', 'e4=Pain|0:neuro: ... patient appears to have slight lt eye droop continue to monitor.', 'e5=Sleep|1:id: temp 94.1 upon arrival from or, bairhugger placed and temp inc to 98.2']</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1438,52 +1558,62 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-13 06:24:00'), Timestamp('2164-12-13 06:42:00'))</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'text': 'condition updated\nstatus post decompression; vent drain placement\nfor detail info please refer to carevue flowsheet.\npatient awoke alert/orientated, now moving all extremeties. (l) eye still slightly "droopy"\nbp control w/nipride and hydralazine\nc/o neck pain and headache from surgery med w/morphine, tylenol and warm pack with some relief. hestitant to give too much mso4 in view of altering mental status.\n\n', 'event': ['Pain', 'Sleep', 'Eating', 'Excretion', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o neck pain and headache from surgery med w/morphine, tylenol and warm pack with some relief.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "surgery",\n      "event_attributes": {\n        "Pain": {\n          "severity": "moderate",\n          "location": "neck and head",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient awoke alert/orientated, now moving all extremeties.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "",\n          "amount": "",\n          "method": ""\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "",\n          "frequency": "",\n          "quality": ""\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "",\n          "relation": ""\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "bp control w/nipride and hydralazine",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e6",\n      "relation": "simultaneous",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'moderate', 'location': 'neck and head', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e6', 'relation': 'simultaneous', 'event_id_2': 'e1'}]], 'text_quotes': ['c/o neck pain and headache from surgery med w/morphine, tylenol and warm pack with some relief.', 'patient awoke alert/orientated, now moving all extremeties.', '', '', '', 'bp control w/nipride and hydralazine'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['surgery', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-13 06:24:00 and 2164-12-13 06:42:00):\n           condition updated\nstatus post decompression; vent drain placement\nfor detail info please refer to carevue flowsheet.\npatient awoke alert/orientated, now moving all extremeties. (l) eye still slightly "droopy"\nbp control w/nipride and hydralazine\nc/o neck pain and headache from surgery med w/morphine, tylenol and warm pack with some relief. hestitant to give too much mso4 in view of altering mental status.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.47618013410829}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>['patient awoke alert/orientated, now moving all extremeties.']</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'moderate', 'location': 'neck and head', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': '', 'amount': '', 'method': ''}}}, {'Excretion': {'Excretion': {'type': '', 'frequency': '', 'quality': ''}}}, {'Family': {'Family': {'interaction': '', 'relation': ''}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>['c/o neck pain and headache from surgery med w/morphine, tylenol and warm pack with some relief.', 'patient awoke alert/orientated, now moving all extremeties.', '', '', '', 'bp control w/nipride and hydralazine']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o neck pain and headache from surgery med w/morphine, tylenol and warm pack with some relief.', 'e2=Sleep|1:patient awoke alert/orientated, now moving all extremeties.', 'e3=Eating|1:', 'e4=Excretion|1:', 'e5=Family|1:', 'e6=Unknown|1:bp control w/nipride and hydralazine']</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e6', 'relation': 'simultaneous', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -1514,52 +1644,62 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-17 13:16:00'), Timestamp('2164-12-17 13:27:00'))</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'text': "nursing progress notes\n  please see carevue for details of care.  alert and oriented.  awake and conversive. maew&lt; = &amp; strong. perl @ 3mm.  sl facial droop and l arm drip persist.  med x1 this am for h/a w/morphine 2mg w/stated effect. vent drain remains clamped, icp 8-12 today. neuro to d/c vent drain post ct scan. to be transfered to neuro step down when bed avail.\n  hr 58-70's today, diastolic blood pressure maint &lt;160 mon by mouth meds.  ivf kvo, tol by mouth fluids and small amts by mouth solids.\n  oxygen saturation 94-96 on 2l nc this am.  bs clear, raising scant thick white secretions. oob to chair tol well today.\n  plan: transfer to neuro stepdown when bed avail.  repeat ct scan, monitor nuero status, resp status and vs.\n", 'event': ['Pain', 'Eating', 'Excretion', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "med x1 this am for h/a w/morphine 2mg w/stated effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "head",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "tol by mouth fluids and small amts by mouth solids.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "fluids and solids",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "bs clear, raising scant thick white secretions.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sputum",\n                    "frequency": "scant",\n                    "quality": "thick white"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "awake and conversive.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'head', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'fluids and solids', 'amount': 'small amounts', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'scant', 'quality': 'thick white'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['med x1 this am for h/a w/morphine 2mg w/stated effect.', 'tol by mouth fluids and small amts by mouth solids.', 'bs clear, raising scant thick white secretions.', 'awake and conversive.', ''], 'event_time': ['this am', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-17 13:16:00 and 2164-12-17 13:27:00):\n           nursing progress notes\n  please see carevue for details of care.  alert and oriented.  awake and conversive. maew&lt; = &amp; strong. perl @ 3mm.  sl facial droop and l arm drip persist.  med x1 this am for h/a w/morphine 2mg w/stated effect. vent drain remains clamped, icp 8-12 today. neuro to d/c vent drain post ct scan. to be transfered to neuro step down when bed avail.\n  hr 58-70\'s today, diastolic blood pressure maint &lt;160 mon by mouth meds.  ivf kvo, tol by mouth fluids and small amts by mouth solids.\n  oxygen saturation 94-96 on 2l nc this am.  bs clear, raising scant thick white secretions. oob to chair tol well today.\n  plan: transfer to neuro stepdown when bed avail.  repeat ct scan, monitor nuero status, resp status and vs.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 18.384932443965226}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['awake and conversive.']</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'head', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'fluids and solids', 'amount': 'small amounts', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'scant', 'quality': 'thick white'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>['med x1 this am for h/a w/morphine 2mg w/stated effect.', 'tol by mouth fluids and small amts by mouth solids.', 'bs clear, raising scant thick white secretions.', 'awake and conversive.', '']</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>['e1=Pain|1:med x1 this am for h/a w/morphine 2mg w/stated effect.', 'e2=Eating|1:tol by mouth fluids and small amts by mouth solids.', 'e3=Excretion|1:bs clear, raising scant thick white secretions.', 'e4=Sleep|1:awake and conversive.', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1609,56 +1749,66 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-21 17:45:00'), Timestamp('2102-09-21 18:24:00'))</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>{'text': "ccu nursing progress note 7a-7p:\n\nneuro: patient alert and oriented x 3.  patient expressing frustration about admission. resting off and on throughout day.  patient complaining of insomnia x 2wks. moving all extremities spontaneously. patient turning side to side with one asssist.\n\ncv: v paved with occasional av pacing. hr 70's. diastolic blood pressure 106-118. patient denies cp. patient continues on amio drops @ 0.5mg/min.\n\n  milrinone drops increased to 0.5mcg/kg/min at 11am and lasix drops placed on hold. swan ganz cath in rij revealing pad's 29-32.  cvp 12-15. c.o./c.i./svr-(5.4, 2.78, 800). k+ 3.9 with am labs. k+ 1pm 3.3 repleted with 40meq kcl iv, repeat k+ 4.3.\n\n  ptt 150 hep drops placed on hold x 1hr per heparin protocol and decreased to 1100u/hr(1400u/hr). ptt 3pm 78.2 no changes per hep protocol. hct 32.5\n\npulm: ls diminished bibasilary. patient denies sob. patient unable to tolerate lying flat, requests 30-45 degree angle. breathing appears even and unlabored. no peripheral edema.\n\ngi: abd soft nt +bs. patient denies n/v. patient with poor appetite. patient had oatmeal for breakfast and fruit/cottage ch for dinner. patient stated that he feels dry, sipping on gingerale and water.  patient flatus  with liquid brown ob- stool x 2. conts on reglan by mouth.  ?decreasing dose.\n\ngu: foley cath placed at 11am, draining cyu. imput appox 55-100cc/hr. u/o 60-120cc/hr. -400cc los. +377cc since mn. per cardiolgy fellow goal fluid status is negative. h.o. and res. notified updated  awaiting decision regarding lasix administration.\nbun 122 cr. 2.9\n\nskin: buttocks red, cream appiled. patient encouraged to turn side to side.\n\nid: afebrile\n\nproph: hep drops and protonix by mouth.\n\nlines: 1 piv and rij swan.\n\ndispo: full code\n\nsocial: [**name (ni) 98**] wife and daughter in to visit this evening.\n\na:improving c.o. on increased milrinone drops.\n   ptt therapeutic\n   stable resp status\n   poor appetite\n   +fluid status, lasix drops on hold.\np: await plan regarding diuresis tonight.\n   monitor pulm status.\n   follow u/o closely\n   provide support.\n", 'event': ['Sleep', 'Pain', 'Eating', 'Excretion', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "resting off and on throughout day.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "on and off"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient complaining of insomnia x 2wks.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "2 weeks"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "patient had oatmeal for breakfast and fruit/cottage ch for dinner.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "oatmeal, fruit/cottage cheese",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "patient flatus with liquid brown ob- stool x 2.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "x 2",\n          "quality": "liquid brown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "[**name (ni) 98**] wife and daughter in to visit this evening.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "evening",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife and daughter"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': '2 weeks'}}}, {'Eating': {'Eating': {'food': 'oatmeal, fruit/cottage cheese', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x 2', 'quality': 'liquid brown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and daughter'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['resting off and on throughout day.', 'patient complaining of insomnia x 2wks.', 'patient had oatmeal for breakfast and fruit/cottage ch for dinner.', 'patient flatus with liquid brown ob- stool x 2.', '[**name (ni) 98**] wife and daughter in to visit this evening.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'evening'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-21 17:45:00 and 2102-09-21 18:24:00):\n           ccu nursing progress note 7a-7p:\n\nneuro: patient alert and oriented x 3.  patient expressing frustration about admission. resting off and on throughout day.  patient complaining of insomnia x 2wks. moving all extremities spontaneously. patient turning side to side with one asssist.\n\ncv: v paved with occasional av pacing. hr 70\'s. diastolic blood pressure 106-118. patient denies cp. patient continues on amio drops @ 0.5mg/min.\n\n  milrinone drops increased to 0.5mcg/kg/min at 11am and lasix drops placed on hold. swan ganz cath in rij revealing pad\'s 29-32.  cvp 12-15. c.o./c.i./svr-(5.4, 2.78, 800). k+ 3.9 with am labs. k+ 1pm 3.3 repleted with 40meq kcl iv, repeat k+ 4.3.\n\n  ptt 150 hep drops placed on hold x 1hr per heparin protocol and decreased to 1100u/hr(1400u/hr). ptt 3pm 78.2 no changes per hep protocol. hct 32.5\n\npulm: ls diminished bibasilary. patient denies sob. patient unable to tolerate lying flat, requests 30-45 degree angle. breathing appears even and unlabored. no peripheral edema.\n\ngi: abd soft nt +bs. patient denies n/v. patient with poor appetite. patient had oatmeal for breakfast and fruit/cottage ch for dinner. patient stated that he feels dry, sipping on gingerale and water.  patient flatus  with liquid brown ob- stool x 2. conts on reglan by mouth.  ?decreasing dose.\n\ngu: foley cath placed at 11am, draining cyu. imput appox 55-100cc/hr. u/o 60-120cc/hr. -400cc los. +377cc since mn. per cardiolgy fellow goal fluid status is negative. h.o. and res. notified updated  awaiting decision regarding lasix administration.\nbun 122 cr. 2.9\n\nskin: buttocks red, cream appiled. patient encouraged to turn side to side.\n\nid: afebrile\n\nproph: hep drops and protonix by mouth.\n\nlines: 1 piv and rij swan.\n\ndispo: full code\n\nsocial: [**name (ni) 98**] wife and daughter in to visit this evening.\n\na:improving c.o. on increased milrinone drops.\n   ptt therapeutic\n   stable resp status\n   poor appetite\n   +fluid status, lasix drops on hold.\np: await plan regarding diuresis tonight.\n   monitor pulm status.\n   follow u/o closely\n   provide support.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 20.28105570212938}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>c: insomnia</t>
         </is>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>['resting off and on throughout day.']</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Excretion', 'Family']</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': '2 weeks'}}}, {'Eating': {'Eating': {'food': 'oatmeal, fruit/cottage cheese', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x 2', 'quality': 'liquid brown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and daughter'}}}]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>['resting off and on throughout day.', 'patient complaining of insomnia x 2wks.', 'patient had oatmeal for breakfast and fruit/cottage ch for dinner.', 'patient flatus with liquid brown ob- stool x 2.', '[**name (ni) 98**] wife and daughter in to visit this evening.']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:resting off and on throughout day.', 'e2=Pain|1:patient complaining of insomnia x 2wks.', 'e3=Eating|1:patient had oatmeal for breakfast and fruit/cottage ch for dinner.', 'e4=Excretion|0:patient flatus with liquid brown ob- stool x 2.', 'e5=Family|1:[**name (ni) 98**] wife and daughter in to visit this evening.']</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1685,52 +1835,62 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-01 18:28:00'), Timestamp('2179-07-01 18:55:00'))</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'text': "67y/o male with history of cad status post inferolateral mi, chf, status post icd placement for primary preventions followed by vt episodes status post ablation now presenting with icd firing after most recent d/c on [**6-28**] for same complaint.  patient to ep lab today for ablation which was unsuccessful due to aortic calcification, patient returned to vascular floor on bedrest &amp; began to experience several episodes of sustained v-tach and subsequent aicd firing.  patient received iv lido bolus x2 and iv amiodarone bolus on floor and transfered to ccu for further med management and monitoring.  patient was started on iv amiodarone infusion @1mg/min &amp; iv lido drops @0.5mg/min.  patient began experiencing sustained v-tach episodes with aicd firing ~1-1/2hours after arriving to ccu.  patient's lido drops increased to 1mg/min, and received another iv amiodarone bolus of 150mg.  patient also given 75mg by mouth lopressor, 1mg iv ativan x2, and 2mg iv morphine x2 for repeated episodes of v-tach with aicd firing.  patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given.  patient is on n/c @2liters/min.  no sob noted.  patient's hr is now in 60's with increase up to 179-200 noted with vtach.  (r) &amp; (l) groin sites with slight ooze status post ep lab, (+) pulse on (r &amp; l le's).  iv amiodarone infusing via (r) piv &amp; iv lido infusing via (l) piv.  unsuccessful attempts at further access due to aicd firing.    ep service &amp; cardiology up to see patient, &amp; patient is npo after mn.  patient voided ~550cc concentrated urine x1 in urinal.  [**name (ni) 98**] wife was at bedside since early am and present most of time when patient's aicd firing.  plan is for ep lab tomorrow am if not stablized on iv amio infusion\n", 'event': ['Excretion', 'Family', 'Pain', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "history",\n            "attribute_value": "cad status post inferolateral mi, chf, status post icd placement for primary preventions followed by vt episodes status post ablation"\n        },\n        {\n            "attribute_name": "previous treatment",\n            "attribute_value": "ablation on 6-28"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "patient voided ~550cc concentrated urine x1 in urinal",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "x1",\n                    "quality": "concentrated"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "[**name (ni) 98**] wife was at bedside since early am and present most of time when patient\'s aicd firing",\n            "actor": "wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "patient given 2mg iv morphine x2 for repeated episodes of v-tach with aicd firing",\n            "actor": "patient",\n            "object": "pain",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "v-tach with aicd firing",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "repeated episodes"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "patient is npo after mn",\n            "actor": "patient",\n            "object": "food",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "npo"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "sedation",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "slightly groggy",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'x1', 'quality': 'concentrated'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'repeated episodes'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'npo'}}}, {'Sleep': {'Sleep': {'quality': 'slightly groggy', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['patient voided ~550cc concentrated urine x1 in urinal', "[**name (ni) 98**] wife was at bedside since early am and present most of time when patient's aicd firing", 'patient given 2mg iv morphine x2 for repeated episodes of v-tach with aicd firing', 'patient is npo after mn', 'patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'v-tach with aicd firing', 'Unknown', 'sedation'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-01 18:28:00 and 2179-07-01 18:55:00):\n           67y/o male with history of cad status post inferolateral mi, chf, status post icd placement for primary preventions followed by vt episodes status post ablation now presenting with icd firing after most recent d/c on [**6-28**] for same complaint.  patient to ep lab today for ablation which was unsuccessful due to aortic calcification, patient returned to vascular floor on bedrest &amp; began to experience several episodes of sustained v-tach and subsequent aicd firing.  patient received iv lido bolus x2 and iv amiodarone bolus on floor and transfered to ccu for further med management and monitoring.  patient was started on iv amiodarone infusion @1mg/min &amp; iv lido drops @0.5mg/min.  patient began experiencing sustained v-tach episodes with aicd firing ~1-1/2hours after arriving to ccu.  patient\'s lido drops increased to 1mg/min, and received another iv amiodarone bolus of 150mg.  patient also given 75mg by mouth lopressor, 1mg iv ativan x2, and 2mg iv morphine x2 for repeated episodes of v-tach with aicd firing.  patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given.  patient is on n/c @2liters/min.  no sob noted.  patient\'s hr is now in 60\'s with increase up to 179-200 noted with vtach.  (r) &amp; (l) groin sites with slight ooze status post ep lab, (+) pulse on (r &amp; l le\'s).  iv amiodarone infusing via (r) piv &amp; iv lido infusing via (l) piv.  unsuccessful attempts at further access due to aicd firing.    ep service &amp; cardiology up to see patient, &amp; patient is npo after mn.  patient voided ~550cc concentrated urine x1 in urinal.  [**name (ni) 98**] wife was at bedside since early am and present most of time when patient\'s aicd firing.  plan is for ep lab tomorrow am if not stablized on iv amio infusion\n\n        ', 'case_attributes': [[{'attribute_name': 'history', 'attribute_value': 'cad status post inferolateral mi, chf, status post icd placement for primary preventions followed by vt episodes status post ablation'}, {'attribute_name': 'previous treatment', 'attribute_value': 'ablation on 6-28'}]], 'actor': ['patient', 'wife', 'patient', 'patient', 'patient'], 'event_detection_time': 23.49336540699005}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>['patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given']</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'slightly groggy', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['Excretion', 'Family', 'Pain', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'x1', 'quality': 'concentrated'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'repeated episodes'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'npo'}}}, {'Sleep': {'Sleep': {'quality': 'slightly groggy', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['patient voided ~550cc concentrated urine x1 in urinal', "[**name (ni) 98**] wife was at bedside since early am and present most of time when patient's aicd firing", 'patient given 2mg iv morphine x2 for repeated episodes of v-tach with aicd firing', 'patient is npo after mn', 'patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given']</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:patient voided ~550cc concentrated urine x1 in urinal', "e2=Family|1:[**name (ni) 98**] wife was at bedside since early am and present most of time when patient's aicd firing", 'e3=Pain|0:patient given 2mg iv morphine x2 for repeated episodes of v-tach with aicd firing', 'e4=Eating|1:patient is npo after mn', 'e5=Sleep|1:patient is [**name (ni) **] &amp; oriented x3 now becoming slightly groggy, with current sedation given']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1765,52 +1925,62 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-03 18:18:00'), Timestamp('2179-07-03 18:42:00'))</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn: please see flowsheet for objective data\n\ncardiac: hr 50-60's no runs of vt bp 100-140/60-70 on amiodorone 0.5mg/min until 5pm.by mouth amiodorone started at noon 400mg by mouth bid. lidocaine continues at 1mg/min. ramipril increased to 10mg daily from 5. additional 5mg given at 6pm. k this am 3.6 repleted with 40 kcl this morning. repeat labs sent this afternoon. goal k is 4,5 per ep.\n\nvascular: small av groin fistula left side. good pedal pulses. vascular surgery fellow examined this afternoon,to talk with attending regarding future plans. currently on bedrest.\n\nresp: lungs clear on ra good sats\n\ngu: good urine output.\n\ngi: good appetite,+bs no stool\n\nneuro: [** 467**] and oriented x3\n\na/p: continue on lidocaine overnight.monitor overnight if no runs of vt then lidocaine will be d/ced. replete lytes as needed.\noob to chair once cleared by vascular surgery. cont current medical plan as discussed on interdisciplinary rounds\n", 'event': ['Excretion', 'Eating', 'Excretion', 'Sleep', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "good urine output",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "good",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "good appetite,+bs no stool",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "+bs no stool",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "none",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "[** 467**] and oriented x3",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "vascular surgery fellow examined this afternoon,to talk with attending regarding future plans.",\n      "actor": "vascular surgery fellow",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "examination",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "unknown",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'examination', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['good urine output', 'good appetite,+bs no stool', '+bs no stool', '[** 467**] and oriented x3', 'vascular surgery fellow examined this afternoon,to talk with attending regarding future plans.', 'None'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'afternoon', 'Unknown'], 'negation': [False, False, True, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-03 18:18:00 and 2179-07-03 18:42:00):\n           ccu npn: please see flowsheet for objective data\n\ncardiac: hr 50-60\'s no runs of vt bp 100-140/60-70 on amiodorone 0.5mg/min until 5pm.by mouth amiodorone started at noon 400mg by mouth bid. lidocaine continues at 1mg/min. ramipril increased to 10mg daily from 5. additional 5mg given at 6pm. k this am 3.6 repleted with 40 kcl this morning. repeat labs sent this afternoon. goal k is 4,5 per ep.\n\nvascular: small av groin fistula left side. good pedal pulses. vascular surgery fellow examined this afternoon,to talk with attending regarding future plans. currently on bedrest.\n\nresp: lungs clear on ra good sats\n\ngu: good urine output.\n\ngi: good appetite,+bs no stool\n\nneuro: [** 467**] and oriented x3\n\na/p: continue on lidocaine overnight.monitor overnight if no runs of vt then lidocaine will be d/ced. replete lytes as needed.\noob to chair once cleared by vascular surgery. cont current medical plan as discussed on interdisciplinary rounds\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'vascular surgery fellow', 'patient'], 'event_detection_time': 24.76519760512747}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>['[** 467**] and oriented x3']</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Excretion', 'Sleep', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'examination', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>['good urine output', 'good appetite,+bs no stool', '+bs no stool', '[** 467**] and oriented x3', 'vascular surgery fellow examined this afternoon,to talk with attending regarding future plans.', 'None']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:good urine output', 'e2=Eating|1:good appetite,+bs no stool', 'e3=Excretion|1:+bs no stool', 'e4=Sleep|1:[** 467**] and oriented x3', 'e5=Family|1:vascular surgery fellow examined this afternoon,to talk with attending regarding future plans.', 'e6=Pain|0:None']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -1843,52 +2013,62 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-04 17:53:00'), Timestamp('2179-07-04 18:00:00'))</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn: please see flowsheet for objective data\n\ncardiac: hr 50-60's sb-sr with prolonged pr. bp 96-120/63-90 lidocaine decreased to 0.5mg/min at 11am and then d/ced at 2:30pm. cont on amiodorone 400mg by mouth twice daily. no vt. also on lopressor 75mg three times a day. k4.0 this am,k repleted at 4pm with 40meq kcl\n\nskin: area of redness and swelling on left wrist,site of iv infiltrate. c/o pain with movement. relief with hot pack and did receive tylenol at 4pm.\n\nresp: on ra good sats,lungs clear\n\ngi: good appetite. on protonix\n\nsocial: wife in to visit\n\na/p: monitor overnight in icu. can be called out to floor if no runs of vt per dr [**last name (stitle) 3690**].\n", 'event': ['Pain', 'Family', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o pain with movement. relief with hot pack and did receive tylenol at 4pm.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "4pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "left wrist",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "wife in to visit",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "good appetite. on protonix",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "Unknown",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'left wrist', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['c/o pain with movement. relief with hot pack and did receive tylenol at 4pm.', 'wife in to visit', 'good appetite. on protonix', 'None', 'None'], 'event_time': ['4pm', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-04 17:53:00 and 2179-07-04 18:00:00):\n           ccu npn: please see flowsheet for objective data\n\ncardiac: hr 50-60\'s sb-sr with prolonged pr. bp 96-120/63-90 lidocaine decreased to 0.5mg/min at 11am and then d/ced at 2:30pm. cont on amiodorone 400mg by mouth twice daily. no vt. also on lopressor 75mg three times a day. k4.0 this am,k repleted at 4pm with 40meq kcl\n\nskin: area of redness and swelling on left wrist,site of iv infiltrate. c/o pain with movement. relief with hot pack and did receive tylenol at 4pm.\n\nresp: on ra good sats,lungs clear\n\ngi: good appetite. on protonix\n\nsocial: wife in to visit\n\na/p: monitor overnight in icu. can be called out to floor if no runs of vt per dr [**last name (stitle) 3690**].\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 18.59780749795027}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['Pain', 'Family', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'left wrist', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['c/o pain with movement. relief with hot pack and did receive tylenol at 4pm.', 'wife in to visit', 'good appetite. on protonix', 'None', 'None']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o pain with movement. relief with hot pack and did receive tylenol at 4pm.', 'e2=Family|1:wife in to visit', 'e3=Eating|1:good appetite. on protonix', 'e4=Excretion|0:None', 'e5=Sleep|0:None']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1924,52 +2104,62 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-06 04:28:00'), Timestamp('2179-07-06 04:56:00'))</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn 1900-0700\ns: patient continues orally intubated and mechanically ventilated.\n\no: please see careview for vs and additional data.\n\ncv: patient hr 55-59 1st degree avb with rare pvc noted, abp 90-138/44-67 maps 58-90. patient continues on esmolol drops 50 mcg/kg/min, amiodarone drops 0.5 mg/min (due off at 1230) and lidocaine drops 2 mg/min (due off at 0800). no vt noted, patient nods head no to cp. bilat pedal pulses palp (r diff palp), r groins continue ecchymotic. am labs sent, hct 35.4, am lytes pending.\n\nresp: patient continues intubated, fio2 decreased to 50% ac 650 x12 10 peep, patient overbreathing at times 1-6 bpm, most recent abg on above settings 7.39/42/104/26. patient sxn'd for scant amounts thick white sputum, scant oral secretions noted. patient ls clear to coarse/diminshed at bases.\n\nneuro: received patient on fentanyl 25 mcg/hr and versed 4 mg/hr with patient calm and lightly sedated.  patient becoming more awake as evening continued, patient noted to get hand wrapped around ett x2-&gt; patient nodded head yes to feeling too awake, soft wrist immobilizers applied for integrity of lines. patient presently sedated on fentanyl 35 mcg/hr and versed 4mg/hr. patient nods head no to pain, no grimacing noted. patient mae, assists with turning in bed. patient oriented throughout shift on condition and poc.\n\ngi/gu: patient abd soft slightly distended, +bsx4, no stool, +flatus. ogt clamped with bilious aspirates. foley cath draining clear darker yellow u/o 17-100 cc's/hr\n\nid: afebrile.\n\nskin: patient l forearm with prior iv infiltrate site, warm packs applied and arm elevated. skin otherwise appears intact.\n\na/p: 67 year old male with no vt noted overnoc with lidocaine/amiodarone/esmolol drops's infusing. as discussed with ccu md's, cont drops's overnoc into this am, await rounds for further medication orders. cont to monitor hemodynamics, resp status, wean vent as tol. cont to provide emotional support to patient and family, awaiting further poc per ccu team.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient becoming more awake as evening continued",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "evening",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "light",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient nods head no to pain, no grimacing noted",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "None",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "+flatus, foley cath draining clear darker yellow u/o 17-100 cc\'s/hr",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "17-100 cc\'s/hr",\n          "quality": "clear darker yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "ogt clamped with bilious aspirates",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "tube"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "cont to provide emotional support to patient and family",\n      "actor": "staff",\n      "object": "patient and family",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "emotional support",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'light', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'None', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "17-100 cc's/hr", 'quality': 'clear darker yellow'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'tube'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['patient becoming more awake as evening continued', 'patient nods head no to pain, no grimacing noted', "+flatus, foley cath draining clear darker yellow u/o 17-100 cc's/hr", 'ogt clamped with bilious aspirates', 'cont to provide emotional support to patient and family'], 'event_time': ['evening', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-06 04:28:00 and 2179-07-06 04:56:00):\n           ccu npn 1900-0700\ns: patient continues orally intubated and mechanically ventilated.\n\no: please see careview for vs and additional data.\n\ncv: patient hr 55-59 1st degree avb with rare pvc noted, abp 90-138/44-67 maps 58-90. patient continues on esmolol drops 50 mcg/kg/min, amiodarone drops 0.5 mg/min (due off at 1230) and lidocaine drops 2 mg/min (due off at 0800). no vt noted, patient nods head no to cp. bilat pedal pulses palp (r diff palp), r groins continue ecchymotic. am labs sent, hct 35.4, am lytes pending.\n\nresp: patient continues intubated, fio2 decreased to 50% ac 650 x12 10 peep, patient overbreathing at times 1-6 bpm, most recent abg on above settings 7.39/42/104/26. patient sxn\'d for scant amounts thick white sputum, scant oral secretions noted. patient ls clear to coarse/diminshed at bases.\n\nneuro: received patient on fentanyl 25 mcg/hr and versed 4 mg/hr with patient calm and lightly sedated.  patient becoming more awake as evening continued, patient noted to get hand wrapped around ett x2-&gt; patient nodded head yes to feeling too awake, soft wrist immobilizers applied for integrity of lines. patient presently sedated on fentanyl 35 mcg/hr and versed 4mg/hr. patient nods head no to pain, no grimacing noted. patient mae, assists with turning in bed. patient oriented throughout shift on condition and poc.\n\ngi/gu: patient abd soft slightly distended, +bsx4, no stool, +flatus. ogt clamped with bilious aspirates. foley cath draining clear darker yellow u/o 17-100 cc\'s/hr\n\nid: afebrile.\n\nskin: patient l forearm with prior iv infiltrate site, warm packs applied and arm elevated. skin otherwise appears intact.\n\na/p: 67 year old male with no vt noted overnoc with lidocaine/amiodarone/esmolol drops\'s infusing. as discussed with ccu md\'s, cont drops\'s overnoc into this am, await rounds for further medication orders. cont to monitor hemodynamics, resp status, wean vent as tol. cont to provide emotional support to patient and family, awaiting further poc per ccu team.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'staff'], 'event_detection_time': 19.929113478166983}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>['patient becoming more awake as evening continued']</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'light', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'light', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'None', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "17-100 cc's/hr", 'quality': 'clear darker yellow'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'tube'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>['patient becoming more awake as evening continued', 'patient nods head no to pain, no grimacing noted', "+flatus, foley cath draining clear darker yellow u/o 17-100 cc's/hr", 'ogt clamped with bilious aspirates', 'cont to provide emotional support to patient and family']</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient becoming more awake as evening continued', 'e2=Pain|1:patient nods head no to pain, no grimacing noted', "e3=Excretion|0:+flatus, foley cath draining clear darker yellow u/o 17-100 cc's/hr", 'e4=Eating|1:ogt clamped with bilious aspirates', 'e5=Family|1:cont to provide emotional support to patient and family']</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2011,52 +2201,62 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-06 17:28:00'), Timestamp('2179-07-06 18:49:00'))</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'text': "npn 7 am-- 7 pm\n\nep team eval patient today and recomended cardiac cath tomorrow to eval vessels, followed by surgery for cabg if needed, and epicardial open ablation of scar tissue in or, possibly on thursday. ep attending and fellow came by and discussed this with patient and wife this evening, and with our ccu team. plan is to keep patient on amiodarone drip, esmolol and lidocaine, rest patient on vent (patient had ps exercise in afternoon), and take him to cath tomorrow. patient remains npo.\n\npatient stable today, no v-tach or pvc's we are following lytes and abg as needed. patient slept this am, then weaned/exercised on pressure support\nfrom 2-6pm, then back on cmv. patient arouses and denies cp, remains in sr with first degree av block and hr 58-62 hr and bp  higher when awake.\nable to increase esmolol drip to 100 mcg/kg/min bp range 96/50--130/56\nand consistantly higher in afternoon. patient urine output dropped off to 30cc per hour x 4-5 hours lasix was ordered for a goal of 500 cc net negative, however this afternoon patient started autodiuresing putting out 100 then 150 then 300 cc clear yellow urine. team was updated and we will re evaluate lasix dose.  ? higher maps causig better renal perfusion.\n\nneuro- [** **], follows commands, writing notes, moves all extremities.\nwatching tv and using call light, lightly sedated on 50mcg fentanyl and 3-4 mg versed.\n\ncv -- as above sr/sb long pr, no arrythmias today. orders discussed with team continue amiodarone for now, continue esmolol, lidocaine drip.\n\nrespiratory - back on cmv, peep 5, fio2 40%, abg due on those settings. suction q 2-3 hours for thin loose white secreations, afebrile, lungs mostly clear, coughing and gaging on tube at times. vap protocol,  hob 30 degrees and q 4 hour mouthcare, heparin sub cut and pneumo boots.\n\ngi- on colace, pepcid, + bs, og clamped, clear secreations from,\nogt. no bm.\n\n[**name (ni) 118**] patient putting out large amount clear yellow urine this afternoon, lasix due but on hold, k and mag sent this afternoon.\n\na: patient with v- tach and ischemia yesterday, after lidocaine was dc'd ,\nstable on present regime.\n\np: continue current meds, rest patient on ventilator, maintain adequate perfusion, titrate esmolol / sedation meds follow i/o check with team regarding lasix dose and k replacement, keep patient and family updated on poc as discussed in ccu rounds. npo for cath.\n\n\n\n", 'event': ['Sleep', 'Excretion', 'Family', 'Pain', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "cardiac history",\n      "attribute_value": "patient had ps exercise in afternoon"\n    },\n    {\n      "attribute_name": "medication history",\n      "attribute_value": "patient on amiodarone drip, esmolol and lidocaine"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept this am",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "am",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "patient urine output dropped off to 30cc per hour x 4-5 hours",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "dropped off to 30cc per hour x 4-5 hours",\n          "quality": "clear yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "ep attending and fellow came by and discussed this with patient and wife this evening",\n      "actor": "patient\'s family member",\n      "object": "patient",\n      "negation": false,\n      "time": "evening",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "discussion",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "patient arouses and denies cp",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "patient remains npo",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'dropped off to 30cc per hour x 4-5 hours', 'quality': 'clear yellow'}}}, {'Family': {'Family': {'interaction': 'discussion', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['patient slept this am', 'patient urine output dropped off to 30cc per hour x 4-5 hours', 'ep attending and fellow came by and discussed this with patient and wife this evening', 'patient arouses and denies cp', 'patient remains npo'], 'event_time': ['am', 'afternoon', 'evening', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-06 17:28:00 and 2179-07-06 18:49:00):\n           npn 7 am-- 7 pm\n\nep team eval patient today and recomended cardiac cath tomorrow to eval vessels, followed by surgery for cabg if needed, and epicardial open ablation of scar tissue in or, possibly on thursday. ep attending and fellow came by and discussed this with patient and wife this evening, and with our ccu team. plan is to keep patient on amiodarone drip, esmolol and lidocaine, rest patient on vent (patient had ps exercise in afternoon), and take him to cath tomorrow. patient remains npo.\n\npatient stable today, no v-tach or pvc\'s we are following lytes and abg as needed. patient slept this am, then weaned/exercised on pressure support\nfrom 2-6pm, then back on cmv. patient arouses and denies cp, remains in sr with first degree av block and hr 58-62 hr and bp  higher when awake.\nable to increase esmolol drip to 100 mcg/kg/min bp range 96/50--130/56\nand consistantly higher in afternoon. patient urine output dropped off to 30cc per hour x 4-5 hours lasix was ordered for a goal of 500 cc net negative, however this afternoon patient started autodiuresing putting out 100 then 150 then 300 cc clear yellow urine. team was updated and we will re evaluate lasix dose.  ? higher maps causig better renal perfusion.\n\nneuro- [** **], follows commands, writing notes, moves all extremities.\nwatching tv and using call light, lightly sedated on 50mcg fentanyl and 3-4 mg versed.\n\ncv -- as above sr/sb long pr, no arrythmias today. orders discussed with team continue amiodarone for now, continue esmolol, lidocaine drip.\n\nrespiratory - back on cmv, peep 5, fio2 40%, abg due on those settings. suction q 2-3 hours for thin loose white secreations, afebrile, lungs mostly clear, coughing and gaging on tube at times. vap protocol,  hob 30 degrees and q 4 hour mouthcare, heparin sub cut and pneumo boots.\n\ngi- on colace, pepcid, + bs, og clamped, clear secreations from,\nogt. no bm.\n\n[**name (ni) 118**] patient putting out large amount clear yellow urine this afternoon, lasix due but on hold, k and mag sent this afternoon.\n\na: patient with v- tach and ischemia yesterday, after lidocaine was dc\'d ,\nstable on present regime.\n\np: continue current meds, rest patient on ventilator, maintain adequate perfusion, titrate esmolol / sedation meds follow i/o check with team regarding lasix dose and k replacement, keep patient and family updated on poc as discussed in ccu rounds. npo for cath.\n\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'cardiac history', 'attribute_value': 'patient had ps exercise in afternoon'}, {'attribute_name': 'medication history', 'attribute_value': 'patient on amiodarone drip, esmolol and lidocaine'}]], 'actor': ['patient', 'patient', "patient's family member", 'patient', 'patient'], 'event_detection_time': 21.842722021974623}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['patient slept this am']</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Family', 'Pain', 'Eating']</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'dropped off to 30cc per hour x 4-5 hours', 'quality': 'clear yellow'}}}, {'Family': {'Family': {'interaction': 'discussion', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['patient slept this am', 'patient urine output dropped off to 30cc per hour x 4-5 hours', 'ep attending and fellow came by and discussed this with patient and wife this evening', 'patient arouses and denies cp', 'patient remains npo']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient slept this am', 'e2=Excretion|1:patient urine output dropped off to 30cc per hour x 4-5 hours', 'e3=Family|1:ep attending and fellow came by and discussed this with patient and wife this evening', 'e4=Pain|1:patient arouses and denies cp', 'e5=Eating|1:patient remains npo']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2093,52 +2293,62 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-07 04:45:00'), Timestamp('2179-07-07 05:07:00'))</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn 1900-0700\ns: patient continues orally intubated and mechancially ventilated.\n\no: please see careview for vs and additional data.\n\ncv: patient hr 62-71 1st avb (will tolerate hr per dr. [**last name (stitle) 10326**] with esmolol drops 100 mcg/kg/min, amiodarone 0.5mg/min, and lidocaine 2 mg/min. no ectopy noted. lidocaine level sent, results pending. abp 102-121/52-56. aline noted to be dampened/positional early this am-&gt; nbp's 110's/60's. am labs-&gt; hct 36.5, k 4.4 (s/p 40 meq kcl repletion earlier in eve), mg 1.9. bilat pedal pulses palp (r weaker than l), groin sites cont soft, ecchymotic. patient npo [**last name (stitle) 87**] for cath later this am.\n\nresp: patient cont on ac 40% 650 x12 5 peep with am abg-&gt;ph 7.41/pco2 42/po2 91/total co2 28. ls cta. patient sxn'd for scant to small amounts thick white sputum.\n\nneuro: patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr. patient mae, follows commands, opens eyes to voice, uses call light and mouths needs to rn. patient unrestrained [**last name (stitle) 87**] with no pulling/reaching for tubes noted. patient nods head no to pain.\n\ngi/gu: patient abd soft slightly distended, obese, +bs x4, no stool this shift. patient npo [**last name (stitle) 87**] for cath later today. patient rec'd 20 mg iv lasix [**last name (stitle) 87**] with u/o 40-500 cc's/hr, patient +approx 900 cc's at midnoc.\n\nid: t max 99.8.\n\nskin: patient cont w site old iv infiltrate on l arm. skin otherwise intact. patient bathed this am.\n\nsocial: no calls or visitors [**name (ni) 87**].\n\na/p: patient cont on antiarrythmic drops's with no vt noted [**name (ni) 87**], awaiting cath later this am. as discussed with ccu md's, cont to monitor patient hemodynamics-cont on iv gtts. cont to monitor resp status, wean vent as tol, cont to follow u/o, labs. cont to provide emotional support to patient and family, awaiting further poc per ccu team.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "lightly sedated"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient nods head no to pain.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "none"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "patient +approx 900 cc\'s at midnoc.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "midnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "approx 900 cc\'s"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "patient npo [**last name (stitle) 87**] for cath later this am.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "none"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "no calls or visitors [**name (ni) 87**].",\n      "actor": "family member",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "none"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'lightly sedated'}}}, {'Pain': {'Pain': {'severity': 'none'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "approx 900 cc's"}}}, {'Eating': {'Eating': {'food': 'none'}}}, {'Family': {'Family': {'interaction': 'none'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr.', 'patient nods head no to pain.', "patient +approx 900 cc's at midnoc.", 'patient npo [**last name (stitle) 87**] for cath later this am.', 'no calls or visitors [**name (ni) 87**].'], 'event_time': ['Unknown', 'Unknown', 'midnight', 'Unknown', 'Unknown'], 'negation': [False, True, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-07 04:45:00 and 2179-07-07 05:07:00):\n           ccu npn 1900-0700\ns: patient continues orally intubated and mechancially ventilated.\n\no: please see careview for vs and additional data.\n\ncv: patient hr 62-71 1st avb (will tolerate hr per dr. [**last name (stitle) 10326**] with esmolol drops 100 mcg/kg/min, amiodarone 0.5mg/min, and lidocaine 2 mg/min. no ectopy noted. lidocaine level sent, results pending. abp 102-121/52-56. aline noted to be dampened/positional early this am-&gt; nbp\'s 110\'s/60\'s. am labs-&gt; hct 36.5, k 4.4 (s/p 40 meq kcl repletion earlier in eve), mg 1.9. bilat pedal pulses palp (r weaker than l), groin sites cont soft, ecchymotic. patient npo [**last name (stitle) 87**] for cath later this am.\n\nresp: patient cont on ac 40% 650 x12 5 peep with am abg-&gt;ph 7.41/pco2 42/po2 91/total co2 28. ls cta. patient sxn\'d for scant to small amounts thick white sputum.\n\nneuro: patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr. patient mae, follows commands, opens eyes to voice, uses call light and mouths needs to rn. patient unrestrained [**last name (stitle) 87**] with no pulling/reaching for tubes noted. patient nods head no to pain.\n\ngi/gu: patient abd soft slightly distended, obese, +bs x4, no stool this shift. patient npo [**last name (stitle) 87**] for cath later today. patient rec\'d 20 mg iv lasix [**last name (stitle) 87**] with u/o 40-500 cc\'s/hr, patient +approx 900 cc\'s at midnoc.\n\nid: t max 99.8.\n\nskin: patient cont w site old iv infiltrate on l arm. skin otherwise intact. patient bathed this am.\n\nsocial: no calls or visitors [**name (ni) 87**].\n\na/p: patient cont on antiarrythmic drops\'s with no vt noted [**name (ni) 87**], awaiting cath later this am. as discussed with ccu md\'s, cont to monitor patient hemodynamics-cont on iv gtts. cont to monitor resp status, wean vent as tol, cont to follow u/o, labs. cont to provide emotional support to patient and family, awaiting further poc per ccu team.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 18.898160595912486}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>['patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr.']</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lightly sedated'}}}]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lightly sedated'}}}, {'Pain': {'Pain': {'severity': 'none'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "approx 900 cc's"}}}, {'Eating': {'Eating': {'food': 'none'}}}, {'Family': {'Family': {'interaction': 'none'}}}]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr.', 'patient nods head no to pain.', "patient +approx 900 cc's at midnoc.", 'patient npo [**last name (stitle) 87**] for cath later this am.', 'no calls or visitors [**name (ni) 87**].']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient lightly sedated on fentanyl drops 60 mcg/hr and versed drops 5 mg/hr.', 'e2=Pain|1:patient nods head no to pain.', "e3=Excretion|1:patient +approx 900 cc's at midnoc.", 'e4=Eating|1:patient npo [**last name (stitle) 87**] for cath later this am.', 'e5=Family|1:no calls or visitors [**name (ni) 87**].']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2176,52 +2386,62 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-08 03:38:00'), Timestamp('2179-07-08 04:35:00'))</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn 1900-0700\ns: patient continues orally intubated and mechanically ventilated.\n\no: please see careview for vs and additional data.\n\ncv/events: patient hr 63-75 1st degree avb, patient cont on esmolol drops 100 mcg/kg/min (md's will tolerate hr as above), amiodarone drops 0.5 mg/min and lidocaine drops 2.0 mg/min. patient had 39 beat run of vt (patient was being suctioned at time, patient coughing) and vt resolved with no icd firing. patient given 40 meq kcl (patient k 4.0 and received 20 mg ivp lasix approx 1 hour earlier). patient also given 2 gm mag sulfate [**name8 (md) 20**] md. no further episodes vt noted. r&amp;l groin sites cont ecchymotic from previous cath, r groin site accessed yesterday for cath-site cdi, soft and ecchymotic. bilat pedal pulses palp, (r weaker than left), bilat feet warm. bue with hands cool, capillary refill wnl. patient nods head no to cp.\npatient to have endo and epicardial mapping/ablation today with possible intra-op ablation in or on monday.\n\nresp: patient continues on ac 40% 650 x 12 5 peep, patient overbreathing 1-6 bpm, patient ls clear to coarse at bases, patient sxn'd for small to moderate amounts of thick yellow sputum. abg on above settings 7.40/43/82/28.\n\nneuro: patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr. patient opens eyes spontaneously, mouths words/writes appropriately. patient mae, assist with turning in bed. patient uses call light appropriately, unrestrained throughout night with no pulling at ett noted. patient nods head no to pain.\n\ngi/gu: patient abd soft distended, non-tender, +bs x4, no stool this shift-&gt; received patient on lis with minimal amounts bilious drainage noted. clamped status post ogt meds. stool softner given. patient has been npo since monday (intubated monday afternoon). patient continues npo for ep procedure today. patient given 20 mg ivp lasix at 2330 with u/o 140-400 cc's/hr.\n\nid: patient afebrile.\n\nskin: patient l arm continues with former iv infiltrate site, pink and warm to touch, patient nods head yes to soreness at times, declined heat packs, arm elevated. r arm continues ededamous-&gt;elevated. skin otherwise intact.\n\nsocial: patient wife called and spoke with rn x1 [**name8 (md) 87**].\n\na/p: 65 year old male with history of vt thought to be r/t scar tissue, multiple admits for icd firing, history ablation, history of amiodarone induced thyrotoxicosis whom several days ago had vt storm with mulitple icd firings-&gt;patient intubated and sedated, started on lidocaine/amiodarone and esmolol drops's. patient status post cath yesterday to eval vessels with no change from prior cath noted-&gt;plan for mapping/ablation this am with possible surgery if ablation unsucessful. thirty-nine beat run of vt [**name8 (md) 87**] with no icd firing/intervention-resolved spontaneously. as discussed with ccu [**name (ni) 262**], patient to have procedure later this am, cont with antiarrythmic drops's, monitor hemodynamics, rhythm, lytes. cont to monitor resp status, u/o, cont to provide emotional support to patient and family. awaiting further poc per ccu team.\n", 'event': ['Pain', 'Sleep', 'Excretion', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "65 year old male with history of vt thought to be r/t scar tissue, multiple admits for icd firing, history ablation, history of amiodarone induced thyrotoxicosis"\n        },\n        {\n            "attribute_name": "plan for the day",\n            "attribute_value": "endo and epicardial mapping/ablation today with possible intra-op ablation in or on monday"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient nods head no to pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "lightly sedated",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "patient received 20 mg ivp lasix at 2330 with u/o 140-400 cc\'s/hr.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "140-400 cc\'s/hr",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "patient wife called and spoke with rn x1 [**name8 (md) 87**].",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "phone call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "patient continues npo for ep procedure today.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "npo"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'lightly sedated', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "140-400 cc's/hr", 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'phone call', 'relation': 'wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'npo'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['patient nods head no to pain.', 'patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr.', "patient received 20 mg ivp lasix at 2330 with u/o 140-400 cc's/hr.", 'patient wife called and spoke with rn x1 [**name8 (md) 87**].', 'patient continues npo for ep procedure today.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-08 03:38:00 and 2179-07-08 04:35:00):\n           ccu npn 1900-0700\ns: patient continues orally intubated and mechanically ventilated.\n\no: please see careview for vs and additional data.\n\ncv/events: patient hr 63-75 1st degree avb, patient cont on esmolol drops 100 mcg/kg/min (md\'s will tolerate hr as above), amiodarone drops 0.5 mg/min and lidocaine drops 2.0 mg/min. patient had 39 beat run of vt (patient was being suctioned at time, patient coughing) and vt resolved with no icd firing. patient given 40 meq kcl (patient k 4.0 and received 20 mg ivp lasix approx 1 hour earlier). patient also given 2 gm mag sulfate [**name8 (md) 20**] md. no further episodes vt noted. r&amp;l groin sites cont ecchymotic from previous cath, r groin site accessed yesterday for cath-site cdi, soft and ecchymotic. bilat pedal pulses palp, (r weaker than left), bilat feet warm. bue with hands cool, capillary refill wnl. patient nods head no to cp.\npatient to have endo and epicardial mapping/ablation today with possible intra-op ablation in or on monday.\n\nresp: patient continues on ac 40% 650 x 12 5 peep, patient overbreathing 1-6 bpm, patient ls clear to coarse at bases, patient sxn\'d for small to moderate amounts of thick yellow sputum. abg on above settings 7.40/43/82/28.\n\nneuro: patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr. patient opens eyes spontaneously, mouths words/writes appropriately. patient mae, assist with turning in bed. patient uses call light appropriately, unrestrained throughout night with no pulling at ett noted. patient nods head no to pain.\n\ngi/gu: patient abd soft distended, non-tender, +bs x4, no stool this shift-&gt; received patient on lis with minimal amounts bilious drainage noted. clamped status post ogt meds. stool softner given. patient has been npo since monday (intubated monday afternoon). patient continues npo for ep procedure today. patient given 20 mg ivp lasix at 2330 with u/o 140-400 cc\'s/hr.\n\nid: patient afebrile.\n\nskin: patient l arm continues with former iv infiltrate site, pink and warm to touch, patient nods head yes to soreness at times, declined heat packs, arm elevated. r arm continues ededamous-&gt;elevated. skin otherwise intact.\n\nsocial: patient wife called and spoke with rn x1 [**name8 (md) 87**].\n\na/p: 65 year old male with history of vt thought to be r/t scar tissue, multiple admits for icd firing, history ablation, history of amiodarone induced thyrotoxicosis whom several days ago had vt storm with mulitple icd firings-&gt;patient intubated and sedated, started on lidocaine/amiodarone and esmolol drops\'s. patient status post cath yesterday to eval vessels with no change from prior cath noted-&gt;plan for mapping/ablation this am with possible surgery if ablation unsucessful. thirty-nine beat run of vt [**name8 (md) 87**] with no icd firing/intervention-resolved spontaneously. as discussed with ccu [**name (ni) 262**], patient to have procedure later this am, cont with antiarrythmic drops\'s, monitor hemodynamics, rhythm, lytes. cont to monitor resp status, u/o, cont to provide emotional support to patient and family. awaiting further poc per ccu team.\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': '65 year old male with history of vt thought to be r/t scar tissue, multiple admits for icd firing, history ablation, history of amiodarone induced thyrotoxicosis'}, {'attribute_name': 'plan for the day', 'attribute_value': 'endo and epicardial mapping/ablation today with possible intra-op ablation in or on monday'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 25.78651787294075}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>['patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr.']</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lightly sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'lightly sedated', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "140-400 cc's/hr", 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'phone call', 'relation': 'wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'npo'}}}]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>['patient nods head no to pain.', 'patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr.', "patient received 20 mg ivp lasix at 2330 with u/o 140-400 cc's/hr.", 'patient wife called and spoke with rn x1 [**name8 (md) 87**].', 'patient continues npo for ep procedure today.']</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient nods head no to pain.', 'e2=Sleep|1:patient very lightly sedated on fentanyl 75 mcg/hr and versed 5 mg/hr.', "e3=Excretion|0:patient received 20 mg ivp lasix at 2330 with u/o 140-400 cc's/hr.", 'e4=Family|1:patient wife called and spoke with rn x1 [**name8 (md) 87**].', 'e5=Eating|1:patient continues npo for ep procedure today.']</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2261,52 +2481,62 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-08 15:13:00'), Timestamp('2179-07-08 15:40:00'))</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'text': "nursing progress note (0700-1900)\n65 year old male w/recurrent vt  (thought to be [**1-16**] scar tissue) with recent admits for icd firing with history. ablation, as well as amiodarone induced thyrotoxicosis. had vt storm [**7-5**] w. multiple icd firings; requiring intubation &amp; sedation and initiation of lidocaine, amiodarone and esmolol gtts. cath [**7-7**] to eval, for cad; with 2 vd (no change from prior cath &amp; no plan for cabg at this time). sent to ep lab today at 1230 for mapping/ablation. if unsuccessful will need intra-op ablation on monday.\n\ns: orally intubated and mechanically ventilated.\no: please see careview for all objective data.\na:\ncv: hr 68-70 sr with 1st degree av block with no ectopy. episode slow vt (rate of 118) at 10 am; that broke without shock. event captured on ekg &amp; ep fellow in to evaluate. event occured 1 hour after discontinuing all iv antiarrhythmic meds (amiodarone, lidocaine and esmolol d/c'd at 9 am). esmolol re-initiated briefly for rate control, and d/c'd prior to transport to ep lab. nbp with poor correlation to abp (aline currently [**location (un) **] lower than nbp). aline 85-111/60-80 (71-95) nbp 85-119/40-50 (52-77). bilateral groin sites from prior caths are darkly ecchymotic, without hematoma or ooze. pedal pulses are weakly palp; left easier than right. bil. feet and hands cool; csm wnl. able to deny cp with non-verbal cues. trace ankle edema; 2 + right arm edema. awaiting return from cath lab/ablation.\n\nresp: vent set @ ac 50%, 650, 5 peep, rr: 12 (observed add'l 4-6 breaths per minute). abg on these settings: 7.40/40/201/26. ls clear/ coarse at bil. bases.frequent oral and ett suctioning provided for frothy clear sputum.\n\nneuro: lightly sedated/ calm [**initials (namepattern4) **] [**last name (namepattern4) **] score varying between [**2-16**]. sedation switched from fent/versed to propofol for ep md preference. sent to ep lab on 20 mcg/kg/min; difficulty up-titrating to higher sedation level [**1-16**] decreasing blood pressure on higher levels. patient. opens eyes spont., mouths words &amp; occas. writes clearly on clip-board. remained un-restrained/immobilized d/t calm behavior and no evidence of pulling at ett tube.\n\ngi: abdomen softly distended, some ecchymosis ([**1-16**] sq heparin). active bs x4. no bm this shift; admin. colace as ordered. ogtube clamoed; no residual aspirated.\n\ngu: foley patent, draining clear, yellow urine. given 40 mg iv lasix at 11 am; with excellent effect. immediately diuresed 600 + cc's pale yellow/clear urine.\n\nid: patient remains afebrile. wbc 8.9 this am.\n\nskin: left arm prior iv infiltrate site remains pink and warm/hot to touch; perimeter is marked. r arm with edema &gt; l arm. bil. arms warm to touch, bil. hands cool to touch.\n\nsocial: wife in to visit late morning prior to ep study.\n\nplan: continue to monitor cv and resp. status. await return from ep lab. if ablation unsuccessful will likely need or ablation on monday.\n", 'event': ['Family', 'Pain', 'Sleep', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "age",\n      "attribute_value": "65"\n    },\n    {\n      "attribute_name": "gender",\n      "attribute_value": "male"\n    },\n    {\n      "attribute_name": "medical history",\n      "attribute_value": "recurrent vt, icd firing, ablation, amiodarone induced thyrotoxicosis"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Family",\n      "text_quote": "wife in to visit late morning prior to ep study",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "late morning",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "able to deny cp with non-verbal cues",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "chest pain (cp)",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "lightly sedated/ calm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "light sedation",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "foley patent, draining clear, yellow urine",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "clear, yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "None",\n          "amount": "None",\n          "method": "None"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest pain (cp)', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'light sedation', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear, yellow'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'None'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['wife in to visit late morning prior to ep study', 'able to deny cp with non-verbal cues', 'lightly sedated/ calm', 'foley patent, draining clear, yellow urine', 'None'], 'event_time': ['late morning', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-08 15:13:00 and 2179-07-08 15:40:00):\n           nursing progress note (0700-1900)\n65 year old male w/recurrent vt  (thought to be [**1-16**] scar tissue) with recent admits for icd firing with history. ablation, as well as amiodarone induced thyrotoxicosis. had vt storm [**7-5**] w. multiple icd firings; requiring intubation &amp; sedation and initiation of lidocaine, amiodarone and esmolol gtts. cath [**7-7**] to eval, for cad; with 2 vd (no change from prior cath &amp; no plan for cabg at this time). sent to ep lab today at 1230 for mapping/ablation. if unsuccessful will need intra-op ablation on monday.\n\ns: orally intubated and mechanically ventilated.\no: please see careview for all objective data.\na:\ncv: hr 68-70 sr with 1st degree av block with no ectopy. episode slow vt (rate of 118) at 10 am; that broke without shock. event captured on ekg &amp; ep fellow in to evaluate. event occured 1 hour after discontinuing all iv antiarrhythmic meds (amiodarone, lidocaine and esmolol d/c\'d at 9 am). esmolol re-initiated briefly for rate control, and d/c\'d prior to transport to ep lab. nbp with poor correlation to abp (aline currently [**location (un) **] lower than nbp). aline 85-111/60-80 (71-95) nbp 85-119/40-50 (52-77). bilateral groin sites from prior caths are darkly ecchymotic, without hematoma or ooze. pedal pulses are weakly palp; left easier than right. bil. feet and hands cool; csm wnl. able to deny cp with non-verbal cues. trace ankle edema; 2 + right arm edema. awaiting return from cath lab/ablation.\n\nresp: vent set @ ac 50%, 650, 5 peep, rr: 12 (observed add\'l 4-6 breaths per minute). abg on these settings: 7.40/40/201/26. ls clear/ coarse at bil. bases.frequent oral and ett suctioning provided for frothy clear sputum.\n\nneuro: lightly sedated/ calm [**initials (namepattern4) **] [**last name (namepattern4) **] score varying between [**2-16**]. sedation switched from fent/versed to propofol for ep md preference. sent to ep lab on 20 mcg/kg/min; difficulty up-titrating to higher sedation level [**1-16**] decreasing blood pressure on higher levels. patient. opens eyes spont., mouths words &amp; occas. writes clearly on clip-board. remained un-restrained/immobilized d/t calm behavior and no evidence of pulling at ett tube.\n\ngi: abdomen softly distended, some ecchymosis ([**1-16**] sq heparin). active bs x4. no bm this shift; admin. colace as ordered. ogtube clamoed; no residual aspirated.\n\ngu: foley patent, draining clear, yellow urine. given 40 mg iv lasix at 11 am; with excellent effect. immediately diuresed 600 + cc\'s pale yellow/clear urine.\n\nid: patient remains afebrile. wbc 8.9 this am.\n\nskin: left arm prior iv infiltrate site remains pink and warm/hot to touch; perimeter is marked. r arm with edema &gt; l arm. bil. arms warm to touch, bil. hands cool to touch.\n\nsocial: wife in to visit late morning prior to ep study.\n\nplan: continue to monitor cv and resp. status. await return from ep lab. if ablation unsuccessful will likely need or ablation on monday.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '65'}, {'attribute_name': 'gender', 'attribute_value': 'male'}, {'attribute_name': 'medical history', 'attribute_value': 'recurrent vt, icd firing, ablation, amiodarone induced thyrotoxicosis'}]], 'actor': ['family member', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 22.046327201882377}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['lightly sedated/ calm']</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'light sedation', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Family', 'Pain', 'Sleep', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest pain (cp)', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'light sedation', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear, yellow'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'None'}}}]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>['wife in to visit late morning prior to ep study', 'able to deny cp with non-verbal cues', 'lightly sedated/ calm', 'foley patent, draining clear, yellow urine', 'None']</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>['e1=Family|1:wife in to visit late morning prior to ep study', 'e2=Pain|1:able to deny cp with non-verbal cues', 'e3=Sleep|1:lightly sedated/ calm', 'e4=Excretion|1:foley patent, draining clear, yellow urine', 'e5=Eating|0:None']</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2336,52 +2566,62 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-08 18:13:00'), Timestamp('2179-07-08 18:23:00'))</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'text': 'addendum pn 1700-1900\npatient returned from ep lab 1700 in no acute distress. per report, 3 areas vt ablated; 1 believed to be the "culprit" area, w. no further inducible vt in lab.\narrived on 30 mcg/kg/min versed drops, increased to 40 [**1-16**] coughing; requiring frequent suctioning of frothy white sputum; administered 40 mg iv lasix at 1800. abg and k+ and mg+ sent at 1800. right groin status post sheath removal is darkly ecchymotic with dsd in place, area soft, without hematoma. right dp by doppler/dff palp, patient weak palp. wife went home for the night.\n\nplan: continue to monitor cardiac status/ ectopy on tele. monitor resp. status. ? able to wean vent if no further vt. if further vt overnight will likely need ablation in or in monday.follow labs. please see careview and prior note for further details. await further team plans for care.\n', 'event': ['Unknown', 'Excretion', 'Eating', 'Family', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "patient returned from ep lab 1700 in no acute distress.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "1700",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "coughing; requiring frequent suctioning of frothy white sputum;",\n      "actor": "patient",\n      "object": "sputum",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "sputum",\n          "frequency": "frequent",\n          "quality": "frothy white"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "wife went home for the night.",\n      "actor": "wife",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "went home",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'frequent', 'quality': 'frothy white'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {'interaction': 'went home', 'relation': 'wife'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['patient returned from ep lab 1700 in no acute distress.', 'coughing; requiring frequent suctioning of frothy white sputum;', '', 'wife went home for the night.', '', ''], 'event_time': ['1700', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-08 18:13:00 and 2179-07-08 18:23:00):\n           addendum pn 1700-1900\npatient returned from ep lab 1700 in no acute distress. per report, 3 areas vt ablated; 1 believed to be the "culprit" area, w. no further inducible vt in lab.\narrived on 30 mcg/kg/min versed drops, increased to 40 [**1-16**] coughing; requiring frequent suctioning of frothy white sputum; administered 40 mg iv lasix at 1800. abg and k+ and mg+ sent at 1800. right groin status post sheath removal is darkly ecchymotic with dsd in place, area soft, without hematoma. right dp by doppler/dff palp, patient weak palp. wife went home for the night.\n\nplan: continue to monitor cardiac status/ ectopy on tele. monitor resp. status. ? able to wean vent if no further vt. if further vt overnight will likely need ablation in or in monday.follow labs. please see careview and prior note for further details. await further team plans for care.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'wife', 'patient', 'patient'], 'event_detection_time': 19.035026574973017}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Unknown', 'Excretion', 'Eating', 'Family', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'frequent', 'quality': 'frothy white'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {'interaction': 'went home', 'relation': 'wife'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>['patient returned from ep lab 1700 in no acute distress.', 'coughing; requiring frequent suctioning of frothy white sputum;', '', 'wife went home for the night.', '', '']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient returned from ep lab 1700 in no acute distress.', 'e2=Excretion|1:coughing; requiring frequent suctioning of frothy white sputum;', 'e3=Eating|1:', 'e4=Family|1:wife went home for the night.', 'e5=Pain|1:', 'e6=Sleep|1:']</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2409,52 +2649,62 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-08 18:26:00'), Timestamp('2179-07-08 18:28:00'))</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care\nremains intub/vented in ac mode status post ablation. sxning frequently for whitish yellow secretions. frequent coughing. refer to flow sheet for info, patient in ep lab most of afternoon. transported without incident.\n', 'event': ['Unknown', 'Excretion', 'Pain', 'Sleep', 'Family', 'Eating', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "sxning frequently for whitish yellow secretions.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "sxning frequently for whitish yellow secretions.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "secretions",\n          "frequency": "frequent",\n          "quality": "whitish yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "frequent coughing.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "frequent"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "patient in ep lab most of afternoon.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Unknown",\n      "text_quote": "transported without incident.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e7",\n      "relation": "simultaneous",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'frequent', 'quality': 'whitish yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'frequent'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e7', 'relation': 'simultaneous', 'event_id_2': 'e2'}]], 'text_quotes': ['sxning frequently for whitish yellow secretions.', 'sxning frequently for whitish yellow secretions.', 'frequent coughing.', '', '', '', 'patient in ep lab most of afternoon.', 'transported without incident.'], 'event_time': ['afternoon', 'afternoon', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'afternoon', 'Unknown'], 'negation': [False, False, False, True, True, True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-08 18:26:00 and 2179-07-08 18:28:00):\n           resp care\nremains intub/vented in ac mode status post ablation. sxning frequently for whitish yellow secretions. frequent coughing. refer to flow sheet for info, patient in ep lab most of afternoon. transported without incident.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 24.753615709021688}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Unknown', 'Excretion', 'Pain', 'Sleep', 'Family', 'Eating', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'frequent', 'quality': 'whitish yellow'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'frequent'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>['sxning frequently for whitish yellow secretions.', 'sxning frequently for whitish yellow secretions.', 'frequent coughing.', '', '', '', 'patient in ep lab most of afternoon.', 'transported without incident.']</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:sxning frequently for whitish yellow secretions.', 'e2=Excretion|1:sxning frequently for whitish yellow secretions.', 'e3=Pain|1:frequent coughing.', 'e4=Sleep|1:', 'e5=Family|1:', 'e6=Eating|1:', 'e7=Unknown|1:patient in ep lab most of afternoon.', 'e8=Unknown|1:transported without incident.']</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e7', 'relation': 'simultaneous', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -2488,52 +2738,62 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-09 04:02:00'), Timestamp('2179-07-09 04:39:00'))</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'text': 'cv:1sr degree av block. hr 60 (goal hr is 60) bp maps &gt;60 90/60. right groin site eccymotic dry clean dressing. amiodarine 1mg/min, esmolol 75mcg/kg/min, lidocaine 2mg/min. patient received amio by mouth 400mg. ramipril 10mg. hct 32.9, k 3.5. pulses weak palp.\n\nresp:intubatedac 50% fio2/tv 650/peep5. patient has coarse ls and suctioning thick white frothy secretions rom ett. suctioned freqently mouth care pe vap protocol.\n\nneuro:sedated with propofol patient easily awakes when propofol decreased. patient will follow simple commands when sedation is decreased. pts ahnds remained tied for pts safety.\n\nid:patient has temp 101 rectal patient has had an increase in wbc. bc x 2 , urin culture sent.\n\ngi:bs +, no bm. npo.\n\ngu:patient has responded well to lasix 40mg x2 ivp. please see careview to hourly urinoutput .\n\na:s/p ablation of 3 foci, cath showed 2 vd lcx and rca patient continues to have runs of vt patient may have surgery on monday cabg and ablation.\n\np:esmolol drops to hr 60.maintain maps&gt;60, repleat and monitor lytes.vap mouth care per protocol. skin care as needed.\n\n', 'event': ['Excretion', 'Pain', 'Sleep', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "cv",\n            "attribute_value": "1sr degree av block"\n        },\n        {\n            "attribute_name": "hr",\n            "attribute_value": "60"\n        },\n        {\n            "attribute_name": "bp",\n            "attribute_value": "&gt;60 90/60"\n        },\n        {\n            "attribute_name": "right groin site",\n            "attribute_value": "eccymotic dry clean dressing"\n        },\n        {\n            "attribute_name": "medications",\n            "attribute_value": "amiodarine, esmolol, lidocaine, ramipril"\n        },\n        {\n            "attribute_name": "hct",\n            "attribute_value": "32.9"\n        },\n        {\n            "attribute_name": "k",\n            "attribute_value": "3.5"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "patient has responded well to lasix 40mg x2 ivp",\n            "actor": "patient",\n            "object": "lasix",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "increased"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient has coarse ls and suctioning thick white frothy secretions rom ett",\n            "actor": "patient",\n            "object": "secretions",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "patient easily awakes when propofol decreased",\n            "actor": "patient",\n            "object": "propofol",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "npo",\n            "actor": "patient",\n            "object": "food",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increased'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': ' Unknown'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown'}}}, {'Eating': {'Eating': {'food': ' Unknown'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['patient has responded well to lasix 40mg x2 ivp', 'patient has coarse ls and suctioning thick white frothy secretions rom ett', 'patient easily awakes when propofol decreased', 'npo', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-09 04:02:00 and 2179-07-09 04:39:00):\n           cv:1sr degree av block. hr 60 (goal hr is 60) bp maps &gt;60 90/60. right groin site eccymotic dry clean dressing. amiodarine 1mg/min, esmolol 75mcg/kg/min, lidocaine 2mg/min. patient received amio by mouth 400mg. ramipril 10mg. hct 32.9, k 3.5. pulses weak palp.\n\nresp:intubatedac 50% fio2/tv 650/peep5. patient has coarse ls and suctioning thick white frothy secretions rom ett. suctioned freqently mouth care pe vap protocol.\n\nneuro:sedated with propofol patient easily awakes when propofol decreased. patient will follow simple commands when sedation is decreased. pts ahnds remained tied for pts safety.\n\nid:patient has temp 101 rectal patient has had an increase in wbc. bc x 2 , urin culture sent.\n\ngi:bs +, no bm. npo.\n\ngu:patient has responded well to lasix 40mg x2 ivp. please see careview to hourly urinoutput .\n\na:s/p ablation of 3 foci, cath showed 2 vd lcx and rca patient continues to have runs of vt patient may have surgery on monday cabg and ablation.\n\np:esmolol drops to hr 60.maintain maps&gt;60, repleat and monitor lytes.vap mouth care per protocol. skin care as needed.\n\n\n        ', 'case_attributes': [[{'attribute_name': 'cv', 'attribute_value': '1sr degree av block'}, {'attribute_name': 'hr', 'attribute_value': '60'}, {'attribute_name': 'bp', 'attribute_value': '&gt;60 90/60'}, {'attribute_name': 'right groin site', 'attribute_value': 'eccymotic dry clean dressing'}, {'attribute_name': 'medications', 'attribute_value': 'amiodarine, esmolol, lidocaine, ramipril'}, {'attribute_name': 'hct', 'attribute_value': '32.9'}, {'attribute_name': 'k', 'attribute_value': '3.5'}]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 23.335788851836696}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>['patient easily awakes when propofol decreased']</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': ' Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Excretion', 'Pain', 'Sleep', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increased'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': ' Unknown'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown'}}}, {'Eating': {'Eating': {'food': ' Unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>['patient has responded well to lasix 40mg x2 ivp', 'patient has coarse ls and suctioning thick white frothy secretions rom ett', 'patient easily awakes when propofol decreased', 'npo', '']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:patient has responded well to lasix 40mg x2 ivp', 'e2=Pain|1:patient has coarse ls and suctioning thick white frothy secretions rom ett', 'e3=Sleep|1:patient easily awakes when propofol decreased', 'e4=Eating|1:npo', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2572,52 +2832,62 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-09 16:09:00'), Timestamp('2179-07-09 16:39:00'))</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'text': "ccu progress note:\n\ns- intubated &amp; sedated.\n\no- see flowsheet for all objective data.\n\ncv- tele: sb-sr 1st degree avb- hr 51-61- no ectopy- esmolol drops weaned &amp; d/c'd- mexiletine 200mg by mouth q8hr started- lidocaine drops weaned &amp; d/c'd @ 1330- amiodarone 400mg by mouth tid started- amiodarone drops to be d/c @ 1700- b/p 96-129/43-61 maps 55-77- hct 32.9- k3.5 kcl 60meq given- lasix 40mg iv ordered &amp; given @ 1500- additional kcl 40meq given- mg 2.0- mg sulfate 2gm given &amp; repeated @ 1500- repeat labs ordered for 1700.\n\nresp- ac 650/50%/[**11-19**] abg 7.43-36-97-25- lung sounds coarse, but [**last name (un) **]- suctioned for sm-mod amt thick tan colored mucous- spo2 97-100%.\n\nneuro- sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli- moving all extremities- able to follow simple commands- nods head appropriately to question.\n\ngi- abd softly distended (+) bowel sounds- ogt clamped for meds- no bm.\n\ngu- foley draining clear light yellow colored urine qs- diuresing well to lasix- bun 15 crea 1.1\n\nid- febrile overnight- tmax this shift 97.9 by mouth- wbc 8.9- r arm red &amp; warm to touch- ? cellulitis- received 1 dose of vanco after being pan cultured overnight- vanco now ordered 1000mg q 12hr- need vanco trough\nbefore 3rd dose.\n\na- status post cath with 2vd status post vt ablation- esmolol &amp; lidocaine gtts d/c'd today- transitioned to by mouth antiarrhythemics with no vt.\n\np- d/c amiodarone drops @ 1700- repeat labs &amp; replete lytes as needed- offer emotional support to patient &amp; family- ? extubate tomorrow.\n\n\np-\n\n\n", 'event': ['Excretion', 'Eating', 'Pain', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "foley draining clear light yellow colored urine qs- diuresing well to lasix",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "qs",\n                    "quality": "clear light yellow colored"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "ogt clamped for meds- no bm",\n            "actor": "patient",\n            "object": "meds",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "meds",\n                    "amount": "Unknown",\n                    "method": "ogt"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "r arm red &amp; warm to touch- ? cellulitis",\n            "actor": "patient",\n            "object": "arm",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "r arm",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "sedated",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "offer emotional support to patient &amp; family",\n            "actor": "Unknown",\n            "object": "patient and family",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "emotional support",\n                    "relation": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'qs', 'quality': 'clear light yellow colored'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'Unknown', 'method': 'ogt'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'r arm', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'sedated', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['foley draining clear light yellow colored urine qs- diuresing well to lasix', 'ogt clamped for meds- no bm', 'r arm red &amp; warm to touch- ? cellulitis', 'sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli', 'offer emotional support to patient &amp; family'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-09 16:09:00 and 2179-07-09 16:39:00):\n           ccu progress note:\n\ns- intubated &amp; sedated.\n\no- see flowsheet for all objective data.\n\ncv- tele: sb-sr 1st degree avb- hr 51-61- no ectopy- esmolol drops weaned &amp; d/c\'d- mexiletine 200mg by mouth q8hr started- lidocaine drops weaned &amp; d/c\'d @ 1330- amiodarone 400mg by mouth tid started- amiodarone drops to be d/c @ 1700- b/p 96-129/43-61 maps 55-77- hct 32.9- k3.5 kcl 60meq given- lasix 40mg iv ordered &amp; given @ 1500- additional kcl 40meq given- mg 2.0- mg sulfate 2gm given &amp; repeated @ 1500- repeat labs ordered for 1700.\n\nresp- ac 650/50%/[**11-19**] abg 7.43-36-97-25- lung sounds coarse, but [**last name (un) **]- suctioned for sm-mod amt thick tan colored mucous- spo2 97-100%.\n\nneuro- sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli- moving all extremities- able to follow simple commands- nods head appropriately to question.\n\ngi- abd softly distended (+) bowel sounds- ogt clamped for meds- no bm.\n\ngu- foley draining clear light yellow colored urine qs- diuresing well to lasix- bun 15 crea 1.1\n\nid- febrile overnight- tmax this shift 97.9 by mouth- wbc 8.9- r arm red &amp; warm to touch- ? cellulitis- received 1 dose of vanco after being pan cultured overnight- vanco now ordered 1000mg q 12hr- need vanco trough\nbefore 3rd dose.\n\na- status post cath with 2vd status post vt ablation- esmolol &amp; lidocaine gtts d/c\'d today- transitioned to by mouth antiarrhythemics with no vt.\n\np- d/c amiodarone drops @ 1700- repeat labs &amp; replete lytes as needed- offer emotional support to patient &amp; family- ? extubate tomorrow.\n\n\np-\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'Unknown'], 'event_detection_time': 22.201155761023983}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>['sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli']</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Pain', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'qs', 'quality': 'clear light yellow colored'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'Unknown', 'method': 'ogt'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'r arm', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'sedated', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['foley draining clear light yellow colored urine qs- diuresing well to lasix', 'ogt clamped for meds- no bm', 'r arm red &amp; warm to touch- ? cellulitis', 'sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli', 'offer emotional support to patient &amp; family']</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:foley draining clear light yellow colored urine qs- diuresing well to lasix', 'e2=Eating|1:ogt clamped for meds- no bm', 'e3=Pain|1:r arm red &amp; warm to touch- ? cellulitis', 'e4=Sleep|1:sedated on propofol drops @ 30mcq/kg/min- opens eyes to verbal stimuli', 'e5=Family|1:offer emotional support to patient &amp; family']</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2654,52 +2924,62 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-10 06:44:00'), Timestamp('2179-07-10 07:02:00'))</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'text': "nursing progress note 7p-7a\ns: intubated and sedated\n\no:  neuro:  cont on propofol for sedation while intubated.  increased dose overnight to rest while on ac.  following commands appropriately. nodding to questions and able to use letter board to communicate.\n\ncv:  hr 60- 70 1'avb, nbp 104-127/60's.  no vea noted.  cont on mexilitene and amio by mouth.  right and left groin c&amp;d, mod sized ecchymotic areas noted.  weak palp pulses.\n\nresp:  rested on ac 50%, rate 14.  suctioning for thick tan sputum.  coarse breath sounds.  will plan to extubate this am.\n\ngu:  foley draining clear yellow urine in good amts.  no further lasix given.  see carevue for i/o totals.\n\ngi: ogt in place, draining bilious gastric contents, remains npo.  2 small liquid stools.\n\nskin:  left arm edematous, small area noted on left wrist red, warm packs applied x2.\n\nid: afebrile, cont on vanco for ? cellulitis.  wbc nl.\n\na:  status post ablation for vt, now on mexilitene and amio by mouth\n\np:  follow electrolytes and replete as needed.  follow i/o, plan to extubate this am, wean off sedation.  update patient and family on plan of care per ccu team.\n", 'event': ['Sleep', 'Excretion', 'Eating', 'Pain', 'Family', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post ablation for vt"\n        },\n        {\n            "attribute_name": "on mexilitene and amio by mouth"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "increased dose overnight to rest while on ac",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "rested"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "foley draining clear yellow urine in good amts",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good amts"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "npo",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "None"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "no vea noted",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "None"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "update patient and family on plan of care per ccu team",\n            "actor": "Unknown",\n            "object": "family member",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "plan to extubate this am, wean off sedation",\n            "actor": "Unknown",\n            "object": "patient",\n            "negation": false,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "2 small liquid stools",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "small area noted on left wrist red, warm packs applied x2",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "after",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'rested'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good amts'}}}, {'Eating': {'Eating': {'food': 'None'}}}, {'Pain': {'Pain': {'severity': 'None'}}}, {'Family': {'Family': {'interaction': 'update'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e6'}]], 'text_quotes': ['increased dose overnight to rest while on ac', 'foley draining clear yellow urine in good amts', 'npo', 'no vea noted', 'update patient and family on plan of care per ccu team', 'plan to extubate this am, wean off sedation', '2 small liquid stools', 'small area noted on left wrist red, warm packs applied x2'], 'event_time': ['overnight', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'this am', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-10 06:44:00 and 2179-07-10 07:02:00):\n           nursing progress note 7p-7a\ns: intubated and sedated\n\no:  neuro:  cont on propofol for sedation while intubated.  increased dose overnight to rest while on ac.  following commands appropriately. nodding to questions and able to use letter board to communicate.\n\ncv:  hr 60- 70 1\'avb, nbp 104-127/60\'s.  no vea noted.  cont on mexilitene and amio by mouth.  right and left groin c&amp;d, mod sized ecchymotic areas noted.  weak palp pulses.\n\nresp:  rested on ac 50%, rate 14.  suctioning for thick tan sputum.  coarse breath sounds.  will plan to extubate this am.\n\ngu:  foley draining clear yellow urine in good amts.  no further lasix given.  see carevue for i/o totals.\n\ngi: ogt in place, draining bilious gastric contents, remains npo.  2 small liquid stools.\n\nskin:  left arm edematous, small area noted on left wrist red, warm packs applied x2.\n\nid: afebrile, cont on vanco for ? cellulitis.  wbc nl.\n\na:  status post ablation for vt, now on mexilitene and amio by mouth\n\np:  follow electrolytes and replete as needed.  follow i/o, plan to extubate this am, wean off sedation.  update patient and family on plan of care per ccu team.\n\n        ', 'case_attributes': [[{'attribute_name': 'status post ablation for vt'}, {'attribute_name': 'on mexilitene and amio by mouth'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'Unknown', 'Unknown', 'patient', 'patient'], 'event_detection_time': 28.235998060088605}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['increased dose overnight to rest while on ac', 'plan to extubate this am, wean off sedation']</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'rested'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Pain', 'Family', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'rested'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good amts'}}}, {'Eating': {'Eating': {'food': 'None'}}}, {'Pain': {'Pain': {'severity': 'None'}}}, {'Family': {'Family': {'interaction': 'update'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>['increased dose overnight to rest while on ac', 'foley draining clear yellow urine in good amts', 'npo', 'no vea noted', 'update patient and family on plan of care per ccu team', 'plan to extubate this am, wean off sedation', '2 small liquid stools', 'small area noted on left wrist red, warm packs applied x2']</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:increased dose overnight to rest while on ac', 'e2=Excretion|1:foley draining clear yellow urine in good amts', 'e3=Eating|1:npo', 'e4=Pain|1:no vea noted', 'e5=Family|1:update patient and family on plan of care per ccu team', 'e6=Sleep|1:plan to extubate this am, wean off sedation', 'e7=Excretion|1:2 small liquid stools', 'e8=Pain|1:small area noted on left wrist red, warm packs applied x2']</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -2739,52 +3019,62 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-10 15:41:00'), Timestamp('2179-07-10 16:04:00'))</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn 0700-1900\n\n68 year old male with known cad and vt requireing multiple vt ablations and intubation. extubated this am.\n\nneuro: intact. a&amp;o x3, quickly responded to propofol d/c. mae, voice coarse post intubation.\n\ncv: hr up this am 80-90 beats per min, 1st degree hb. bp elevated to 180/70's - 160/70's,  when sedation weaned. 5mg lopressor given. 40mg iv lasix given. 10mg iv hydralazine given. finally esmolol drops restarted 50-100mcg/kg/min. by mouth lopressor started this afternoon when able to take by mouth's. esmolol drops weaned off.\nno vt episodes. k+ 4.2 prior to lasix this am. 40meq given post lasix, lytes recheck at 1630.\nhep drops started for rue dvt.\n\nresp: extubated without difficulty. oxygen saturation 92-100%. persistent cough, patient able to expectorate sputum and sxn with yankeur. prior sputum sample + for mssa.\n\ngi: taking by mouth's cautiously, tolerated ice cream. meds crushed with ice cream. no bm.\n\ngu: approx 1liter response to iv lasix this am. creat wnl.\n\nskin:  lue red at wrist, decreased edema. rue swollen [**2-16**]+ edema.\nid: vanco d/c'd started on cefazolin for mssa in sputum. 98.4 ax.\naccess: aline d/c'd &amp; tlc in place. ? d/c cl [**7-11**].\n\na: no vt &gt; 48hrs on oral amio and mexilitine. successfully extubated. + cough, afebrile on abx for mssa +sputum. anticoagulated for rue dvt.\np: monitor for vt on oral meds post ablation. follow resp exam. iv abx, and iv heparin, follow ptt's. follow k+ and mag.\n\n\n\n", 'event': ['Excretion', 'Eating', 'Sleep', 'Pain', 'Family', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "age",\n      "attribute_value": "68"\n    },\n    {\n      "attribute_name": "gender",\n      "attribute_value": "male"\n    },\n    {\n      "attribute_name": "medical_history",\n      "attribute_value": "known cad and vt requiring multiple vt ablations and intubation"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "approx 1liter response to iv lasix this am.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "this am",\n      "caused_by": "iv lasix",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "1 time",\n          "quality": "approx 1liter"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "taking by mouth\'s cautiously, tolerated ice cream.",\n      "actor": "patient",\n      "object": "ice cream",\n      "negation": false,\n      "time": "this afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ice cream",\n          "amount": "Unknown",\n          "method": "by mouth"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "no bm.",\n      "actor": "patient",\n      "object": "stool",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "0 times",\n          "quality": "None"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1 time', 'quality': 'approx 1liter'}}}, {'Eating': {'Eating': {'food': 'ice cream', 'amount': 'Unknown', 'method': 'by mouth'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '0 times', 'quality': 'None'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['approx 1liter response to iv lasix this am.', "taking by mouth's cautiously, tolerated ice cream.", 'None', 'None', 'None', 'no bm.'], 'event_time': ['this am', 'this afternoon', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, True], 'caused_by': ['iv lasix', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-10 15:41:00 and 2179-07-10 16:04:00):\n           ccu npn 0700-1900\n\n68 year old male with known cad and vt requireing multiple vt ablations and intubation. extubated this am.\n\nneuro: intact. a&amp;o x3, quickly responded to propofol d/c. mae, voice coarse post intubation.\n\ncv: hr up this am 80-90 beats per min, 1st degree hb. bp elevated to 180/70\'s - 160/70\'s,  when sedation weaned. 5mg lopressor given. 40mg iv lasix given. 10mg iv hydralazine given. finally esmolol drops restarted 50-100mcg/kg/min. by mouth lopressor started this afternoon when able to take by mouth\'s. esmolol drops weaned off.\nno vt episodes. k+ 4.2 prior to lasix this am. 40meq given post lasix, lytes recheck at 1630.\nhep drops started for rue dvt.\n\nresp: extubated without difficulty. oxygen saturation 92-100%. persistent cough, patient able to expectorate sputum and sxn with yankeur. prior sputum sample + for mssa.\n\ngi: taking by mouth\'s cautiously, tolerated ice cream. meds crushed with ice cream. no bm.\n\ngu: approx 1liter response to iv lasix this am. creat wnl.\n\nskin:  lue red at wrist, decreased edema. rue swollen [**2-16**]+ edema.\nid: vanco d/c\'d started on cefazolin for mssa in sputum. 98.4 ax.\naccess: aline d/c\'d &amp; tlc in place. ? d/c cl [**7-11**].\n\na: no vt &gt; 48hrs on oral amio and mexilitine. successfully extubated. + cough, afebrile on abx for mssa +sputum. anticoagulated for rue dvt.\np: monitor for vt on oral meds post ablation. follow resp exam. iv abx, and iv heparin, follow ptt\'s. follow k+ and mag.\n\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '68'}, {'attribute_name': 'gender', 'attribute_value': 'male'}, {'attribute_name': 'medical_history', 'attribute_value': 'known cad and vt requiring multiple vt ablations and intubation'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 24.213543656049296}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Sleep', 'Pain', 'Family', 'Excretion']</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1 time', 'quality': 'approx 1liter'}}}, {'Eating': {'Eating': {'food': 'ice cream', 'amount': 'Unknown', 'method': 'by mouth'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '0 times', 'quality': 'None'}}}]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>['approx 1liter response to iv lasix this am.', "taking by mouth's cautiously, tolerated ice cream.", 'None', 'None', 'None', 'no bm.']</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:approx 1liter response to iv lasix this am.', "e2=Eating|1:taking by mouth's cautiously, tolerated ice cream.", 'e3=Sleep|0:None', 'e4=Pain|0:None', 'e5=Family|0:None', 'e6=Excretion|1:no bm.']</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -2822,52 +3112,62 @@
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-02-28 20:06:00'), Timestamp('2186-02-28 20:17:00'))</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'text': 'prob: status post cabg\n\ncv: sr no vea noted. vss. iabp 1:1 with good augmentation. pedal pulses by doppler, feet warm. returned from or on neo, prop, insulin, and epi. rythymn strip showed elevated st elevations. patient sent to cath lab. see cath report. svo2 adequate, recal x2. hct 24 received 2 unit prbcs. ct draining s/s, no leak noted. k, ca, mag replaced. neo and epi weaned post cath lab, vaso and ntg started, tolerating changes.\n\nresp: lungs clear, dim in bases. oxygen saturation adequate. abgs acidotic, rr up to 20 with improvement, see flow sheet. ett advanced 2cm per [**initials (namepattern4) **] [**last name (namepattern4) **].\n\ngi: ngt draining pink drainage. placement good. abg large, soft. lactic acid 6, team aware.\n\ngu: uop adequate.\n\nneuro: propofol off briefly, patient mae, perl.\n\nendo: insulin drip on, see flow sheet for bs and drip rate.\n\nassessment: patient [**name (ni) 11217**].\n\nplan: cont\ncheck labs\nhemodynamics\n\nassessment:\n', 'event': ['Unknown', 'Excretion', 'Eating', 'Pain', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post cabg"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "returned from or on neo, prop, insulin, and epi.",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "uop adequate.",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "adequate"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "ngt draining pink drainage.",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "pink drainage",\n                    "amount": "adequate"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "rythymn strip showed elevated st elevations.",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "elevated",\n                    "location": "st"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "propofol off briefly, patient mae, perl.",\n            "actor": "patient",\n            "object": "others",\n            "negation": false,\n            "time": "briefly",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "perl"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate'}}}, {'Eating': {'Eating': {'food': 'pink drainage', 'amount': 'adequate'}}}, {'Pain': {'Pain': {'severity': 'elevated', 'location': 'st'}}}, {'Sleep': {'Sleep': {'quality': 'perl'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['returned from or on neo, prop, insulin, and epi.', 'uop adequate.', 'ngt draining pink drainage.', 'rythymn strip showed elevated st elevations.', 'propofol off briefly, patient mae, perl.', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'briefly', 'Unknown'], 'negation': [False, False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-02-28 20:06:00 and 2186-02-28 20:17:00):\n           prob: status post cabg\n\ncv: sr no vea noted. vss. iabp 1:1 with good augmentation. pedal pulses by doppler, feet warm. returned from or on neo, prop, insulin, and epi. rythymn strip showed elevated st elevations. patient sent to cath lab. see cath report. svo2 adequate, recal x2. hct 24 received 2 unit prbcs. ct draining s/s, no leak noted. k, ca, mag replaced. neo and epi weaned post cath lab, vaso and ntg started, tolerating changes.\n\nresp: lungs clear, dim in bases. oxygen saturation adequate. abgs acidotic, rr up to 20 with improvement, see flow sheet. ett advanced 2cm per [**initials (namepattern4) **] [**last name (namepattern4) **].\n\ngi: ngt draining pink drainage. placement good. abg large, soft. lactic acid 6, team aware.\n\ngu: uop adequate.\n\nneuro: propofol off briefly, patient mae, perl.\n\nendo: insulin drip on, see flow sheet for bs and drip rate.\n\nassessment: patient [**name (ni) 11217**].\n\nplan: cont\ncheck labs\nhemodynamics\n\nassessment:\n\n        ', 'case_attributes': [[{'attribute_name': 'status post cabg'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 20.09561958303675}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['propofol off briefly, patient mae, perl.']</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'perl'}}}]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>['Unknown', 'Excretion', 'Eating', 'Pain', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate'}}}, {'Eating': {'Eating': {'food': 'pink drainage', 'amount': 'adequate'}}}, {'Pain': {'Pain': {'severity': 'elevated', 'location': 'st'}}}, {'Sleep': {'Sleep': {'quality': 'perl'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>['returned from or on neo, prop, insulin, and epi.', 'uop adequate.', 'ngt draining pink drainage.', 'rythymn strip showed elevated st elevations.', 'propofol off briefly, patient mae, perl.', '']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:returned from or on neo, prop, insulin, and epi.', 'e2=Excretion|1:uop adequate.', 'e3=Eating|1:ngt draining pink drainage.', 'e4=Pain|1:rythymn strip showed elevated st elevations.', 'e5=Sleep|1:propofol off briefly, patient mae, perl.', 'e6=Family|1:']</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2902,52 +3202,62 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-01 06:19:00'), Timestamp('2186-03-01 06:37:00'))</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'text': "neuro: patient lightly sedated with propofol. opening eyes to voice following commands. mae equally\nresp: patient initially on cmv  rate of 20 vent weaned overnight to imv10 with ips 5 continuing on fio2 of 60% and peep of 8. abg's followed and changes made accordingly with ho. suctioned for scant amounts. chest tubes patent draining small amounts of serous sanguinous drainage small amounts.\nc/v: heart rate in the 70's sinus rhythm. pacer turned on at 90 a demand when bp was in the 80's this helped alittle bringing bp up into 90's. patient received a total of 1500cc  of lr of low filing pressures and decreased bp. hct at time was 34. svo2's running in the 70's down to 60's this am when recalibrated. ci 2.1 by thermodilution and &gt;2.5 by fick. iabp on at 1:1 with good augmentation. pedal pulses palbable by doppler. patient on vasopressin 0.04units/min, nitro 0.25mcg/kg/min. epi weaned off by midnight with good svo2\ngi: ogt patent draining bilious fluid.\nendo: insulin drops up to as high as 13u/hr then blood sugars dropped and drip stoppped restarted at 0600\ngu: adequate urine outputs.\nskin: dressings dry and intact.\npain: when aake patient would nod head yes to pain given morphine 2mg iv as tolerated.\nplan: wean iabp and d/c, wean to extubate later today after iabp out.s\n\n", 'event': ['Pain', 'Excretion', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "when awake patient would nod head yes to pain given morphine 2mg iv as tolerated.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu: adequate urine outputs.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "adequate",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "gi: ogt patent draining bilious fluid.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "bilious fluid",\n                    "amount": "Unknown",\n                    "method": "ogt"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "neuro: patient lightly sedated with propofol.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "lightly sedated",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'bilious fluid', 'amount': 'Unknown', 'method': 'ogt'}}}, {'Sleep': {'Sleep': {'quality': 'lightly sedated', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['when awake patient would nod head yes to pain given morphine 2mg iv as tolerated.', 'gu: adequate urine outputs.', 'gi: ogt patent draining bilious fluid.', 'neuro: patient lightly sedated with propofol.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-01 06:19:00 and 2186-03-01 06:37:00):\n           neuro: patient lightly sedated with propofol. opening eyes to voice following commands. mae equally\nresp: patient initially on cmv  rate of 20 vent weaned overnight to imv10 with ips 5 continuing on fio2 of 60% and peep of 8. abg\'s followed and changes made accordingly with ho. suctioned for scant amounts. chest tubes patent draining small amounts of serous sanguinous drainage small amounts.\nc/v: heart rate in the 70\'s sinus rhythm. pacer turned on at 90 a demand when bp was in the 80\'s this helped alittle bringing bp up into 90\'s. patient received a total of 1500cc  of lr of low filing pressures and decreased bp. hct at time was 34. svo2\'s running in the 70\'s down to 60\'s this am when recalibrated. ci 2.1 by thermodilution and &gt;2.5 by fick. iabp on at 1:1 with good augmentation. pedal pulses palbable by doppler. patient on vasopressin 0.04units/min, nitro 0.25mcg/kg/min. epi weaned off by midnight with good svo2\ngi: ogt patent draining bilious fluid.\nendo: insulin drops up to as high as 13u/hr then blood sugars dropped and drip stoppped restarted at 0600\ngu: adequate urine outputs.\nskin: dressings dry and intact.\npain: when aake patient would nod head yes to pain given morphine 2mg iv as tolerated.\nplan: wean iabp and d/c, wean to extubate later today after iabp out.s\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.4719534649048}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>['neuro: patient lightly sedated with propofol.']</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lightly sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'bilious fluid', 'amount': 'Unknown', 'method': 'ogt'}}}, {'Sleep': {'Sleep': {'quality': 'lightly sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>['when awake patient would nod head yes to pain given morphine 2mg iv as tolerated.', 'gu: adequate urine outputs.', 'gi: ogt patent draining bilious fluid.', 'neuro: patient lightly sedated with propofol.']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>['e1=Pain|0:when awake patient would nod head yes to pain given morphine 2mg iv as tolerated.', 'e2=Excretion|1:gu: adequate urine outputs.', 'e3=Eating|1:gi: ogt patent draining bilious fluid.', 'e4=Sleep|1:neuro: patient lightly sedated with propofol.']</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2985,52 +3295,62 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-01 12:59:00'), Timestamp('2186-03-01 13:06:00'))</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{'text': 'prob: status post cabg x2/iabp\n\ncv: apaced at 90. cont on vasopressin .04u/min. cco [**3-24**], svo2 60-70. iabp weaned to 1:2 without change in hemodynamics. pedal pulses by doppler, feet warm, good capillary refill. prop at 15mcg/kg/min for restlessness, morphine for pain with good effect. k and mag replaced. cardiac echo done.\n\nresp: abg adequate, plan to wean after iabp removed. suction for scant.\n\ngu: lasix with brisk response.\n\ngi: abd soft/distented.\n\nendo: see flow sheet for bs and drip rates.\n\nneuro: follows commands. mae. perl.\n\nassessment: more stable.\n\nplan: d/cd iabp\ncheck lytes/bs/hct\ncheck hemodynamics\nwean vent after iabp d/cd.\n\n\n', 'event': ['Pain', 'Excretion', 'Sleep', 'Eating', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "morphine for pain with good effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "lasix with brisk response",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "restlessness, prop at 15mcg/kg/min for restlessness",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "cardiac echo done",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "unknown",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['morphine for pain with good effect', 'lasix with brisk response', 'restlessness, prop at 15mcg/kg/min for restlessness', '', '', 'cardiac echo done'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-01 12:59:00 and 2186-03-01 13:06:00):\n           prob: status post cabg x2/iabp\n\ncv: apaced at 90. cont on vasopressin .04u/min. cco [**3-24**], svo2 60-70. iabp weaned to 1:2 without change in hemodynamics. pedal pulses by doppler, feet warm, good capillary refill. prop at 15mcg/kg/min for restlessness, morphine for pain with good effect. k and mag replaced. cardiac echo done.\n\nresp: abg adequate, plan to wean after iabp removed. suction for scant.\n\ngu: lasix with brisk response.\n\ngi: abd soft/distented.\n\nendo: see flow sheet for bs and drip rates.\n\nneuro: follows commands. mae. perl.\n\nassessment: more stable.\n\nplan: d/cd iabp\ncheck lytes/bs/hct\ncheck hemodynamics\nwean vent after iabp d/cd.\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.444398819934577}</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>['restlessness, prop at 15mcg/kg/min for restlessness']</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Sleep', 'Eating', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>['morphine for pain with good effect', 'lasix with brisk response', 'restlessness, prop at 15mcg/kg/min for restlessness', '', '', 'cardiac echo done']</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>['e1=Pain|1:morphine for pain with good effect', 'e2=Excretion|1:lasix with brisk response', 'e3=Sleep|0:restlessness, prop at 15mcg/kg/min for restlessness', 'e4=Eating|1:', 'e5=Family|1:', 'e6=Unknown|1:cardiac echo done']</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -3063,52 +3383,62 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-02 07:29:00'), Timestamp('2186-03-02 07:43:00'))</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'text': "neuro:  sedated on propofol.  follows commands and mae when sedation off.  nods appropriately.\n\ncv:  sr-st 90's-100's.  diastolic blood pressure 90's-130's.  pap 30's-40's.  co 4.5-8.4.  ci 1.95-3.56.  l rad a-line intact.  r ij cordis with meds infusing easily.  doppler pp.\n\nr:  cpap [**6-30**].  sat 92-95%.  thick, yellow secretions with sxn.\n\ngi:  +bs.  no bm.  ogt to lcws.  bilious secretions noted.\n\ngu:  foley p/s.  auop.  lasix [**hospital1 **].  diuresed well.\n\nskin:  drsgs. cdi.  no breakdown noted.  r groin soft.  no bleeding or hematoma noted.\n\nplan:  continue aggressive pulmonary hygiene.  wean vent settings as tolerated.\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Excretion', 'Excretion', 'Excretion', 'Excretion', 'Sleep', 'Pain', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9', 'e10'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "neuro: sedated on propofol.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "follows commands and mae when sedation off.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "nods appropriately.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "+bs. no bm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "bowel movement",\n                    "frequency": "none"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "ogt to lcws. bilious secretions noted.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "vomit",\n                    "quality": "bilious"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "foley p/s. auop.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "lasix [hospital1]. diuresed well.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "well"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Sleep",\n            "text_quote": "cpap [6-30]. sat 92-95%. thick, yellow secretions with sxn.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Pain",\n            "text_quote": "sxn.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Unknown",\n            "text_quote": "plan: continue aggressive pulmonary hygiene. wean vent settings as tolerated.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'bowel movement', 'frequency': 'none'}}}, {'Excretion': {'Excretion': {'type': 'vomit', 'quality': 'bilious'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'well'}}}, {'Sleep': {'Sleep': {'quality': 'unknown'}}}, {'Pain': {'Pain': {'severity': 'unknown'}}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['neuro: sedated on propofol.', 'follows commands and mae when sedation off.', 'nods appropriately.', '+bs. no bm.', 'ogt to lcws. bilious secretions noted.', 'foley p/s. auop.', 'lasix [hospital1]. diuresed well.', 'cpap [6-30]. sat 92-95%. thick, yellow secretions with sxn.', 'sxn.', 'plan: continue aggressive pulmonary hygiene. wean vent settings as tolerated.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-02 07:29:00 and 2186-03-02 07:43:00):\n           neuro:  sedated on propofol.  follows commands and mae when sedation off.  nods appropriately.\n\ncv:  sr-st 90\'s-100\'s.  diastolic blood pressure 90\'s-130\'s.  pap 30\'s-40\'s.  co 4.5-8.4.  ci 1.95-3.56.  l rad a-line intact.  r ij cordis with meds infusing easily.  doppler pp.\n\nr:  cpap [**6-30**].  sat 92-95%.  thick, yellow secretions with sxn.\n\ngi:  +bs.  no bm.  ogt to lcws.  bilious secretions noted.\n\ngu:  foley p/s.  auop.  lasix [**hospital1 **].  diuresed well.\n\nskin:  drsgs. cdi.  no breakdown noted.  r groin soft.  no bleeding or hematoma noted.\n\nplan:  continue aggressive pulmonary hygiene.  wean vent settings as tolerated.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 28.423000645823777}</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>['cpap [6-30]. sat 92-95%. thick, yellow secretions with sxn.']</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'unknown'}}}]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Excretion', 'Excretion', 'Excretion', 'Excretion', 'Sleep', 'Pain', 'Unknown']</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'bowel movement', 'frequency': 'none'}}}, {'Excretion': {'Excretion': {'type': 'vomit', 'quality': 'bilious'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'well'}}}, {'Sleep': {'Sleep': {'quality': 'unknown'}}}, {'Pain': {'Pain': {'severity': 'unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>['neuro: sedated on propofol.', 'follows commands and mae when sedation off.', 'nods appropriately.', '+bs. no bm.', 'ogt to lcws. bilious secretions noted.', 'foley p/s. auop.', 'lasix [hospital1]. diuresed well.', 'cpap [6-30]. sat 92-95%. thick, yellow secretions with sxn.', 'sxn.', 'plan: continue aggressive pulmonary hygiene. wean vent settings as tolerated.']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>['e1=Unknown|0:neuro: sedated on propofol.', 'e2=Unknown|1:follows commands and mae when sedation off.', 'e3=Unknown|1:nods appropriately.', 'e4=Excretion|0:+bs. no bm.', 'e5=Excretion|0:ogt to lcws. bilious secretions noted.', 'e6=Excretion|0:foley p/s. auop.', 'e7=Excretion|0:lasix [hospital1]. diuresed well.', 'e8=Sleep|0:cpap [6-30]. sat 92-95%. thick, yellow secretions with sxn.', 'e9=Pain|1:sxn.', 'e10=Unknown|0:plan: continue aggressive pulmonary hygiene. wean vent settings as tolerated.']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3144,52 +3474,62 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-02 14:26:00'), Timestamp('2186-03-02 14:35:00'))</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{'text': "prob: cabg\n\ncv: sr no vea noted, vss. vasopressin d/cd, tolerating so far. svo2 60's with cco [**4-25**]. cont on ntg for spasm. pacer wires intact, a and v wires sensing and capturing. ct draining s/s drainage. no leak noted. pa line reposition x1 by [**initials (namepattern4) **] [**last name (namepattern4) 460**]. morphine for pain x1 with good effect. 1 unit prbcs. k replaced. r groin site clean and dry, no hematoma noted. draining small amount s/s from l fam site.\n\nresp: abgs marginal, o2 increased to 60%. cxr wet. lung coarse with wheezing. suctioned for scant tan.\n\ngu: lasix with fair diuresis.\n\ngi: bowel sounds present.\n\nneuro: alert, nods appropriately. follows commands.\n\nendo: see flow sheet for insulin rates and bs.\n\nassessment: tolerating vaso wean.\n\nplan: pulm toilet, abgs\ncheck lytes/bs/hct.\n", 'event': ['Pain', 'Excretion', 'Eating', 'Sleep', 'Family', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9', 'e10', 'e11', 'e12'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "morphine for pain x1 with good effect.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "gu: lasix with fair diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "fair",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "Unknown",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "cv: sr no vea noted, vss. vasopressin d/cd, tolerating so far.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "resp: abgs marginal, o2 increased to 60%. cxr wet. lung coarse with wheezing.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Unknown",\n      "text_quote": "gi: bowel sounds present.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Unknown",\n      "text_quote": "neuro: alert, nods appropriately. follows commands.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e10",\n      "event_type": "Unknown",\n      "text_quote": "endo: see flow sheet for insulin rates and bs.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e11",\n      "event_type": "Unknown",\n      "text_quote": "assessment: tolerating vaso wean.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e12",\n      "event_type": "Unknown",\n      "text_quote": "plan: pulm toilet, abgs check lytes/bs/hct.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": []\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['morphine for pain x1 with good effect.', 'gu: lasix with fair diuresis.', '', '', '', 'cv: sr no vea noted, vss. vasopressin d/cd, tolerating so far.', 'resp: abgs marginal, o2 increased to 60%. cxr wet. lung coarse with wheezing.', 'gi: bowel sounds present.', 'neuro: alert, nods appropriately. follows commands.', 'endo: see flow sheet for insulin rates and bs.', 'assessment: tolerating vaso wean.', 'plan: pulm toilet, abgs check lytes/bs/hct.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-02 14:26:00 and 2186-03-02 14:35:00):\n           prob: cabg\n\ncv: sr no vea noted, vss. vasopressin d/cd, tolerating so far. svo2 60\'s with cco [**4-25**]. cont on ntg for spasm. pacer wires intact, a and v wires sensing and capturing. ct draining s/s drainage. no leak noted. pa line reposition x1 by [**initials (namepattern4) **] [**last name (namepattern4) 460**]. morphine for pain x1 with good effect. 1 unit prbcs. k replaced. r groin site clean and dry, no hematoma noted. draining small amount s/s from l fam site.\n\nresp: abgs marginal, o2 increased to 60%. cxr wet. lung coarse with wheezing. suctioned for scant tan.\n\ngu: lasix with fair diuresis.\n\ngi: bowel sounds present.\n\nneuro: alert, nods appropriately. follows commands.\n\nendo: see flow sheet for insulin rates and bs.\n\nassessment: tolerating vaso wean.\n\nplan: pulm toilet, abgs\ncheck lytes/bs/hct.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 33.531465547857806}</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Sleep', 'Family', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['morphine for pain x1 with good effect.', 'gu: lasix with fair diuresis.', '', '', '', 'cv: sr no vea noted, vss. vasopressin d/cd, tolerating so far.', 'resp: abgs marginal, o2 increased to 60%. cxr wet. lung coarse with wheezing.', 'gi: bowel sounds present.', 'neuro: alert, nods appropriately. follows commands.', 'endo: see flow sheet for insulin rates and bs.', 'assessment: tolerating vaso wean.', 'plan: pulm toilet, abgs check lytes/bs/hct.']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>['e1=Pain|1:morphine for pain x1 with good effect.', 'e2=Excretion|1:gu: lasix with fair diuresis.', 'e3=Eating|1:', 'e4=Sleep|1:', 'e5=Family|1:', 'e6=Unknown|1:cv: sr no vea noted, vss. vasopressin d/cd, tolerating so far.', 'e7=Unknown|1:resp: abgs marginal, o2 increased to 60%. cxr wet. lung coarse with wheezing.', 'e8=Unknown|1:gi: bowel sounds present.', 'e9=Unknown|1:neuro: alert, nods appropriately. follows commands.', 'e10=Unknown|1:endo: see flow sheet for insulin rates and bs.', 'e11=Unknown|1:assessment: tolerating vaso wean.', 'e12=Unknown|0:plan: pulm toilet, abgs check lytes/bs/hct.']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3222,52 +3562,62 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-02 21:40:00'), Timestamp('2186-03-02 21:57:00'))</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'text': "neuro: appears intact, following commands, mae, smiling, using hands to communicate with wife [**name (ni) 11218**] words).\ncardiac: mp sr without. k repleated, +ca tx. co/ci acceptable, slight drop at 2100 of c1 to 1.99, ^ with no tx. vaso. restarted due to s b/p 80's.  iv ntg remains at .25 m/k/m due to post op spasm. ct's patent for small amt serosang drainage. dopplerable pulses.\nresp: cs coarse at times, diminished in bil bases. suctioned for thick yellow. peep ^ to 14 due to po2 77.\ngi: og in place, patent for scant bilious.\ngu: foley in place, patent for clear yellow urine, ^ after iv lasix.\nendo: following protocol.\nfamily: wife in till 1900, aware of progress and plans.\n\n\n\n\n\n\n\n\n\n\n\n\n", 'event': ['Family', 'Excretion', 'Eating', 'Pain', 'Sleep', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Family",\n      "text_quote": "wife in till 1900, aware of progress and plans.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "gu: foley in place, patent for clear yellow urine, ^ after iv lasix.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "iv lasix",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "clear yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "resp: cs coarse at times, diminished in bil bases. suctioned for thick yellow.",\n      "actor": "patient",\n      "object": "sputum",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "sputum",\n          "frequency": "Unknown",\n          "quality": "thick yellow"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'Unknown', 'quality': 'thick yellow'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e6'}]], 'text_quotes': ['wife in till 1900, aware of progress and plans.', 'gu: foley in place, patent for clear yellow urine, ^ after iv lasix.', '', '', '', 'resp: cs coarse at times, diminished in bil bases. suctioned for thick yellow.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'iv lasix', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-02 21:40:00 and 2186-03-02 21:57:00):\n           neuro: appears intact, following commands, mae, smiling, using hands to communicate with wife [**name (ni) 11218**] words).\ncardiac: mp sr without. k repleated, +ca tx. co/ci acceptable, slight drop at 2100 of c1 to 1.99, ^ with no tx. vaso. restarted due to s b/p 80\'s.  iv ntg remains at .25 m/k/m due to post op spasm. ct\'s patent for small amt serosang drainage. dopplerable pulses.\nresp: cs coarse at times, diminished in bil bases. suctioned for thick yellow. peep ^ to 14 due to po2 77.\ngi: og in place, patent for scant bilious.\ngu: foley in place, patent for clear yellow urine, ^ after iv lasix.\nendo: following protocol.\nfamily: wife in till 1900, aware of progress and plans.\n\n\n\n\n\n\n\n\n\n\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['family member', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.23913240386173}</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>['Family', 'Excretion', 'Eating', 'Pain', 'Sleep', 'Excretion']</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'Unknown', 'quality': 'thick yellow'}}}]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>['wife in till 1900, aware of progress and plans.', 'gu: foley in place, patent for clear yellow urine, ^ after iv lasix.', '', '', '', 'resp: cs coarse at times, diminished in bil bases. suctioned for thick yellow.']</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>['e1=Family|1:wife in till 1900, aware of progress and plans.', 'e2=Excretion|1:gu: foley in place, patent for clear yellow urine, ^ after iv lasix.', 'e3=Eating|1:', 'e4=Pain|1:', 'e5=Sleep|1:', 'e6=Excretion|1:resp: cs coarse at times, diminished in bil bases. suctioned for thick yellow.']</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -3295,52 +3645,62 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-03 05:31:00'), Timestamp('2186-03-03 05:34:00'))</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'text': 'resp care\npatient stable and remains on vent. suctioned mod amt of thick yellow secretions. peep increased due to low po2 and decreased o2 from 60% to 40% throughout night. tx given as ordered. plan to wean as tolerated.\n', 'event': ['Unknown', 'Excretion', 'Pain', 'Sleep', 'Eating', 'Family', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient stable and remains on vent.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "suctioned mod amt of thick yellow secretions.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "secretions",\n                    "frequency": "moderate",\n                    "quality": "thick yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Unknown",\n            "text_quote": "tx given as ordered.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Unknown",\n            "text_quote": "plan to wean as tolerated.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'moderate', 'quality': 'thick yellow'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient stable and remains on vent.', 'suctioned mod amt of thick yellow secretions.', '', '', '', '', 'tx given as ordered.', 'plan to wean as tolerated.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'night', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-03 05:31:00 and 2186-03-03 05:34:00):\n           resp care\npatient stable and remains on vent. suctioned mod amt of thick yellow secretions. peep increased due to low po2 and decreased o2 from 60% to 40% throughout night. tx given as ordered. plan to wean as tolerated.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.134638038929552}</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>['Unknown', 'Excretion', 'Pain', 'Sleep', 'Eating', 'Family', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'secretions', 'frequency': 'moderate', 'quality': 'thick yellow'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>['patient stable and remains on vent.', 'suctioned mod amt of thick yellow secretions.', '', '', '', '', 'tx given as ordered.', 'plan to wean as tolerated.']</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient stable and remains on vent.', 'e2=Excretion|1:suctioned mod amt of thick yellow secretions.', 'e3=Pain|1:', 'e4=Sleep|1:', 'e5=Eating|1:', 'e6=Family|1:', 'e7=Unknown|1:tx given as ordered.', 'e8=Unknown|1:plan to wean as tolerated.']</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3374,52 +3734,62 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-03 18:51:00'), Timestamp('2186-03-03 19:19:00'))</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'text': "nursing note 7a-7p review of systems:\nneuro: patient [**name (ni) **] and oriented, mouthing words appropriately. follows commands well.  medicated with propofol 10mcg/kg/min, also morphine sulfate 4mg ivp x2 with good effect.\nc/v: nsr rate 80-87 occasional pvc's. vasopressin decreased to .01mg/min, continues on nitro at .25mcg/kg/min. 1800 k= 3.8 repleted with 20meq up at 1900.\nresp: intubated continues on cpap with ps, fio2 40%, peep decreased from 14 to 10 and ps decreased from 15 to 10. et tube pulled back 1cm and retaped by rt after patient had airleak. 1800 abg= 7.45-43-87. mediastinal chest tube d/cd in am.\ngi: abd soft nontender positive bowel sounds no bm this shift.  tube feedings impact with fiber started at 20cc/hr to be advance by 10cc q6 hours to goal rate of 60cc/hr.\ngu: continues on lasix 20mg [**hospital1 **] with good diuresis.\nsocial: wife into visit most of the day.\nplan: continue to wean peep down, good pulmonary tolieting.\n\n", 'event': ['Pain', 'Excretion', 'Eating', 'Family', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "morphine sulfate 4mg ivp x2 with good effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu: continues on lasix 20mg [**hospital1 **] with good diuresis",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "gi: abd soft nontender positive bowel sounds no bm this shift.  tube feedings impact with fiber started at 20cc/hr to be advance by 10cc q6 hours to goal rate of 60cc/hr",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tube feedings impact with fiber",\n                    "amount": "20cc/hr",\n                    "method": "tube"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "social: wife into visit most of the day",\n            "actor": "wife",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'good'}}}, {'Eating': {'Eating': {'food': 'tube feedings impact with fiber', 'amount': '20cc/hr', 'method': 'tube'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['morphine sulfate 4mg ivp x2 with good effect', 'gu: continues on lasix 20mg [**hospital1 **] with good diuresis', 'gi: abd soft nontender positive bowel sounds no bm this shift.  tube feedings impact with fiber started at 20cc/hr to be advance by 10cc q6 hours to goal rate of 60cc/hr', 'social: wife into visit most of the day', 'None'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-03 18:51:00 and 2186-03-03 19:19:00):\n           nursing note 7a-7p review of systems:\nneuro: patient [**name (ni) **] and oriented, mouthing words appropriately. follows commands well.  medicated with propofol 10mcg/kg/min, also morphine sulfate 4mg ivp x2 with good effect.\nc/v: nsr rate 80-87 occasional pvc\'s. vasopressin decreased to .01mg/min, continues on nitro at .25mcg/kg/min. 1800 k= 3.8 repleted with 20meq up at 1900.\nresp: intubated continues on cpap with ps, fio2 40%, peep decreased from 14 to 10 and ps decreased from 15 to 10. et tube pulled back 1cm and retaped by rt after patient had airleak. 1800 abg= 7.45-43-87. mediastinal chest tube d/cd in am.\ngi: abd soft nontender positive bowel sounds no bm this shift.  tube feedings impact with fiber started at 20cc/hr to be advance by 10cc q6 hours to goal rate of 60cc/hr.\ngu: continues on lasix 20mg [**hospital1 **] with good diuresis.\nsocial: wife into visit most of the day.\nplan: continue to wean peep down, good pulmonary tolieting.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'wife', 'patient'], 'event_detection_time': 21.56755525711924}</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Family', 'Sleep']</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'good'}}}, {'Eating': {'Eating': {'food': 'tube feedings impact with fiber', 'amount': '20cc/hr', 'method': 'tube'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>['morphine sulfate 4mg ivp x2 with good effect', 'gu: continues on lasix 20mg [**hospital1 **] with good diuresis', 'gi: abd soft nontender positive bowel sounds no bm this shift.  tube feedings impact with fiber started at 20cc/hr to be advance by 10cc q6 hours to goal rate of 60cc/hr', 'social: wife into visit most of the day', 'None']</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>['e1=Pain|1:morphine sulfate 4mg ivp x2 with good effect', 'e2=Excretion|1:gu: continues on lasix 20mg [**hospital1 **] with good diuresis', 'e3=Eating|1:gi: abd soft nontender positive bowel sounds no bm this shift.  tube feedings impact with fiber started at 20cc/hr to be advance by 10cc q6 hours to goal rate of 60cc/hr', 'e4=Family|1:social: wife into visit most of the day', 'e5=Sleep|0:None']</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3453,52 +3823,62 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-04 04:55:00'), Timestamp('2186-03-04 05:30:00'))</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{'text': "cv:  nsr 80's-90's with rare-occ vea; diastolic blood pressure generally 120's-130's; pacer off-&gt;neither a nor v wires sensing; vaso weaned off, cont on ntg drops 0.25mcg/kg/min for spasms, cont on propofol 10mcg/kg/min and insulin drops; generalized 2+ pitting edema; palpable bil pedal pulses k+ and mag repleated\n\nneuro:  unable to assess orientation r/to ett; perla; mae; nods appropriately to questions, writes notes to communicate\n\nresp:  reg with coarse bases; cpap+ps 10+peep 10, slight resp alk of 7.46-&gt;md aware and no orders given; suctioned for sm amts thin, clear secretions; pleural ct with minimal ss drainage\n\ngi/gu:  abd obese with normoactive bowel sounds, impact with fiber infusing per og now at 40cc/h increasing by 10cc q6h to reach goal of 60cc/h, no residual; urine yellow with sediment per foley catheter to gravity, good response to lasix 20mg q8h\n\npain:  morphine iv for pain with good effect\n\nendo:  bs covered by insulin drops per protocol (see flowsheet)\n\nid:  tmax 100.1\n\na/plan:  status post redo cabg; cont to wean from vent, pulmonary hygiene, monitor lytes and repleat pro re nata\n", 'event': ['Pain', 'Excretion', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post redo cabg"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "morphine iv for pain with good effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "urine yellow with sediment per foley catheter to gravity, good response to lasix 20mg q8h",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "yellow with sediment"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "abd obese with normoactive bowel sounds, impact with fiber infusing per og now at 40cc/h increasing by 10cc q6h to reach goal of 60cc/h, no residual",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "fiber",\n                    "amount": "40cc/h increasing by 10cc q6h to reach goal of 60cc/h",\n                    "method": "og"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "unable to assess orientation r/to ett",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'yellow with sediment'}}}, {'Eating': {'Eating': {'food': 'fiber', 'amount': '40cc/h increasing by 10cc q6h to reach goal of 60cc/h', 'method': 'og'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['morphine iv for pain with good effect', 'urine yellow with sediment per foley catheter to gravity, good response to lasix 20mg q8h', 'abd obese with normoactive bowel sounds, impact with fiber infusing per og now at 40cc/h increasing by 10cc q6h to reach goal of 60cc/h, no residual', 'unable to assess orientation r/to ett'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-04 04:55:00 and 2186-03-04 05:30:00):\n           cv:  nsr 80\'s-90\'s with rare-occ vea; diastolic blood pressure generally 120\'s-130\'s; pacer off-&gt;neither a nor v wires sensing; vaso weaned off, cont on ntg drops 0.25mcg/kg/min for spasms, cont on propofol 10mcg/kg/min and insulin drops; generalized 2+ pitting edema; palpable bil pedal pulses k+ and mag repleated\n\nneuro:  unable to assess orientation r/to ett; perla; mae; nods appropriately to questions, writes notes to communicate\n\nresp:  reg with coarse bases; cpap+ps 10+peep 10, slight resp alk of 7.46-&gt;md aware and no orders given; suctioned for sm amts thin, clear secretions; pleural ct with minimal ss drainage\n\ngi/gu:  abd obese with normoactive bowel sounds, impact with fiber infusing per og now at 40cc/h increasing by 10cc q6h to reach goal of 60cc/h, no residual; urine yellow with sediment per foley catheter to gravity, good response to lasix 20mg q8h\n\npain:  morphine iv for pain with good effect\n\nendo:  bs covered by insulin drops per protocol (see flowsheet)\n\nid:  tmax 100.1\n\na/plan:  status post redo cabg; cont to wean from vent, pulmonary hygiene, monitor lytes and repleat pro re nata\n\n        ', 'case_attributes': [[{'attribute_name': 'status post redo cabg'}]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.44008323014714}</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['unable to assess orientation r/to ett']</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'yellow with sediment'}}}, {'Eating': {'Eating': {'food': 'fiber', 'amount': '40cc/h increasing by 10cc q6h to reach goal of 60cc/h', 'method': 'og'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>['morphine iv for pain with good effect', 'urine yellow with sediment per foley catheter to gravity, good response to lasix 20mg q8h', 'abd obese with normoactive bowel sounds, impact with fiber infusing per og now at 40cc/h increasing by 10cc q6h to reach goal of 60cc/h, no residual', 'unable to assess orientation r/to ett']</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>['e1=Pain|1:morphine iv for pain with good effect', 'e2=Excretion|1:urine yellow with sediment per foley catheter to gravity, good response to lasix 20mg q8h', 'e3=Eating|1:abd obese with normoactive bowel sounds, impact with fiber infusing per og now at 40cc/h increasing by 10cc q6h to reach goal of 60cc/h, no residual', 'e4=Sleep|1:unable to assess orientation r/to ett']</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3531,52 +3911,62 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-04 18:07:00'), Timestamp('2186-03-04 18:17:00'))</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{'text': "csru update\ncvs: sr/st with isolated pvc's noted. lopressor 5mg iv given, needs lopressor by mouth prescribing. lytes repletyed. diastolic blood pressure ^, nitro titrated 0.5-2. 1unit prbc given for hct 27, awaiting rpt hct. afebrile. pedal pulses palpable.\n\nresp: extubated, now on face tent fio2 70%, sa02 94-97%. expectorates thick tan secretions. cpt, dbc's, is done. minimal sersang drainage to ct.\n\nneuro: ao x3, mae's no deficit. pain treated with morphine iv\n\ngi: tf off, ogt removed when extubated. to try oral diets when ready. insulin drops down to 1, bs monitored hourly. sips of water taken well\n\ngu: lasix given with good effect\n\nplan: continue pulmonary toilet. encourage diets when ready. monitor bs, titrate insulin accdg to s/s\n\n\n", 'event': ['Pain', 'Excretion', 'Eating', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "pain treated with morphine iv",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "lasix given with good effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "sips of water taken well",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "water",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['pain treated with morphine iv', 'lasix given with good effect', 'sips of water taken well', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-04 18:07:00 and 2186-03-04 18:17:00):\n           csru update\ncvs: sr/st with isolated pvc\'s noted. lopressor 5mg iv given, needs lopressor by mouth prescribing. lytes repletyed. diastolic blood pressure ^, nitro titrated 0.5-2. 1unit prbc given for hct 27, awaiting rpt hct. afebrile. pedal pulses palpable.\n\nresp: extubated, now on face tent fio2 70%, sa02 94-97%. expectorates thick tan secretions. cpt, dbc\'s, is done. minimal sersang drainage to ct.\n\nneuro: ao x3, mae\'s no deficit. pain treated with morphine iv\n\ngi: tf off, ogt removed when extubated. to try oral diets when ready. insulin drops down to 1, bs monitored hourly. sips of water taken well\n\ngu: lasix given with good effect\n\nplan: continue pulmonary toilet. encourage diets when ready. monitor bs, titrate insulin accdg to s/s\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.11348204012029}</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['pain treated with morphine iv', 'lasix given with good effect', 'sips of water taken well', '', '']</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pain treated with morphine iv', 'e2=Excretion|1:lasix given with good effect', 'e3=Eating|1:sips of water taken well', 'e4=Sleep|1:', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -3612,52 +4002,62 @@
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-05 04:41:00'), Timestamp('2186-03-05 05:04:00'))</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{'text': 'neuro: patient a+o x3. conversing appropriate. mae x4 to command q equal l/r strength. no deficit.\n\ncv: sr -st. hr 90s-100s w quadgeminal polymorphic pvc\'s. checked lytes r/s normal. gave total lopressor 5mg ivp at start of shift per dr [**first name (stitle) **] and again in am-&gt;hr improves marginally dropped to 3 beats. no further pvc\'s seen in am. bp maintain 110s-120s/50s w nitro drops. unable to check epicardial wires threshold d/t tachycardic. peripheral edemadous, palpable pulses, skin w/d.\n\nresp: ls diminish throughout more bibasilar and lul&gt;rul. crackles bs in both lower bases. poor oxygenation--&gt;sat is marginal 89-90% on 6lnc. patient denies sob/dysnea. rr mid 20s. breathing even, cough congested. aggressive cpt/dbc/is reinforced use ^750ml w no immediate improve sat, expectorate sm. amt thick sputum. add f.t .50. gas on 6lnc/.50 ft consistent metabolic alkalosis w pao2 77-&gt;up ft .70. but patient non-compliance all noc w oxygen therapy-&gt;refuse fc d/t c\'o cool air. switch to simple face mask at 8lnc w sat maintain 94-95% -.but again patient tolerated short period and asked rn to remove d/t c/o "hot". switched back to nc/ft therapy for now w sat &gt;92-94%. ct drg mod amt w after change position 50-70cc serosang, no leak/crepitus.status update to dr. [**first name (stitle) **].\n\ngi: abd soft/distent. +bs. tolerate cl liquid without difficulty swallowing. refused ranitidine w expression fear of "hallucination and ms change. explain to patient med dose/s/e/importances-&gt;but patient still refused -&gt;notify team in am.\nendo: wean insulin drops off. start on riss. restart home oral [**doctor last name 69**]?\ngu: patient diuresis sufficient amt from tid lasix.\nwound chest and lt leg wound cdi. both groin wound minimumly ecchymotic but soft and non-tender\n\npain: gave morphine ivp x1 at hs for incs pain w effect. no family call overnoc. explain to patient about status and poc-&gt;patient expressed aprehension about oxygen status and post of expectation d/t? knowledge deficit--&gt;need frequent teaching and explanation.\n\na: poor oxygen saturation w tachycardic/htn.\np: monitor rhymth. need by mouth lopressor start today?-&gt;wean off nitro. aggresive pulm toilet--&gt;monitor oxy sat status. need ^diet intake..^acitivity. need switch to new gi antacid med? restart home oral [**doctor last name 69**]?\n\n\n', 'event': ['Pain', 'Eating', 'Excretion', 'Sleep', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "gave morphine ivp x1 at hs for incs pain w effect.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "increased",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "tolerate cl liquid without difficulty swallowing.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "clear liquid",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "patient diuresis sufficient amt from tid lasix.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "sufficient",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "no family call overnoc.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "no family call overnoc.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": true,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "call",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "patient expressed aprehension about oxygen status and post of expectation d/t? knowledge deficit--&gt;need frequent teaching and explanation.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "before",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'increased', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquid', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'sufficient', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['gave morphine ivp x1 at hs for incs pain w effect.', 'tolerate cl liquid without difficulty swallowing.', 'patient diuresis sufficient amt from tid lasix.', 'no family call overnoc.', 'no family call overnoc.', 'patient expressed aprehension about oxygen status and post of expectation d/t? knowledge deficit--&gt;need frequent teaching and explanation.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'night', 'night', 'Unknown'], 'negation': [False, False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-05 04:41:00 and 2186-03-05 05:04:00):\n           neuro: patient a+o x3. conversing appropriate. mae x4 to command q equal l/r strength. no deficit.\n\ncv: sr -st. hr 90s-100s w quadgeminal polymorphic pvc\'s. checked lytes r/s normal. gave total lopressor 5mg ivp at start of shift per dr [**first name (stitle) **] and again in am-&gt;hr improves marginally dropped to 3 beats. no further pvc\'s seen in am. bp maintain 110s-120s/50s w nitro drops. unable to check epicardial wires threshold d/t tachycardic. peripheral edemadous, palpable pulses, skin w/d.\n\nresp: ls diminish throughout more bibasilar and lul&gt;rul. crackles bs in both lower bases. poor oxygenation--&gt;sat is marginal 89-90% on 6lnc. patient denies sob/dysnea. rr mid 20s. breathing even, cough congested. aggressive cpt/dbc/is reinforced use ^750ml w no immediate improve sat, expectorate sm. amt thick sputum. add f.t .50. gas on 6lnc/.50 ft consistent metabolic alkalosis w pao2 77-&gt;up ft .70. but patient non-compliance all noc w oxygen therapy-&gt;refuse fc d/t c\'o cool air. switch to simple face mask at 8lnc w sat maintain 94-95% -.but again patient tolerated short period and asked rn to remove d/t c/o "hot". switched back to nc/ft therapy for now w sat &gt;92-94%. ct drg mod amt w after change position 50-70cc serosang, no leak/crepitus.status update to dr. [**first name (stitle) **].\n\ngi: abd soft/distent. +bs. tolerate cl liquid without difficulty swallowing. refused ranitidine w expression fear of "hallucination and ms change. explain to patient med dose/s/e/importances-&gt;but patient still refused -&gt;notify team in am.\nendo: wean insulin drops off. start on riss. restart home oral [**doctor last name 69**]?\ngu: patient diuresis sufficient amt from tid lasix.\nwound chest and lt leg wound cdi. both groin wound minimumly ecchymotic but soft and non-tender\n\npain: gave morphine ivp x1 at hs for incs pain w effect. no family call overnoc. explain to patient about status and poc-&gt;patient expressed aprehension about oxygen status and post of expectation d/t? knowledge deficit--&gt;need frequent teaching and explanation.\n\na: poor oxygen saturation w tachycardic/htn.\np: monitor rhymth. need by mouth lopressor start today?-&gt;wean off nitro. aggresive pulm toilet--&gt;monitor oxy sat status. need ^diet intake..^acitivity. need switch to new gi antacid med? restart home oral [**doctor last name 69**]?\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 26.010474971029907}</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>['no family call overnoc.']</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Sleep', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'increased', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquid', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'sufficient', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>['gave morphine ivp x1 at hs for incs pain w effect.', 'tolerate cl liquid without difficulty swallowing.', 'patient diuresis sufficient amt from tid lasix.', 'no family call overnoc.', 'no family call overnoc.', 'patient expressed aprehension about oxygen status and post of expectation d/t? knowledge deficit--&gt;need frequent teaching and explanation.']</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>['e1=Pain|1:gave morphine ivp x1 at hs for incs pain w effect.', 'e2=Eating|1:tolerate cl liquid without difficulty swallowing.', 'e3=Excretion|1:patient diuresis sufficient amt from tid lasix.', 'e4=Sleep|1:no family call overnoc.', 'e5=Family|1:no family call overnoc.', 'e6=Pain|1:patient expressed aprehension about oxygen status and post of expectation d/t? knowledge deficit--&gt;need frequent teaching and explanation.']</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -3696,52 +4096,62 @@
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-14 05:14:00'), Timestamp('2167-05-14 05:35:00'))</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{'text': "ccu nsg progress note.\n60 year old male received from cardiac cath lad status post intervention.\n\ncardiac cath=signif 3vd-prox lad, prox &amp; mid lcx, &amp; prox rca. cath c/b bradycardia &amp; hypotension when viewing rca-rxed w atropine, dopa, temp pacer, &amp; iabp--svt-rxed w adenosine &amp; lopressor--&amp; elevated wedge (25)-rxed w lasix. ptca/stent x1 to prox lad. csurg consulted- re: cabg-refused @ present time. readmitted to ccu.\n\no:neuro=alert/awake/oriented. groggy-received versed &amp; fent in cath lab. @ x's talking to self &amp; when awoken unsure initially where he's @.\n  pulm=received on nrb-chged to 5l nc w sats upper 90's. breath sounds=clear. wo co sob/dyspnea-tolerates lying flat wo difficulty.\n  cv=pf. hemody stable. arrived on dopa @ 10mcg/kg/min-rapidly weaned &amp; dced. ci off dopa-1.8. dobutamine started @ 0100-2mcg/kg/min-- increased to 4mcg/kg/min by 0200 &amp; ci @ 0230-2.55. heparin started @ 0100-500u/hr increased @ 0400 to 600u/hr for ptt-46. remains st w rare to occasional pvc's (some couplets &amp; short 3-4 beat runs-self limiting). #'s pads 14-17. unable to wedge. cvp 13-18. co/ci 3.6/1.8- 5.1/2.55. svr 1600-1224. iabp maps 80-90 on 1:1 w gd systolic &amp; diastolic unloading. temp pacer cked-settings--vvi, rate 80, ma 10, &amp; threshold ma 5-senses &amp; paces appropriately. ck's #1-1502/161, #2 2637/374, &amp; #3 pending. pulses dp-2+ &amp; patient-dopplerable. feet cool &amp; pale. bilateral leg immobilizers.\n  access=periferals x2. rfem-iabp &amp; temp pacer introducer. lfem- aline &amp; paline introducer. fem sites c&amp;d.\n  gi=ice chips @ present.\n  renal=foley. approx 500ml neg @ 2300 &amp; 500ml pos @ 0500. bun/creat- 22/1.3.\n  id=afebrile.\n  labs=am sent.\n\na:improved ci w addition of dobutamine. ck's still rising.\n\np:continue present management. ?further diuresis. ?attempt to wean iabp. ck am labs-rx accordingly. support as indicated.\n", 'event': ['Eating', 'Excretion', 'Pain', 'Sleep', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "gi=ice chips @ present.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "ice chips"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "renal=foley. approx 500ml neg @ 2300 &amp; 500ml pos @ 0500.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "2x"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Eating': {'Eating': {'food': 'ice chips'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '2x'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['gi=ice chips @ present.', 'renal=foley. approx 500ml neg @ 2300 &amp; 500ml pos @ 0500.', '', '', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-14 05:14:00 and 2167-05-14 05:35:00):\n           ccu nsg progress note.\n60 year old male received from cardiac cath lad status post intervention.\n\ncardiac cath=signif 3vd-prox lad, prox &amp; mid lcx, &amp; prox rca. cath c/b bradycardia &amp; hypotension when viewing rca-rxed w atropine, dopa, temp pacer, &amp; iabp--svt-rxed w adenosine &amp; lopressor--&amp; elevated wedge (25)-rxed w lasix. ptca/stent x1 to prox lad. csurg consulted- re: cabg-refused @ present time. readmitted to ccu.\n\no:neuro=alert/awake/oriented. groggy-received versed &amp; fent in cath lab. @ x\'s talking to self &amp; when awoken unsure initially where he\'s @.\n  pulm=received on nrb-chged to 5l nc w sats upper 90\'s. breath sounds=clear. wo co sob/dyspnea-tolerates lying flat wo difficulty.\n  cv=pf. hemody stable. arrived on dopa @ 10mcg/kg/min-rapidly weaned &amp; dced. ci off dopa-1.8. dobutamine started @ 0100-2mcg/kg/min-- increased to 4mcg/kg/min by 0200 &amp; ci @ 0230-2.55. heparin started @ 0100-500u/hr increased @ 0400 to 600u/hr for ptt-46. remains st w rare to occasional pvc\'s (some couplets &amp; short 3-4 beat runs-self limiting). #\'s pads 14-17. unable to wedge. cvp 13-18. co/ci 3.6/1.8- 5.1/2.55. svr 1600-1224. iabp maps 80-90 on 1:1 w gd systolic &amp; diastolic unloading. temp pacer cked-settings--vvi, rate 80, ma 10, &amp; threshold ma 5-senses &amp; paces appropriately. ck\'s #1-1502/161, #2 2637/374, &amp; #3 pending. pulses dp-2+ &amp; patient-dopplerable. feet cool &amp; pale. bilateral leg immobilizers.\n  access=periferals x2. rfem-iabp &amp; temp pacer introducer. lfem- aline &amp; paline introducer. fem sites c&amp;d.\n  gi=ice chips @ present.\n  renal=foley. approx 500ml neg @ 2300 &amp; 500ml pos @ 0500. bun/creat- 22/1.3.\n  id=afebrile.\n  labs=am sent.\n\na:improved ci w addition of dobutamine. ck\'s still rising.\n\np:continue present management. ?further diuresis. ?attempt to wean iabp. ck am labs-rx accordingly. support as indicated.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.3898170881439}</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>['Eating', 'Excretion', 'Pain', 'Sleep', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'ice chips'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '2x'}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>['gi=ice chips @ present.', 'renal=foley. approx 500ml neg @ 2300 &amp; 500ml pos @ 0500.', '', '', '', '']</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>['e1=Eating|1:gi=ice chips @ present.', 'e2=Excretion|1:renal=foley. approx 500ml neg @ 2300 &amp; 500ml pos @ 0500.', 'e3=Pain|1:', 'e4=Sleep|1:', 'e5=Family|1:', 'e6=Unknown|1:']</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -3776,52 +4186,62 @@
       <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-14 13:59:00'), Timestamp('2167-05-14 14:11:00'))</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'text': "ccu progress note 7a-11p\nevent: cath lab @ 1130am - transferred to cath lab for rca intervention.\n\nneuro: alert + oriented x 3, pleasant + cooperative. patient very anxious about going to cath lab again this morning. fellow talked to patient in cath lab re: procedure.\n\nid: tmax 99.8. to con't to monitor. patient flushed and feeling warm. no abx.\n\ncardiac: st 100s-110s occ pvc. maps 70-80s. pad 13 cvp 13-15. hct at 11am- 29(31 @ 530am). cks elevated 1500/2637/3506/3627@11am. inr 2.3. ptt therapeutic - heparin @ 600u/hr. dobutamine @ 4mcg/k/min. iabp @ 1:1 this morning. trial of 1:2 for 30min but patient became tachy to 120s - numbers drawn then switched back to 1:1 (co 6.5 ci 3.25 svr 862). unable to wedge pa line overnite - ho aware. pacer wire intact, attached. 2+dp on r, all other pulses dopplerable. k + mg repleated this morning. d5.45ns@125cc/hr.\n\nlines/access: r fem iabp, r fem pacerintroducer, l fem aline, l fem pa line. 2 pivs. all sites intact, no ecchymosis or hematomas noted.\n\nresp: ls clear, dim. o2 4l n/c with sats &gt;96%. no sob.\n\ngi/gu: foley patent, good u/o &gt;100cc/hr. bun?cr 22/1.2 @ 11am (23/1.3 @ 5am). abd soft. +bs. took sips with meds. remained npo. no bm.\n\n\nplan: sent to cath lab at 1130am for lad intervention. plan for patient to arrive back to ccu post cath intervention.\n\n\n", 'event': ['Pain', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient very anxious about going to cath lab again this morning.",\n            "actor": "patient",\n            "object": "cath lab procedure",\n            "negation": false,\n            "time": "morning",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "anxious"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "took sips with meds.",\n            "actor": "patient",\n            "object": "meds",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "meds",\n                    "amount": "sips"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "foley patent, good u/o &gt;100cc/hr.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "&gt;100cc/hr"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'anxious'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'sips'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '&gt;100cc/hr'}}}, {'Sleep': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['patient very anxious about going to cath lab again this morning.', 'took sips with meds.', 'foley patent, good u/o &gt;100cc/hr.', ''], 'event_time': ['morning', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-14 13:59:00 and 2167-05-14 14:11:00):\n           ccu progress note 7a-11p\nevent: cath lab @ 1130am - transferred to cath lab for rca intervention.\n\nneuro: alert + oriented x 3, pleasant + cooperative. patient very anxious about going to cath lab again this morning. fellow talked to patient in cath lab re: procedure.\n\nid: tmax 99.8. to con\'t to monitor. patient flushed and feeling warm. no abx.\n\ncardiac: st 100s-110s occ pvc. maps 70-80s. pad 13 cvp 13-15. hct at 11am- 29(31 @ 530am). cks elevated 1500/2637/3506/3627@11am. inr 2.3. ptt therapeutic - heparin @ 600u/hr. dobutamine @ 4mcg/k/min. iabp @ 1:1 this morning. trial of 1:2 for 30min but patient became tachy to 120s - numbers drawn then switched back to 1:1 (co 6.5 ci 3.25 svr 862). unable to wedge pa line overnite - ho aware. pacer wire intact, attached. 2+dp on r, all other pulses dopplerable. k + mg repleated this morning. d5.45ns@125cc/hr.\n\nlines/access: r fem iabp, r fem pacerintroducer, l fem aline, l fem pa line. 2 pivs. all sites intact, no ecchymosis or hematomas noted.\n\nresp: ls clear, dim. o2 4l n/c with sats &gt;96%. no sob.\n\ngi/gu: foley patent, good u/o &gt;100cc/hr. bun?cr 22/1.2 @ 11am (23/1.3 @ 5am). abd soft. +bs. took sips with meds. remained npo. no bm.\n\n\nplan: sent to cath lab at 1130am for lad intervention. plan for patient to arrive back to ccu post cath intervention.\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 14.628384862095118}</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>[{'Sleep': {}}]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'anxious'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'sips'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '&gt;100cc/hr'}}}, {'Sleep': {}}]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>['patient very anxious about going to cath lab again this morning.', 'took sips with meds.', 'foley patent, good u/o &gt;100cc/hr.', '']</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient very anxious about going to cath lab again this morning.', 'e2=Eating|1:took sips with meds.', 'e3=Excretion|1:foley patent, good u/o &gt;100cc/hr.', 'e4=Sleep|1:']</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -3850,52 +4270,62 @@
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-14 18:12:00'), Timestamp('2167-05-14 18:21:00'))</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{'text': "ccu progress note 3p-7p\nsettled post cath. vss. st 106-110s. repleated with 40meq kcl ivpb (k 3.5). remains on iabp 1:1. pad 24-26. maps 80-90s. dobutamine decreased to 2mcg/k/min per house staff (d/t tachy 108-110s) co 5.0 ci 2.5 svr 1088. heparin restarted at 3pm - recheck ptt at 9pm. 1u prbcs hung at 6pm  for hct 28 - recheck hct post transfusion. ivf d5.45ns @ 75cc/hr post cath fluids stopped for transfusion. lasix ordered p/ transfusion also. tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion. temp pacer wires attached to pacer - pacer sensing - no brady. dopplerable pulses.\n\nplan: check ptt @ 9pm, check post hct, hs check bun/cr, k + mg + ck -con't to cycle cks til they start to decrease. restart ivf post transfusion. give lasix post transfusion.\n", 'event': ['Unknown', 'Excretion', 'Eating', 'Pain', 'Excretion', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "settled post cath.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "lasix ordered p/ transfusion",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "tylenol + benedryl"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "100"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "ivf d5.45ns @ 75cc/hr post cath fluids stopped for transfusion.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "1u prbcs hung at 6pm for hct 28 - recheck hct post transfusion.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "6pm",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "prbcs"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Eating': {'Eating': {'food': 'tylenol + benedryl'}}}, {'Pain': {'Pain': {'severity': '100'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Eating': {'Eating': {'food': 'prbcs'}}}, {'Sleep': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['settled post cath.', 'lasix ordered p/ transfusion', 'tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.', 'tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.', 'ivf d5.45ns @ 75cc/hr post cath fluids stopped for transfusion.', '1u prbcs hung at 6pm for hct 28 - recheck hct post transfusion.', ''], 'event_time': ['Unknown', 'Unknown', 'afternoon', 'afternoon', 'Unknown', '6pm', 'Unknown'], 'negation': [False, False, False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-14 18:12:00 and 2167-05-14 18:21:00):\n           ccu progress note 3p-7p\nsettled post cath. vss. st 106-110s. repleated with 40meq kcl ivpb (k 3.5). remains on iabp 1:1. pad 24-26. maps 80-90s. dobutamine decreased to 2mcg/k/min per house staff (d/t tachy 108-110s) co 5.0 ci 2.5 svr 1088. heparin restarted at 3pm - recheck ptt at 9pm. 1u prbcs hung at 6pm  for hct 28 - recheck hct post transfusion. ivf d5.45ns @ 75cc/hr post cath fluids stopped for transfusion. lasix ordered p/ transfusion also. tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion. temp pacer wires attached to pacer - pacer sensing - no brady. dopplerable pulses.\n\nplan: check ptt @ 9pm, check post hct, hs check bun/cr, k + mg + ck -con\'t to cycle cks til they start to decrease. restart ivf post transfusion. give lasix post transfusion.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 27.4572608419694}</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>[{'Sleep': {}}]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>['Unknown', 'Excretion', 'Eating', 'Pain', 'Excretion', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Eating': {'Eating': {'food': 'tylenol + benedryl'}}}, {'Pain': {'Pain': {'severity': '100'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Eating': {'Eating': {'food': 'prbcs'}}}, {'Sleep': {}}]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>['settled post cath.', 'lasix ordered p/ transfusion', 'tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.', 'tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.', 'ivf d5.45ns @ 75cc/hr post cath fluids stopped for transfusion.', '1u prbcs hung at 6pm for hct 28 - recheck hct post transfusion.', '']</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:settled post cath.', 'e2=Excretion|1:lasix ordered p/ transfusion', 'e3=Eating|1:tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.', 'e4=Pain|1:tmax this afternoon 100 by mouth - pre medicated with tylenol + benedryl pre transfusion.', 'e5=Excretion|1:ivf d5.45ns @ 75cc/hr post cath fluids stopped for transfusion.', 'e6=Eating|0:1u prbcs hung at 6pm for hct 28 - recheck hct post transfusion.', 'e7=Sleep|1:']</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -3935,52 +4365,62 @@
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-16 05:47:00'), Timestamp('2167-05-16 06:20:00'))</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{'text': "ccu nursing progress note 7p-7a:\n\nam labs pending.\n\nneuro: patient initially sedated with propofol drops but due to marginal bp, anxiety and resp status patient changed to fentanyl 25mcg and versed 1mg.  patient lightly sedated.  opening eyes to name, following commands and nodding appropriately.  moving all extremities.  patient intermittently anxious pulling on wrist restriants, kicking legs and biting on ett.  patient responds to verbal calming efforts.  denies pain.  resting intermittently.\n\ncv: st hr 98-110. during the evening patient's hr 120-140's and bp 140-160's while awake.  currently bp 90-110/59-73.  conts on dobutamine 3mcg/kg/min.  await inr result, ? restarting heparin drops.   ck's are trending down 1095, peak ck 3627.  hct 27.9 1u prbc's infusing at this time.  please check post transfusion hct.\n\npm k+4.2.  l and r groin with small ecchymotic area, tranparent dsg in place.  dopperable pulses.  no signs of bleeding noted.  rec'd captopril 6.25mg a/o.\n\npulm: mechanically ventilated on imv last evening as patient awoke rr 40's sats 88-90% patient bagged, sxn'd and changeed to ac. weaned to ps 20 tv 480 5 peep 40% this am.  rr 28 sats 98%.  abg 7.46/38/96/2/28.  ls coarse throughout.  sxn'd q 2-3 hr for thick blood tinged sputum in moderate amts.  moderate amts of oral secretions.  plan to continue weaning patient this am following diuresis.  await am cxr.\n\ngi: abd softly distended with +bs and +flatus.  npo.  ogt in place for meds, clear aspirate.  no stool since admission.  ?starting bowel regimen today.\n\ngu: foley cath draining cyu in response to lasix 20mg and 80mg this shift.  -962 los. -573 since mn.\n\nid: spiked to 102.4 orally.  patient pan cultured.  rec'd tylenol q4hr. no abx ordered at this time.\n\nskin: intact.\n\nlines: 4 piv and l radial a-line.  team may place central access today.\n\nsocial:  [**name (ni) 29**] sisters visiting last evening.\n\na/p: hemodynamically stable on dobutamine 3mcg.  ck's cont to trend down.  pulm status tolerating vent wean but patient becoming very anxious.\nnpo.  +diuresis with lasix.  follow temp curve.  obtain post transfusion hct.\n", 'event': ['Pain', 'Sleep', 'Family', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "labs pending",\n            "attribute_value": "am labs"\n        },\n        {\n            "attribute_name": "sedation medication",\n            "attribute_value": "propofol drops, fentanyl 25mcg and versed 1mg"\n        },\n        {\n            "attribute_name": "vital signs",\n            "attribute_value": "hr 98-110, bp 140-160\'s, rr 40\'s sats 88-90%"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "denies pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "resting intermittently",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "intermittent",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "light",\n                    "duration": "intermittent"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "[**name (ni) 29**] sisters visiting last evening",\n            "actor": "sisters",\n            "object": "patient",\n            "negation": false,\n            "time": "last evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "sister"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "foley cath draining cyu in response to lasix 20mg and 80mg this shift",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "this shift",\n            "caused_by": "lasix administration",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "cyu"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "npo",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "none",\n                    "amount": "none",\n                    "method": "npo"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'light', 'duration': 'intermittent'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sister'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'cyu'}}}, {'Eating': {'Eating': {'food': 'none', 'amount': 'none', 'method': 'npo'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['denies pain', 'resting intermittently', '[**name (ni) 29**] sisters visiting last evening', 'foley cath draining cyu in response to lasix 20mg and 80mg this shift', 'npo'], 'event_time': ['Unknown', 'intermittent', 'last evening', 'this shift', 'Unknown'], 'negation': [True, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'lasix administration', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-16 05:47:00 and 2167-05-16 06:20:00):\n           ccu nursing progress note 7p-7a:\n\nam labs pending.\n\nneuro: patient initially sedated with propofol drops but due to marginal bp, anxiety and resp status patient changed to fentanyl 25mcg and versed 1mg.  patient lightly sedated.  opening eyes to name, following commands and nodding appropriately.  moving all extremities.  patient intermittently anxious pulling on wrist restriants, kicking legs and biting on ett.  patient responds to verbal calming efforts.  denies pain.  resting intermittently.\n\ncv: st hr 98-110. during the evening patient\'s hr 120-140\'s and bp 140-160\'s while awake.  currently bp 90-110/59-73.  conts on dobutamine 3mcg/kg/min.  await inr result, ? restarting heparin drops.   ck\'s are trending down 1095, peak ck 3627.  hct 27.9 1u prbc\'s infusing at this time.  please check post transfusion hct.\n\npm k+4.2.  l and r groin with small ecchymotic area, tranparent dsg in place.  dopperable pulses.  no signs of bleeding noted.  rec\'d captopril 6.25mg a/o.\n\npulm: mechanically ventilated on imv last evening as patient awoke rr 40\'s sats 88-90% patient bagged, sxn\'d and changeed to ac. weaned to ps 20 tv 480 5 peep 40% this am.  rr 28 sats 98%.  abg 7.46/38/96/2/28.  ls coarse throughout.  sxn\'d q 2-3 hr for thick blood tinged sputum in moderate amts.  moderate amts of oral secretions.  plan to continue weaning patient this am following diuresis.  await am cxr.\n\ngi: abd softly distended with +bs and +flatus.  npo.  ogt in place for meds, clear aspirate.  no stool since admission.  ?starting bowel regimen today.\n\ngu: foley cath draining cyu in response to lasix 20mg and 80mg this shift.  -962 los. -573 since mn.\n\nid: spiked to 102.4 orally.  patient pan cultured.  rec\'d tylenol q4hr. no abx ordered at this time.\n\nskin: intact.\n\nlines: 4 piv and l radial a-line.  team may place central access today.\n\nsocial:  [**name (ni) 29**] sisters visiting last evening.\n\na/p: hemodynamically stable on dobutamine 3mcg.  ck\'s cont to trend down.  pulm status tolerating vent wean but patient becoming very anxious.\nnpo.  +diuresis with lasix.  follow temp curve.  obtain post transfusion hct.\n\n        ', 'case_attributes': [[{'attribute_name': 'labs pending', 'attribute_value': 'am labs'}, {'attribute_name': 'sedation medication', 'attribute_value': 'propofol drops, fentanyl 25mcg and versed 1mg'}, {'attribute_name': 'vital signs', 'attribute_value': "hr 98-110, bp 140-160's, rr 40's sats 88-90%"}]], 'actor': ['patient', 'patient', 'sisters', 'patient', 'patient'], 'event_detection_time': 22.774569052038714}</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['resting intermittently']</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'light', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Family', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'light', 'duration': 'intermittent'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sister'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'cyu'}}}, {'Eating': {'Eating': {'food': 'none', 'amount': 'none', 'method': 'npo'}}}]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>['denies pain', 'resting intermittently', '[**name (ni) 29**] sisters visiting last evening', 'foley cath draining cyu in response to lasix 20mg and 80mg this shift', 'npo']</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>['e1=Pain|1:denies pain', 'e2=Sleep|1:resting intermittently', 'e3=Family|1:[**name (ni) 29**] sisters visiting last evening', 'e4=Excretion|1:foley cath draining cyu in response to lasix 20mg and 80mg this shift', 'e5=Eating|1:npo']</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4016,52 +4456,62 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-17 18:05:00'), Timestamp('2167-05-17 18:22:00'))</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn 7a-7p\ncv: hr 110-96 st/sr cont to have occ/freq pvc's. k+ 3.9, given 20meq kcl by mouth. started on by mouth aldactone 25mg, coreg, captoril remains at 12.5. given 80mg iv lasix and to start 40mg by mouth lasix [**hospital1 **] this eve(given at 1800. is neg 660cc for day today, 3l neg yesterday. has not had cp. hep at 1100u/hr, ptt 51.1. cont on iv ntg at low dose.\n\nresp; rr 24-30, less labored today, but cont using abd muscles. sats 97% on 4l. crackles [**1-22**] bilaterally this am. productiove cough, pale tan sputum, spec sent today. robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day. oob to chair, pivoted with 2 assist, did well, surprised at how weak he felt. up to commode x2.\n\nneuro: a&amp;ox3, cooperative, anxiety not an issue.\n\nid: afebrile, sputum and urine cult neg from yesterday, wbc wnl. sputum resent today with persistant cough.\n\ngi: passing lig brown stoolx2, ob(-). began eating low na, low fat diet today, appetite fair.\n\ngu: bun/cr 33/1.3, cont to respond well to lasix.\n\nheme: hct stable at 32.7, groin sites good.\n\nsoc: siblings in to visit.\n\na/p: resp status improving today with further diuresis. will cont iv ntg until reach euvolemia reached. cont to follow fluid balance closely. watch renal function. cont to encourage to clear secretions.\n", 'event': ['Excretion', 'Eating', 'Family', 'Sleep', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "passing lig brown stoolx2, ob(-)",\n      "actor": "patient",\n      "object": "stool",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "2x",\n          "quality": "lig brown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "began eating low na, low fat diet today, appetite fair",\n      "actor": "patient",\n      "object": "diet",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "low na, low fat diet",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "siblings in to visit",\n      "actor": "patient",\n      "object": "siblings",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "siblings"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "robitussin with codiene ordered for hs, to aide sleep",\n      "actor": "patient",\n      "object": "sleep",\n      "negation": false,\n      "time": "hs (night)",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "pain",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'lig brown'}}}, {'Eating': {'Eating': {'food': 'low na, low fat diet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'siblings'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['passing lig brown stoolx2, ob(-)', 'began eating low na, low fat diet today, appetite fair', 'siblings in to visit', 'robitussin with codiene ordered for hs, to aide sleep', 'None'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'hs (night)', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-17 18:05:00 and 2167-05-17 18:22:00):\n           ccu npn 7a-7p\ncv: hr 110-96 st/sr cont to have occ/freq pvc\'s. k+ 3.9, given 20meq kcl by mouth. started on by mouth aldactone 25mg, coreg, captoril remains at 12.5. given 80mg iv lasix and to start 40mg by mouth lasix [**hospital1 **] this eve(given at 1800. is neg 660cc for day today, 3l neg yesterday. has not had cp. hep at 1100u/hr, ptt 51.1. cont on iv ntg at low dose.\n\nresp; rr 24-30, less labored today, but cont using abd muscles. sats 97% on 4l. crackles [**1-22**] bilaterally this am. productiove cough, pale tan sputum, spec sent today. robitussin with codiene ordered for hs, to aide sleep, otherwise they prefer he clear secretions during day. oob to chair, pivoted with 2 assist, did well, surprised at how weak he felt. up to commode x2.\n\nneuro: a&amp;ox3, cooperative, anxiety not an issue.\n\nid: afebrile, sputum and urine cult neg from yesterday, wbc wnl. sputum resent today with persistant cough.\n\ngi: passing lig brown stoolx2, ob(-). began eating low na, low fat diet today, appetite fair.\n\ngu: bun/cr 33/1.3, cont to respond well to lasix.\n\nheme: hct stable at 32.7, groin sites good.\n\nsoc: siblings in to visit.\n\na/p: resp status improving today with further diuresis. will cont iv ntg until reach euvolemia reached. cont to follow fluid balance closely. watch renal function. cont to encourage to clear secretions.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.361729759024456}</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>['robitussin with codiene ordered for hs, to aide sleep']</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Family', 'Sleep', 'Pain']</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'lig brown'}}}, {'Eating': {'Eating': {'food': 'low na, low fat diet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'siblings'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>['passing lig brown stoolx2, ob(-)', 'began eating low na, low fat diet today, appetite fair', 'siblings in to visit', 'robitussin with codiene ordered for hs, to aide sleep', 'None']</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:passing lig brown stoolx2, ob(-)', 'e2=Eating|1:began eating low na, low fat diet today, appetite fair', 'e3=Family|1:siblings in to visit', 'e4=Sleep|1:robitussin with codiene ordered for hs, to aide sleep', 'e5=Pain|0:None']</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4089,52 +4539,62 @@
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-19 06:23:00'), Timestamp('2167-05-19 06:25:00'))</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'text': "addendum to nursing progress note:\n\nam ptt 89.7 hep drops ordered changed to ss, currently at 1150u/hr (decreased from 1300u/hr).  check ptt at 12:30pm.  am k+ 3.6 to be repleted with a total of 60meq kcl by mouth.  patient rec'd 30meq kcl at 6am, please administer addition 30meq kcl with breakfast to minimize gi upset.  cont per plan.\n", 'event': ['Eating', 'Excretion', 'Pain', 'Family', 'Sleep', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "administer addition 30meq kcl with breakfast to minimize gi upset",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "breakfast",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "Unknown",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "patient rec\'d 30meq kcl at 6am",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "6am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "kcl",\n                    "amount": "30meq",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'breakfast', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'kcl', 'amount': '30meq', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}]], 'text_quotes': ['administer addition 30meq kcl with breakfast to minimize gi upset', '', '', '', '', "patient rec'd 30meq kcl at 6am"], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', '6am'], 'negation': [False, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-19 06:23:00 and 2167-05-19 06:25:00):\n           addendum to nursing progress note:\n\nam ptt 89.7 hep drops ordered changed to ss, currently at 1150u/hr (decreased from 1300u/hr).  check ptt at 12:30pm.  am k+ 3.6 to be repleted with a total of 60meq kcl by mouth.  patient rec\'d 30meq kcl at 6am, please administer addition 30meq kcl with breakfast to minimize gi upset.  cont per plan.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.378089282894507}</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>['Eating', 'Excretion', 'Pain', 'Family', 'Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'breakfast', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'Unknown', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'kcl', 'amount': '30meq', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>['administer addition 30meq kcl with breakfast to minimize gi upset', '', '', '', '', "patient rec'd 30meq kcl at 6am"]</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>['e1=Eating|1:administer addition 30meq kcl with breakfast to minimize gi upset', 'e2=Excretion|1:', 'e3=Pain|1:', 'e4=Family|1:', 'e5=Sleep|1:', "e6=Eating|1:patient rec'd 30meq kcl at 6am"]</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4172,52 +4632,62 @@
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-20 14:27:00'), Timestamp('2167-05-20 14:43:00'))</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{'text': 'npn0700-1500;\ns\' i am very tired when will my room be available.?"\no neuro;aaox3 mae to command, oob to chair x2 very tired denies sob /cp. very pleasant and cooperative gentleman.\n\nresp; sats on ra 94-96%rr 24-30  lung sounds with rhoncii and crackles at bases (improved from yesterday) to xray for pa /lat at 1300 to r/o effusion on rt\n.\ncvs; see carevue for details nsr 85-100 with exertion, bp 95-128 captopril increased to 37.5 by mouth. at 1400.remains on natrecor.\n\ngu; u/o mod response to lasix frequent ectopy while in xray k pending\n\ngi; belly soft min liquid stool. takes fluid well poor appetite.\n\nheme; heparin to 1000u/hr per protocol ptt pending.\n\nskin in good condition. cath sites soft and intact.\n\nfamily into visit and updated with present plan of care. asking appropriate questsions.\n\nplan transfer to floor\n\n\n\n', 'event': ['Sleep', 'Excretion', 'Eating', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "very tired",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "u/o mod response to lasix frequent ectopy while in xray k pending",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "frequent"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "takes fluid well poor appetite",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "fluid",\n                    "amount": "well"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "family into visit and updated with present plan of care. asking appropriate questsions.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "denies sob /cp",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'frequent'}}}, {'Eating': {'Eating': {'food': 'fluid', 'amount': 'well'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['very tired', 'u/o mod response to lasix frequent ectopy while in xray k pending', 'takes fluid well poor appetite', 'family into visit and updated with present plan of care. asking appropriate questsions.', 'denies sob /cp'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-20 14:27:00 and 2167-05-20 14:43:00):\n           npn0700-1500;\ns\' i am very tired when will my room be available.?"\no neuro;aaox3 mae to command, oob to chair x2 very tired denies sob /cp. very pleasant and cooperative gentleman.\n\nresp; sats on ra 94-96%rr 24-30  lung sounds with rhoncii and crackles at bases (improved from yesterday) to xray for pa /lat at 1300 to r/o effusion on rt\n.\ncvs; see carevue for details nsr 85-100 with exertion, bp 95-128 captopril increased to 37.5 by mouth. at 1400.remains on natrecor.\n\ngu; u/o mod response to lasix frequent ectopy while in xray k pending\n\ngi; belly soft min liquid stool. takes fluid well poor appetite.\n\nheme; heparin to 1000u/hr per protocol ptt pending.\n\nskin in good condition. cath sites soft and intact.\n\nfamily into visit and updated with present plan of care. asking appropriate questsions.\n\nplan transfer to floor\n\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 18.48215012298897}</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>['very tired']</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'frequent'}}}, {'Eating': {'Eating': {'food': 'fluid', 'amount': 'well'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>['very tired', 'u/o mod response to lasix frequent ectopy while in xray k pending', 'takes fluid well poor appetite', 'family into visit and updated with present plan of care. asking appropriate questsions.', 'denies sob /cp']</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:very tired', 'e2=Excretion|1:u/o mod response to lasix frequent ectopy while in xray k pending', 'e3=Eating|1:takes fluid well poor appetite', 'e4=Family|1:family into visit and updated with present plan of care. asking appropriate questsions.', 'e5=Pain|1:denies sob /cp']</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4249,52 +4719,62 @@
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-20 21:30:00'), Timestamp('2167-05-20 21:41:00'))</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{'text': "ccu npn [**3-31**]\ncv: patient only complaint is of feeling fatigued. hr 90's nsr, occ pvc, k+ 3.9, bp 98-128/70, on current meds. dropped bp after 2pm captopril dose to 80/. giving aldactone and coreg at 2200 and will assess bp to determine dose of captopril. cont on hep drops, decreased to 650u/hr after ptt of 139.9, recheck ptt at 2200. natrecor at .01, cont on lasix 80mg [**hospital1 **], neg 1500cc for the day. cont with crackles at r base.\n\nresp: sating 96% on ra, much less dyspneic than when i last saw him on the we. cont with cough, less freq episodes. oob to chair and amb in [**doctor last name **], tol well.\n\nneuro: cont to have some anxiety, started on clonopin .5mg tid, has received 1 dose so far. patient initially reluctant to take it, fearing dependence, but willing to try it for a few days.\n\nsoc: sisters went back home, brother will still be here until patient discharged then sister from [**name (ni) **] will return to help him at home.\n\ndispo: called out to floor, awaiting privite room d/t latex allergy.\n", 'event': ['Pain', 'Excretion', 'Sleep', 'Family', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient only complaint is of feeling fatigued",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "fatigued",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "neg 1500cc for the day",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "1500cc",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "sisters went back home, brother will still be here until patient discharged then sister from [**name (ni) **] will return to help him at home",\n      "actor": "patient\'s family members",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "sisters and brother"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "cont to have some anxiety, started on clonopin .5mg tid, has received 1 dose so far",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "some anxiety",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "unknown",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'fatigued', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1500cc', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sisters and brother'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'some anxiety', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['patient only complaint is of feeling fatigued', 'neg 1500cc for the day', 'None', 'sisters went back home, brother will still be here until patient discharged then sister from [**name (ni) **] will return to help him at home', 'None', 'cont to have some anxiety, started on clonopin .5mg tid, has received 1 dose so far'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-20 21:30:00 and 2167-05-20 21:41:00):\n           ccu npn [**3-31**]\ncv: patient only complaint is of feeling fatigued. hr 90\'s nsr, occ pvc, k+ 3.9, bp 98-128/70, on current meds. dropped bp after 2pm captopril dose to 80/. giving aldactone and coreg at 2200 and will assess bp to determine dose of captopril. cont on hep drops, decreased to 650u/hr after ptt of 139.9, recheck ptt at 2200. natrecor at .01, cont on lasix 80mg [**hospital1 **], neg 1500cc for the day. cont with crackles at r base.\n\nresp: sating 96% on ra, much less dyspneic than when i last saw him on the we. cont with cough, less freq episodes. oob to chair and amb in [**doctor last name **], tol well.\n\nneuro: cont to have some anxiety, started on clonopin .5mg tid, has received 1 dose so far. patient initially reluctant to take it, fearing dependence, but willing to try it for a few days.\n\nsoc: sisters went back home, brother will still be here until patient discharged then sister from [**name (ni) **] will return to help him at home.\n\ndispo: called out to floor, awaiting privite room d/t latex allergy.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', "patient's family members", 'patient', 'patient'], 'event_detection_time': 26.208998230053112}</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Sleep', 'Family', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'fatigued', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1500cc', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'sisters and brother'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'some anxiety', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>['patient only complaint is of feeling fatigued', 'neg 1500cc for the day', 'None', 'sisters went back home, brother will still be here until patient discharged then sister from [**name (ni) **] will return to help him at home', 'None', 'cont to have some anxiety, started on clonopin .5mg tid, has received 1 dose so far']</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient only complaint is of feeling fatigued', 'e2=Excretion|1:neg 1500cc for the day', 'e3=Sleep|0:None', 'e4=Family|1:sisters went back home, brother will still be here until patient discharged then sister from [**name (ni) **] will return to help him at home', 'e5=Eating|0:None', 'e6=Pain|1:cont to have some anxiety, started on clonopin .5mg tid, has received 1 dose so far']</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -4326,52 +4806,62 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-03 16:08:00'), Timestamp('2151-04-03 16:26:00'))</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'text': "ccu progress note 7a-7p\ncardiac: sr 60-80s. iabp removed this afternoon. bedrest until 9pm. pressure dsg to r groin. site d+i, palpable dp. maps 60-70s. remains on captopril. 6.25mg tid, isordil 10mg tid. on plavix and lipitor. no c/o cp.\n\nresp: ls coarse. diuresed today. coughing up thick tan secretions, attempting to obtain sputum culture!  o2 2l n/c. sats &gt;97%. robitussin ac given x1. started on azithromycin by mouth for ?bronchitis/pneu?\n\ngi/gu: foley patent. diuresed with lasix 20mg ivp with good effect. goal 1l neg. abd soft. +bs. episode of nausea this afternoon, passed on own. loose bm x 2 on bedpan, +flatus. guiac neg. took small amts breakfast/lunch. taking pills well.\n\nneuro: a+ox3 today. more awake. interacting well with family. pleasant and cooperative.\n\nplan: con't cardiac meds. off bedrest at 9pm. monitor r groin site. pulm toliet. watch u/o - goal 1l neg.\n", 'event': ['Excretion', 'Eating', 'Excretion', 'Family', 'Pain', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "diuresed today",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "1x",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "took small amts breakfast/lunch",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "breakfast/lunch",\n                    "amount": "small amts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "loose bm x 2 on bedpan, +flatus",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "2x",\n                    "quality": "loose"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "interacting well with family",\n            "actor": "patient",\n            "object": "family member",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "no c/o cp",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "bedrest until 9pm",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "foley patent. diuresed with lasix 20mg ivp with good effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "1x",\n                    "quality": "good effect"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "episode of nausea this afternoon, passed on own",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "abdomen",\n                    "duration": "short"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "after",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e7"\n        },\n        {\n            "event_id_1": "e7",\n            "relation": "after",\n            "event_id_2": "e8"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'breakfast/lunch', 'amount': 'small amts', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'loose'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': 'good effect'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'abdomen', 'duration': 'short'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'after', 'event_id_2': 'e8'}]], 'text_quotes': ['diuresed today', 'took small amts breakfast/lunch', 'loose bm x 2 on bedpan, +flatus', 'interacting well with family', 'no c/o cp', 'bedrest until 9pm', 'foley patent. diuresed with lasix 20mg ivp with good effect', 'episode of nausea this afternoon, passed on own'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'afternoon'], 'negation': [False, False, False, False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-03 16:08:00 and 2151-04-03 16:26:00):\n           ccu progress note 7a-7p\ncardiac: sr 60-80s. iabp removed this afternoon. bedrest until 9pm. pressure dsg to r groin. site d+i, palpable dp. maps 60-70s. remains on captopril. 6.25mg tid, isordil 10mg tid. on plavix and lipitor. no c/o cp.\n\nresp: ls coarse. diuresed today. coughing up thick tan secretions, attempting to obtain sputum culture!  o2 2l n/c. sats &gt;97%. robitussin ac given x1. started on azithromycin by mouth for ?bronchitis/pneu?\n\ngi/gu: foley patent. diuresed with lasix 20mg ivp with good effect. goal 1l neg. abd soft. +bs. episode of nausea this afternoon, passed on own. loose bm x 2 on bedpan, +flatus. guiac neg. took small amts breakfast/lunch. taking pills well.\n\nneuro: a+ox3 today. more awake. interacting well with family. pleasant and cooperative.\n\nplan: con\'t cardiac meds. off bedrest at 9pm. monitor r groin site. pulm toliet. watch u/o - goal 1l neg.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 34.13845387310721}</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>['bedrest until 9pm']</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Excretion', 'Family', 'Pain', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'breakfast/lunch', 'amount': 'small amts', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'loose'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': 'good effect'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'abdomen', 'duration': 'short'}}}]</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>['diuresed today', 'took small amts breakfast/lunch', 'loose bm x 2 on bedpan, +flatus', 'interacting well with family', 'no c/o cp', 'bedrest until 9pm', 'foley patent. diuresed with lasix 20mg ivp with good effect', 'episode of nausea this afternoon, passed on own']</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:diuresed today', 'e2=Eating|1:took small amts breakfast/lunch', 'e3=Excretion|1:loose bm x 2 on bedpan, +flatus', 'e4=Family|1:interacting well with family', 'e5=Pain|1:no c/o cp', 'e6=Sleep|1:bedrest until 9pm', 'e7=Excretion|1:foley patent. diuresed with lasix 20mg ivp with good effect', 'e8=Pain|1:episode of nausea this afternoon, passed on own']</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'after', 'event_id_2': 'e8'}]]</t>
         </is>
@@ -4404,52 +4894,62 @@
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-04 19:49:00'), Timestamp('2151-04-04 19:56:00'))</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{'text': "ccu progress note 7a-7p\nneuro: remains a+ox3. mae. episode of anxiety this afternoon with sob - but sats 98% on 3l. given ativan 0.5mg by mouth with good effect. family in to visit during the day\n\nid: changed abx to levofloxacin. remains afebrile. wbcs 24.\n\nresp: ls wheezy this morning, dim bases. given atrovent puffer with good effect. ls dim this afternoon. productive congestive cough, sputum sent for cx. o2 3l n/c.\n\ncardiac: aflutter this morning 60s-70s. then changed back to sr 1'avb with freq pacs. this afternoon developed an epsisode of freq pvcs. ekgs done. ho aware (this corresponded with feelings of sob/anxiety). heparin drops, plavix, asa, dopa @ 2.5mcg/k/min, lipitor.\n\ngi/gu: foley patent, u/o ~30cc/hr. abd soft. +bs. no bm today. taking small amts meals.\n\nplan: con't to monitor rhythm. cardiac surgery on consult. monitor vs.\n", 'event': ['Pain', 'Eating', 'Family', 'Excretion', 'Sleep', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "episode of anxiety this afternoon with sob - but sats 98% on 3l.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "episode"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "taking small amts meals.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "meals",\n          "amount": "small amts",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Family",\n      "text_quote": "family in to visit during the day",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "day",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "foley patent, u/o ~30cc/hr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "~30cc/hr",\n          "quality": "patent"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "developed an epsisode of freq pvcs.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "episode"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Excretion",\n      "text_quote": "no bm today.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "today",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "no",\n          "quality": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "before",\n      "event_id_2": "e6"\n    },\n    {\n      "event_id_1": "e6",\n      "relation": "before",\n      "event_id_2": "e7"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'episode'}}}, {'Eating': {'Eating': {'food': 'meals', 'amount': 'small amts', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '~30cc/hr', 'quality': 'patent'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'episode'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'no', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}]], 'text_quotes': ['episode of anxiety this afternoon with sob - but sats 98% on 3l.', 'taking small amts meals.', 'family in to visit during the day', 'foley patent, u/o ~30cc/hr.', '', 'developed an epsisode of freq pvcs.', 'no bm today.'], 'event_time': ['afternoon', 'Unknown', 'day', 'Unknown', 'Unknown', 'afternoon', 'today'], 'negation': [False, False, False, False, True, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-04 19:49:00 and 2151-04-04 19:56:00):\n           ccu progress note 7a-7p\nneuro: remains a+ox3. mae. episode of anxiety this afternoon with sob - but sats 98% on 3l. given ativan 0.5mg by mouth with good effect. family in to visit during the day\n\nid: changed abx to levofloxacin. remains afebrile. wbcs 24.\n\nresp: ls wheezy this morning, dim bases. given atrovent puffer with good effect. ls dim this afternoon. productive congestive cough, sputum sent for cx. o2 3l n/c.\n\ncardiac: aflutter this morning 60s-70s. then changed back to sr 1\'avb with freq pacs. this afternoon developed an epsisode of freq pvcs. ekgs done. ho aware (this corresponded with feelings of sob/anxiety). heparin drops, plavix, asa, dopa @ 2.5mcg/k/min, lipitor.\n\ngi/gu: foley patent, u/o ~30cc/hr. abd soft. +bs. no bm today. taking small amts meals.\n\nplan: con\'t to monitor rhythm. cardiac surgery on consult. monitor vs.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'family member', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 28.468735533067957}</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Family', 'Excretion', 'Sleep', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'episode'}}}, {'Eating': {'Eating': {'food': 'meals', 'amount': 'small amts', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '~30cc/hr', 'quality': 'patent'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'episode'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'no', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>['episode of anxiety this afternoon with sob - but sats 98% on 3l.', 'taking small amts meals.', 'family in to visit during the day', 'foley patent, u/o ~30cc/hr.', '', 'developed an epsisode of freq pvcs.', 'no bm today.']</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>['e1=Pain|1:episode of anxiety this afternoon with sob - but sats 98% on 3l.', 'e2=Eating|1:taking small amts meals.', 'e3=Family|1:family in to visit during the day', 'e4=Excretion|1:foley patent, u/o ~30cc/hr.', 'e5=Sleep|1:', 'e6=Pain|1:developed an epsisode of freq pvcs.', 'e7=Excretion|1:no bm today.']</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}]]</t>
         </is>
@@ -4505,52 +5005,62 @@
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-05 05:15:00'), Timestamp('2151-04-05 05:32:00'))</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nsg progress note - 7p-7a/ status post imi/pericarditis\n\ns- " i feel much better tonite"\n\no- see flowsheet for objective data.\n\n[**name (ni) 79**] patient remains in/out aflutter with hr- 60-70\'s. some pauses 3-4 seconds- 1st degree avb/a flutter/pac\'s.\nno chest pain nor sign of ischemia.\nremains on heparin 800 u with ptt- 51 for aflutter and on dopa low dose- 2.5 mcg/kg.\nbilateral groin sites and pulses all wnl.\nhct stable/cpk\'s trending down.\npatient remains on bedrest this shift.\n\n[**name (ni) 81**] patient with big productive cough- (+)? pneumonia- unable to access cxr report [**4-4**]. switched by mouth zithromax to levoquin [**4-4**].\ntannish sputum produced- given cough medicine to prevent gagging/chest wall pain.\nno further sob/anxiety episodes. given ativan 0.5 x 1.\n\nid- afebrile- see above.\n\n[**name (ni) 336**] patient remains on tylenol rtc for pericarditis pain.\nappears comfortable this eve/nite.\nalert/oriented- some increased anxiety requiring some ativan while talking at length and in detail about plan of [**name (ni) 3174**] patient appearing nervous esp when discussing cabg.\nfamily in room and appearing very upset over lack of communication with them re: plan of care- explained why surgery was consulted and what the plan of care was, asked ccu team to reinforce as well.\nexpained that pericardial pain was not dangerous or had anything much to do with coronary pain itself..they appeared upset at the amount of pain [**4-3**] nites as well and didn\'t realize patient was " so sick"\nappear currently to be more at ease and understand .\n\na/[**name (ni) **] patient status post large mi/not successful rca stent c/b arrhythmias/iabp/hypotension- currently remains with adequate bp on low dose dopa and varying levels of heart block.\n\n? consult for temp wire if pauses become much longer or patient develops symptoms.\ncontinue to hold capt/b blockers/isordil- maintain bp with dopa as tolerated.\nincrease activity as tolerates to day- dangle.\ncontinue pulm toilet/antibx.\nconsider low dose diuresis if bp improves.\ncomfort for pericarditis- tylenol rtc.\nativan as needed.\nkeep patient and family very aware of plan of care.\ndecrease anxiety for all.\nclose observation of hemodynamic status\n', 'event': ['Pain', 'Family', 'Pain', 'Excretion', 'Sleep', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "status post imi/pericarditis"\n    },\n    {\n      "attribute_name": "history of large mi/not successful rca stent c/b arrhythmias/iabp/hypotension"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "pericarditis pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "pericardial area",\n          "duration": "3 nites"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "family in room and appearing very upset over lack of communication with them re: plan of care",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "chest wall pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "coughing",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "chest wall",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "tannish sputum produced",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "sputum",\n          "frequency": "Unknown",\n          "quality": "tannish"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "appears comfortable this eve/nite",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "eve/nite",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "comfortable",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Pain",\n      "text_quote": "given ativan 0.5 x 1 for anxiety",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "anxiety",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'pericardial area', 'duration': '3 nites'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest wall', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'Unknown', 'quality': 'tannish'}}}, {'Sleep': {'Sleep': {'quality': 'comfortable', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['pericarditis pain', 'family in room and appearing very upset over lack of communication with them re: plan of care', 'chest wall pain', 'tannish sputum produced', 'appears comfortable this eve/nite', 'None', 'given ativan 0.5 x 1 for anxiety'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'eve/nite', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'coughing', 'Unknown', 'Unknown', 'Unknown', 'anxiety'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-05 05:15:00 and 2151-04-05 05:32:00):\n           ccu nsg progress note - 7p-7a/ status post imi/pericarditis\n\ns- " i feel much better tonite"\n\no- see flowsheet for objective data.\n\n[**name (ni) 79**] patient remains in/out aflutter with hr- 60-70\'s. some pauses 3-4 seconds- 1st degree avb/a flutter/pac\'s.\nno chest pain nor sign of ischemia.\nremains on heparin 800 u with ptt- 51 for aflutter and on dopa low dose- 2.5 mcg/kg.\nbilateral groin sites and pulses all wnl.\nhct stable/cpk\'s trending down.\npatient remains on bedrest this shift.\n\n[**name (ni) 81**] patient with big productive cough- (+)? pneumonia- unable to access cxr report [**4-4**]. switched by mouth zithromax to levoquin [**4-4**].\ntannish sputum produced- given cough medicine to prevent gagging/chest wall pain.\nno further sob/anxiety episodes. given ativan 0.5 x 1.\n\nid- afebrile- see above.\n\n[**name (ni) 336**] patient remains on tylenol rtc for pericarditis pain.\nappears comfortable this eve/nite.\nalert/oriented- some increased anxiety requiring some ativan while talking at length and in detail about plan of [**name (ni) 3174**] patient appearing nervous esp when discussing cabg.\nfamily in room and appearing very upset over lack of communication with them re: plan of care- explained why surgery was consulted and what the plan of care was, asked ccu team to reinforce as well.\nexpained that pericardial pain was not dangerous or had anything much to do with coronary pain itself..they appeared upset at the amount of pain [**4-3**] nites as well and didn\'t realize patient was " so sick"\nappear currently to be more at ease and understand .\n\na/[**name (ni) **] patient status post large mi/not successful rca stent c/b arrhythmias/iabp/hypotension- currently remains with adequate bp on low dose dopa and varying levels of heart block.\n\n? consult for temp wire if pauses become much longer or patient develops symptoms.\ncontinue to hold capt/b blockers/isordil- maintain bp with dopa as tolerated.\nincrease activity as tolerates to day- dangle.\ncontinue pulm toilet/antibx.\nconsider low dose diuresis if bp improves.\ncomfort for pericarditis- tylenol rtc.\nativan as needed.\nkeep patient and family very aware of plan of care.\ndecrease anxiety for all.\nclose observation of hemodynamic status\n\n        ', 'case_attributes': [[{'attribute_name': 'status post imi/pericarditis'}, {'attribute_name': 'history of large mi/not successful rca stent c/b arrhythmias/iabp/hypotension'}]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 27.6649874469731}</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>['appears comfortable this eve/nite']</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'comfortable', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>['Pain', 'Family', 'Pain', 'Excretion', 'Sleep', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'pericardial area', 'duration': '3 nites'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest wall', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'Unknown', 'quality': 'tannish'}}}, {'Sleep': {'Sleep': {'quality': 'comfortable', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>['pericarditis pain', 'family in room and appearing very upset over lack of communication with them re: plan of care', 'chest wall pain', 'tannish sputum produced', 'appears comfortable this eve/nite', 'None', 'given ativan 0.5 x 1 for anxiety']</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pericarditis pain', 'e2=Family|1:family in room and appearing very upset over lack of communication with them re: plan of care', 'e3=Pain|1:chest wall pain', 'e4=Excretion|1:tannish sputum produced', 'e5=Sleep|1:appears comfortable this eve/nite', 'e6=Eating|0:None', 'e7=Pain|0:given ativan 0.5 x 1 for anxiety']</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4583,52 +5093,62 @@
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-05 17:38:00'), Timestamp('2151-04-05 17:55:00'))</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu npn\nneuro: patient alert oriented x3, denies pain. patient oob to chair x2hrs. tolerated well.\n\ncv: dopamine weaned to off with bp stable 93-103/  hr 60-80s 1st degree av block with freqent apcs, occational pause noted lasting up to 3 sec. patient denies chest pain or shoulder pain. cont on heparin drops at 800u/hr with ptt 51.8\n\nrespiratory: lungs sounds decreased and coarse at r base. patient coughing productively for thick tan sputum. patient initially on 3l nc with o2sats 95-98% but dropping to low 90s with coughing episodes. patient c/o intermittent sob with attempt to raise sputum. patient placed on cool neb via shovel mask. given atrovent and albuterol mdis.\n\nid: tmax 99.2 wbc 22 today. cont on levoquin for pneumonia.\n\ngi: appetite fair. no stool today. cont on colace.\n\ngu: u/o 40-60cc/hr via foley. slight hematuria noted after getting oob. no hematuria noted this evening.\n\n\n', 'event': ['Pain', 'Excretion', 'Eating', 'Excretion', 'Pain', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient alert oriented x3, denies pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "None",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "no stool today.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "None",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "appetite fair.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "u/o 40-60cc/hr via foley.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "40-60cc/hr",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "patient c/o intermittent sob with attempt to raise sputum.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "intermittent"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "patient oob to chair x2hrs.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "x2hrs"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "slight hematuria noted after getting oob.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "slight",\n                    "quality": "hematuria"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "patient denies chest pain or shoulder pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "None",\n                    "location": "chest, shoulder",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e7"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "simultaneous",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'None', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'None', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '40-60cc/hr', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'intermittent'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'x2hrs'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'slight', 'quality': 'hematuria'}}}, {'Pain': {'Pain': {'severity': 'None', 'location': 'chest, shoulder', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ['patient alert oriented x3, denies pain.', 'no stool today.', 'appetite fair.', 'u/o 40-60cc/hr via foley.', 'patient c/o intermittent sob with attempt to raise sputum.', 'patient oob to chair x2hrs.', 'slight hematuria noted after getting oob.', 'patient denies chest pain or shoulder pain.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, True, False, False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-05 17:38:00 and 2151-04-05 17:55:00):\n           ccu npn\nneuro: patient alert oriented x3, denies pain. patient oob to chair x2hrs. tolerated well.\n\ncv: dopamine weaned to off with bp stable 93-103/  hr 60-80s 1st degree av block with freqent apcs, occational pause noted lasting up to 3 sec. patient denies chest pain or shoulder pain. cont on heparin drops at 800u/hr with ptt 51.8\n\nrespiratory: lungs sounds decreased and coarse at r base. patient coughing productively for thick tan sputum. patient initially on 3l nc with o2sats 95-98% but dropping to low 90s with coughing episodes. patient c/o intermittent sob with attempt to raise sputum. patient placed on cool neb via shovel mask. given atrovent and albuterol mdis.\n\nid: tmax 99.2 wbc 22 today. cont on levoquin for pneumonia.\n\ngi: appetite fair. no stool today. cont on colace.\n\ngu: u/o 40-60cc/hr via foley. slight hematuria noted after getting oob. no hematuria noted this evening.\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 29.387829752871767}</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>['patient oob to chair x2hrs.']</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'x2hrs'}}}]</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Excretion', 'Pain', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'None', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'None', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '40-60cc/hr', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'intermittent'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'x2hrs'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'slight', 'quality': 'hematuria'}}}, {'Pain': {'Pain': {'severity': 'None', 'location': 'chest, shoulder', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>['patient alert oriented x3, denies pain.', 'no stool today.', 'appetite fair.', 'u/o 40-60cc/hr via foley.', 'patient c/o intermittent sob with attempt to raise sputum.', 'patient oob to chair x2hrs.', 'slight hematuria noted after getting oob.', 'patient denies chest pain or shoulder pain.']</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient alert oriented x3, denies pain.', 'e2=Excretion|1:no stool today.', 'e3=Eating|1:appetite fair.', 'e4=Excretion|1:u/o 40-60cc/hr via foley.', 'e5=Pain|1:patient c/o intermittent sob with attempt to raise sputum.', 'e6=Sleep|1:patient oob to chair x2hrs.', 'e7=Excretion|1:slight hematuria noted after getting oob.', 'e8=Pain|1:patient denies chest pain or shoulder pain.']</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -4655,52 +5175,62 @@
       <c r="E53" t="n">
         <v>0</v>
       </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-06 14:34:00'), Timestamp('2151-05-06 14:36:00'))</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>{'text': "12 noon male patient admitted status post cabg x 3, lima to lad, vein to om and diag. from or. patient intubated and sedated with iv propofol. iv neo and milranone infusing. pserl. ct's patent for moderate sero-sang, labs as well as coag's sent. pacer off, attached. foley to cd, large amt clear yellow urine. dopplerable dp's, bil legs wrapped. family in.\n", 'event': ['Excretion', 'Family', 'Eating', 'Sleep', 'Pain', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "admission status",\n      "attribute_value": "status post cabg x 3"\n    },\n    {\n      "attribute_name": "intervention",\n      "attribute_value": "lima to lad, vein to om and diag. from or."\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "foley to cd, large amt clear yellow urine.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "clear yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "family in.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "patient intubated and sedated with iv propofol.",\n      "actor": "patient",\n      "object": "",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Unknown",\n      "text_quote": "iv neo and milranone infusing.",\n      "actor": "patient",\n      "object": "",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e8",\n      "event_type": "Unknown",\n      "text_quote": "pacer off, attached.",\n      "actor": "patient",\n      "object": "",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e9",\n      "event_type": "Unknown",\n      "text_quote": "dopplerable dp\'s, bil legs wrapped.",\n      "actor": "patient",\n      "object": "",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e6",\n      "relation": "before",\n      "event_id_2": "e7"\n    },\n    {\n      "event_id_1": "e7",\n      "relation": "simultaneous",\n      "event_id_2": "e8"\n    },\n    {\n      "event_id_1": "e8",\n      "relation": "before",\n      "event_id_2": "e9"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear yellow'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'simultaneous', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'before', 'event_id_2': 'e9'}]], 'text_quotes': ['foley to cd, large amt clear yellow urine.', 'family in.', '', '', '', 'patient intubated and sedated with iv propofol.', 'iv neo and milranone infusing.', 'pacer off, attached.', "dopplerable dp's, bil legs wrapped."], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-06 14:34:00 and 2151-05-06 14:36:00):\n           12 noon male patient admitted status post cabg x 3, lima to lad, vein to om and diag. from or. patient intubated and sedated with iv propofol. iv neo and milranone infusing. pserl. ct\'s patent for moderate sero-sang, labs as well as coag\'s sent. pacer off, attached. foley to cd, large amt clear yellow urine. dopplerable dp\'s, bil legs wrapped. family in.\n\n        ', 'case_attributes': [[{'attribute_name': 'admission status', 'attribute_value': 'status post cabg x 3'}, {'attribute_name': 'intervention', 'attribute_value': 'lima to lad, vein to om and diag. from or.'}]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 27.883203053148463}</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>['Excretion', 'Family', 'Eating', 'Sleep', 'Pain', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'clear yellow'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Sleep': {'Sleep': {}}}, {'Pain': {'Pain': {}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>['foley to cd, large amt clear yellow urine.', 'family in.', '', '', '', 'patient intubated and sedated with iv propofol.', 'iv neo and milranone infusing.', 'pacer off, attached.', "dopplerable dp's, bil legs wrapped."]</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:foley to cd, large amt clear yellow urine.', 'e2=Family|1:family in.', 'e3=Eating|1:', 'e4=Sleep|1:', 'e5=Pain|1:', 'e6=Unknown|1:patient intubated and sedated with iv propofol.', 'e7=Unknown|1:iv neo and milranone infusing.', 'e8=Unknown|1:pacer off, attached.', "e9=Unknown|1:dopplerable dp's, bil legs wrapped."]</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'simultaneous', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'before', 'event_id_2': 'e9'}]]</t>
         </is>
@@ -4737,52 +5267,62 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-07 15:15:00'), Timestamp('2151-05-07 15:24:00'))</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{'text': 'pod #1\n\nneo drops weaned off for diastolic blood pressure&gt;100\nmilrinone weaned off ci&gt;2\nhct checked q4 ct output cont ooze and dumped x1 125 withposition change/ hct stable 31.7 cont to monitor 4uprbc availabe in bb\n\nneuro-a/a/o x3 maew stands with assist anxious with activity and c/o pain percocet/ativan pro re nata with effect\ncv-mp apaced 80 hs s1s2 reg ml chest dressing with scant old bloody drainage 2 ct y to 20 cmsx ci&gt;2 pulses palp cool x4 extrem no gtts at present cont to monnitor\nresp-o2 4l n/c ls clear cont pulm toilet\ngi-c/o nausea talking in claer liq bs wnl checke q6hr\ngu-u/o &gt;30cc/hr\nfamily attentive and supportive\n\nplan-cont current postop course adv activity cont pain management please see flow sheet\n', 'event': ['Pain', 'Family', 'Excretion', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o pain percocet/ativan pro re nata with effect",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "family attentive and supportive",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "gu-u/o &gt;30cc/hr",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "&gt;30cc/hr",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "gi-c/o nausea talking in claer liq bs wnl checke q6hr",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "clear liquid",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '&gt;30cc/hr', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquid', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['c/o pain percocet/ativan pro re nata with effect', 'family attentive and supportive', 'gu-u/o &gt;30cc/hr', 'gi-c/o nausea talking in claer liq bs wnl checke q6hr', 'None'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-07 15:15:00 and 2151-05-07 15:24:00):\n           pod #1\n\nneo drops weaned off for diastolic blood pressure&gt;100\nmilrinone weaned off ci&gt;2\nhct checked q4 ct output cont ooze and dumped x1 125 withposition change/ hct stable 31.7 cont to monitor 4uprbc availabe in bb\n\nneuro-a/a/o x3 maew stands with assist anxious with activity and c/o pain percocet/ativan pro re nata with effect\ncv-mp apaced 80 hs s1s2 reg ml chest dressing with scant old bloody drainage 2 ct y to 20 cmsx ci&gt;2 pulses palp cool x4 extrem no gtts at present cont to monnitor\nresp-o2 4l n/c ls clear cont pulm toilet\ngi-c/o nausea talking in claer liq bs wnl checke q6hr\ngu-u/o &gt;30cc/hr\nfamily attentive and supportive\n\nplan-cont current postop course adv activity cont pain management please see flow sheet\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 19.989813294960186}</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>['Pain', 'Family', 'Excretion', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '&gt;30cc/hr', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquid', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>['c/o pain percocet/ativan pro re nata with effect', 'family attentive and supportive', 'gu-u/o &gt;30cc/hr', 'gi-c/o nausea talking in claer liq bs wnl checke q6hr', 'None']</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o pain percocet/ativan pro re nata with effect', 'e2=Family|1:family attentive and supportive', 'e3=Excretion|1:gu-u/o &gt;30cc/hr', 'e4=Eating|1:gi-c/o nausea talking in claer liq bs wnl checke q6hr', 'e5=Sleep|0:None']</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4820,52 +5360,62 @@
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-07 23:56:00'), Timestamp('2151-05-08 00:14:00'))</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>{'text': 'altered cardiac status\ns: "i\'m feeling fine.,i\'m feeling hot, not lightheaded"\no: 7p-11pm [**2148**] self limiting runs of af ventricular response of 110\'s-140\'s. 2055 af 110\'s recieved 5 mg iv lopressor, 2100 5 mg iv lopressor with ventricular response 80\'s t0 110\'s. without vea. ci prior to af 2.4 - with af 1.8-1.4 .recieved amiodarone bolus 150 mg and drops @ 1mg. additional 5 mg iv lopressor @ 2145. milrinone has been off since 1400. ho notified and mvo2 sent . ct drainage &lt;50 ml/hr. dsgs d+i. feet warm to touch with palp pp. hct 29. k 5.1 . recieved 2 gm mag with af.sb 50\'s therefore [**e-mail address 3175**] restarted @ .5mcq.\n   resp: np @ 4l with oxygen saturation &gt;95%. abg with po2 59 therefore np increased to 6 l. bs diminished bibasilar. rr high teens. does mouth breath. fair cough and is not raising. no ct leak noted.\n   neuro: sedate easily arousable + oreinted x3. [**last name (lf) 412**], [**first name3 (lf) 28**], following commands, calm. denied lightheadedness when diastolic blood pressure 80\'s did admit to feeling hot.\n   gi: taking clear liquids. zantac @ 2200. + bowel sounds.\n   gu: marginal uo until recieved 20 mg ivp lasix with 180ml response.\n   endo: recieved 3 units sc regular insulin @ 2200 for glucose 133.\n   pain: has not recieved pain med rated "2"\n   social: family into visit and updated.\na: af , decreased ci, hct 29.\np: monitor comfort, hr and rythym, diastolic blood pressure-neo, ci, mvo2,? restart milrinone, resp status-pulm toilet, neuro status, i+o, labs. as per orders.\n\n', 'event': ['Pain', 'Eating', 'Family', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "pain: has not recieved pain med rated \\"2\\"",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "2",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "gi: taking clear liquids.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "clear liquids",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "social: family into visit and updated.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "gu: marginal uo until recieved 20 mg ivp lasix with 180ml response.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "neuro: sedate easily arousable + oreinted x3.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "sedate",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': '2', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'sedate', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['pain: has not recieved pain med rated "2"', 'gi: taking clear liquids.', 'social: family into visit and updated.', 'gu: marginal uo until recieved 20 mg ivp lasix with 180ml response.', 'neuro: sedate easily arousable + oreinted x3.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-07 23:56:00 and 2151-05-08 00:14:00):\n           altered cardiac status\ns: "i\'m feeling fine.,i\'m feeling hot, not lightheaded"\no: 7p-11pm [**2148**] self limiting runs of af ventricular response of 110\'s-140\'s. 2055 af 110\'s recieved 5 mg iv lopressor, 2100 5 mg iv lopressor with ventricular response 80\'s t0 110\'s. without vea. ci prior to af 2.4 - with af 1.8-1.4 .recieved amiodarone bolus 150 mg and drops @ 1mg. additional 5 mg iv lopressor @ 2145. milrinone has been off since 1400. ho notified and mvo2 sent . ct drainage &lt;50 ml/hr. dsgs d+i. feet warm to touch with palp pp. hct 29. k 5.1 . recieved 2 gm mag with af.sb 50\'s therefore [**e-mail address 3175**] restarted @ .5mcq.\n   resp: np @ 4l with oxygen saturation &gt;95%. abg with po2 59 therefore np increased to 6 l. bs diminished bibasilar. rr high teens. does mouth breath. fair cough and is not raising. no ct leak noted.\n   neuro: sedate easily arousable + oreinted x3. [**last name (lf) 412**], [**first name3 (lf) 28**], following commands, calm. denied lightheadedness when diastolic blood pressure 80\'s did admit to feeling hot.\n   gi: taking clear liquids. zantac @ 2200. + bowel sounds.\n   gu: marginal uo until recieved 20 mg ivp lasix with 180ml response.\n   endo: recieved 3 units sc regular insulin @ 2200 for glucose 133.\n   pain: has not recieved pain med rated "2"\n   social: family into visit and updated.\na: af , decreased ci, hct 29.\np: monitor comfort, hr and rythym, diastolic blood pressure-neo, ci, mvo2,? restart milrinone, resp status-pulm toilet, neuro status, i+o, labs. as per orders.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 21.62905855779536}</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['neuro: sedate easily arousable + oreinted x3.']</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'sedate', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Family', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': '2', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'sedate', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>['pain: has not recieved pain med rated "2"', 'gi: taking clear liquids.', 'social: family into visit and updated.', 'gu: marginal uo until recieved 20 mg ivp lasix with 180ml response.', 'neuro: sedate easily arousable + oreinted x3.']</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pain: has not recieved pain med rated "2"', 'e2=Eating|1:gi: taking clear liquids.', 'e3=Family|1:social: family into visit and updated.', 'e4=Excretion|1:gu: marginal uo until recieved 20 mg ivp lasix with 180ml response.', 'e5=Sleep|1:neuro: sedate easily arousable + oreinted x3.']</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -4895,52 +5445,62 @@
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-08 15:09:00'), Timestamp('2151-05-08 15:14:00'))</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{'text': 'addendum npn\n\ncaptopril by mouth started plan for slow wean of milrinone drops\npmh preop pneumonia and completed 10 day course abx/ this afternoon ls coarse crackles left bases and expecuturating thick tan to greenish colored sputum cxr done and dr.[**last name (stitle) **] aware wbc flat may need to resart abx cont aggressive pulm toilet\nplease see flow sheet\n', 'event': ['Unknown', 'Excretion', 'Pain', 'Family', 'Sleep', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "pmh",\n      "attribute_value": "preop pneumonia"\n    },\n    {\n      "attribute_name": "abx course",\n      "attribute_value": "10 day course completed"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Unknown",\n      "text_quote": "captopril by mouth started plan for slow wean of milrinone drops",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "expecuturating thick tan to greenish colored sputum",\n      "actor": "patient",\n      "object": "sputum",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "sputum",\n          "frequency": "Unknown",\n          "quality": "thick tan to greenish colored"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {}\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "food",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e6",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'Unknown', 'quality': 'thick tan to greenish colored'}}}, {'Pain': {'Pain': {}}}, {'Family': {'Family': {}}}, {'Sleep': {'Sleep': {}}}, {'Eating': {'Eating': {}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e6', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['captopril by mouth started plan for slow wean of milrinone drops', 'expecuturating thick tan to greenish colored sputum', '', '', '', ''], 'event_time': ['Unknown', 'afternoon', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-08 15:09:00 and 2151-05-08 15:14:00):\n           addendum npn\n\ncaptopril by mouth started plan for slow wean of milrinone drops\npmh preop pneumonia and completed 10 day course abx/ this afternoon ls coarse crackles left bases and expecuturating thick tan to greenish colored sputum cxr done and dr.[**last name (stitle) **] aware wbc flat may need to resart abx cont aggressive pulm toilet\nplease see flow sheet\n\n        ', 'case_attributes': [[{'attribute_name': 'pmh', 'attribute_value': 'preop pneumonia'}, {'attribute_name': 'abx course', 'attribute_value': '10 day course completed'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 22.677927246084437}</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>['Unknown', 'Excretion', 'Pain', 'Family', 'Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'Unknown', 'quality': 'thick tan to greenish colored'}}}, {'Pain': {'Pain': {}}}, {'Family': {'Family': {}}}, {'Sleep': {'Sleep': {}}}, {'Eating': {'Eating': {}}}]</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>['captopril by mouth started plan for slow wean of milrinone drops', 'expecuturating thick tan to greenish colored sputum', '', '', '', '']</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:captopril by mouth started plan for slow wean of milrinone drops', 'e2=Excretion|1:expecuturating thick tan to greenish colored sputum', 'e3=Pain|1:', 'e4=Family|1:', 'e5=Sleep|1:', 'e6=Eating|1:']</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e6', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -4967,52 +5527,62 @@
       <c r="E57" t="n">
         <v>0</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-09 03:16:00'), Timestamp('2151-05-09 03:18:00'))</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{'text': "patient into sb 50's after bbolus infused, low ci with sb, able to [** **] at 80 with atrial output at 10, plan to recheck ci, responded great to lasix 20mg diuresis 1st hr. 1000cc!!!\n", 'event': ['Excretion', 'Eating', 'Pain', 'Sleep', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "responded great to lasix 20mg diuresis 1st hr. 1000cc!!!",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "1x",\n                    "quality": "large amount"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "patient into sb 50\'s after bbolus infused, low ci with sb, able to [** **] at 80 with atrial output at 10, plan to recheck ci",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': 'large amount'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['responded great to lasix 20mg diuresis 1st hr. 1000cc!!!', '', '', '', '', "patient into sb 50's after bbolus infused, low ci with sb, able to [** **] at 80 with atrial output at 10, plan to recheck ci"], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-09 03:16:00 and 2151-05-09 03:18:00):\n           patient into sb 50\'s after bbolus infused, low ci with sb, able to [** **] at 80 with atrial output at 10, plan to recheck ci, responded great to lasix 20mg diuresis 1st hr. 1000cc!!!\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.881282806862146}</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {}}}]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Pain', 'Sleep', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': 'large amount'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}, {'Sleep': {'Sleep': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>['responded great to lasix 20mg diuresis 1st hr. 1000cc!!!', '', '', '', '', "patient into sb 50's after bbolus infused, low ci with sb, able to [** **] at 80 with atrial output at 10, plan to recheck ci"]</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:responded great to lasix 20mg diuresis 1st hr. 1000cc!!!', 'e2=Eating|1:', 'e3=Pain|1:', 'e4=Sleep|1:', 'e5=Family|1:', "e6=Unknown|1:patient into sb 50's after bbolus infused, low ci with sb, able to [** **] at 80 with atrial output at 10, plan to recheck ci"]</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -5046,52 +5616,62 @@
       <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-09 15:47:00'), Timestamp('2151-05-09 15:55:00'))</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{'text': "0700-1900\n\namio drops d/c and by mouth amio started\nmilrinone cont at .125mcg/kg/min svo2 52/ thermodilution ci&gt;2 aggressivley diuresis know cvp low [**3-23**] and neg i/o md [**first name (titles) **] [**last name (titles) 3179**] dose decreased/ captopril dose increased ct d/c'd remains [**last name (titles) **] at 80\ncont to monitor\nls with crackles at left base clear upper lobes o2 2lnp\ngi taking by mouth well and enc boost protein shakes\ngu-k repleted cont gentle diuresis know with low numbers and neg i/o\nplan-cont milrinone overnight cont to monitor adv activity/diet please see flow sheet\n", 'event': ['Eating', 'Excretion', 'Pain', 'Sleep', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "gi taking by mouth well and enc boost protein shakes",\n            "actor": "patient",\n            "object": "protein shakes",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "protein shakes",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "aggressivley diuresis know cvp low and neg i/o",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "low"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "amio drops d/c and by mouth amio started milrinone cont at .125mcg/kg/min svo2 52/ thermodilution ci&gt;2",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e1",\n            "relation": "simultaneous",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'protein shakes', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'low'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]], 'text_quotes': ['gi taking by mouth well and enc boost protein shakes', 'aggressivley diuresis know cvp low and neg i/o', '', '', '', 'amio drops d/c and by mouth amio started milrinone cont at .125mcg/kg/min svo2 52/ thermodilution ci&gt;2'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-09 15:47:00 and 2151-05-09 15:55:00):\n           0700-1900\n\namio drops d/c and by mouth amio started\nmilrinone cont at .125mcg/kg/min svo2 52/ thermodilution ci&gt;2 aggressivley diuresis know cvp low [**3-23**] and neg i/o md [**first name (titles) **] [**last name (titles) 3179**] dose decreased/ captopril dose increased ct d/c\'d remains [**last name (titles) **] at 80\ncont to monitor\nls with crackles at left base clear upper lobes o2 2lnp\ngi taking by mouth well and enc boost protein shakes\ngu-k repleted cont gentle diuresis know with low numbers and neg i/o\nplan-cont milrinone overnight cont to monitor adv activity/diet please see flow sheet\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.356796962209046}</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['']</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>['Eating', 'Excretion', 'Pain', 'Sleep', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'protein shakes', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'low'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>['gi taking by mouth well and enc boost protein shakes', 'aggressivley diuresis know cvp low and neg i/o', '', '', '', 'amio drops d/c and by mouth amio started milrinone cont at .125mcg/kg/min svo2 52/ thermodilution ci&gt;2']</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>['e1=Eating|1:gi taking by mouth well and enc boost protein shakes', 'e2=Excretion|0:aggressivley diuresis know cvp low and neg i/o', 'e3=Pain|1:', 'e4=Sleep|1:', 'e5=Family|1:', 'e6=Unknown|0:amio drops d/c and by mouth amio started milrinone cont at .125mcg/kg/min svo2 52/ thermodilution ci&gt;2']</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'simultaneous', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -5129,52 +5709,62 @@
       <c r="E59" t="n">
         <v>0</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-10 19:48:00'), Timestamp('2183-03-10 20:08:00'))</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nsg note: status post cath/pre-op cabg\ns: i\'m glad its going to be tomorrow. i\'m completely pain free."\no: for details of admission see ccu admission note.\nthis 77y old woman went to [**hospital **] hosp with ss chest pressure and sob. she was started on nitro, integrellin and heparin, given lasix and transfered to [**hospital1 3**]. cath revealed 3 vs and c-[**doctor first name **] consult called. she received more lasix, her sheaths were pulled and she was transferred to ccu with 4/10 cp and iv nitrol\ncv: pain decreased thru the afternoon and she was completely pain free by 5pm. ekg unchanged between ccu admit ekg and post pain ekg. she has st depressions with t flips across the precordium. her r groin is dry with no ooze or hematoma. all pulses palpable. post cath fluid is running at 75cc/hr for one liter. she will have hibiclens scrub this evening. another clot was sent to bb. she has been consented and both patient and her family have good understanding of proposed proceedure.\nresp: she has bbr, but is sating 95-99% on 4l np. she had chest ct in afternoon.\nrenal: she has diuresed well to lasix and is 1360 neg thus far. bun creat 32/1.4.\ngi: patient has had intermittent nausea and vomiting when ever she has taken any food or fluid. nausea is not associated with change in chest pressure when she had it, of development of chest pressure. she is now npo. she received compazine 25mg pr with good results thus far.\nendo: fs was 220 ad she received 4u reg insulin.\nms: patient a &amp; o x 3. she signed all her own consents.\na: pain free post mi/pre-op cabg\np: check results of ck. hibiclens scrub. check fs and ptt. monitor for pain.\n\n', 'event': ['Pain', 'Eating', 'Excretion', 'Family', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "77"\n        },\n        {\n            "attribute_name": "admission reason",\n            "attribute_value": "ss chest pressure and sob"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "pain decreased thru the afternoon and she was completely pain free by 5pm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon, 5pm",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "decreased",\n                    "location": "chest",\n                    "duration": "thru the afternoon"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "patient has had intermittent nausea and vomiting when ever she has taken any food or fluid.",\n            "actor": "patient",\n            "object": "food/fluid",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "any food",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "renal: she has diuresed well to lasix and is 1360 neg thus far.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "lasix",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "well",\n                    "quality": "1360 neg"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "both patient and her family have good understanding of proposed proceedure.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "communication",\n                    "relation": "family"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'decreased', 'location': 'chest', 'duration': 'thru the afternoon'}}}, {'Eating': {'Eating': {'food': 'any food', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'well', 'quality': '1360 neg'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'family'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['pain decreased thru the afternoon and she was completely pain free by 5pm.', 'patient has had intermittent nausea and vomiting when ever she has taken any food or fluid.', 'renal: she has diuresed well to lasix and is 1360 neg thus far.', 'both patient and her family have good understanding of proposed proceedure.', 'None'], 'event_time': ['afternoon, 5pm', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'lasix', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-10 19:48:00 and 2183-03-10 20:08:00):\n           ccu nsg note: status post cath/pre-op cabg\ns: i\'m glad its going to be tomorrow. i\'m completely pain free."\no: for details of admission see ccu admission note.\nthis 77y old woman went to [**hospital **] hosp with ss chest pressure and sob. she was started on nitro, integrellin and heparin, given lasix and transfered to [**hospital1 3**]. cath revealed 3 vs and c-[**doctor first name **] consult called. she received more lasix, her sheaths were pulled and she was transferred to ccu with 4/10 cp and iv nitrol\ncv: pain decreased thru the afternoon and she was completely pain free by 5pm. ekg unchanged between ccu admit ekg and post pain ekg. she has st depressions with t flips across the precordium. her r groin is dry with no ooze or hematoma. all pulses palpable. post cath fluid is running at 75cc/hr for one liter. she will have hibiclens scrub this evening. another clot was sent to bb. she has been consented and both patient and her family have good understanding of proposed proceedure.\nresp: she has bbr, but is sating 95-99% on 4l np. she had chest ct in afternoon.\nrenal: she has diuresed well to lasix and is 1360 neg thus far. bun creat 32/1.4.\ngi: patient has had intermittent nausea and vomiting when ever she has taken any food or fluid. nausea is not associated with change in chest pressure when she had it, of development of chest pressure. she is now npo. she received compazine 25mg pr with good results thus far.\nendo: fs was 220 ad she received 4u reg insulin.\nms: patient a &amp; o x 3. she signed all her own consents.\na: pain free post mi/pre-op cabg\np: check results of ck. hibiclens scrub. check fs and ptt. monitor for pain.\n\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '77'}, {'attribute_name': 'admission reason', 'attribute_value': 'ss chest pressure and sob'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 21.758640175918117}</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>['Pain', 'Eating', 'Excretion', 'Family', 'Sleep']</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'decreased', 'location': 'chest', 'duration': 'thru the afternoon'}}}, {'Eating': {'Eating': {'food': 'any food', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'well', 'quality': '1360 neg'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'family'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>['pain decreased thru the afternoon and she was completely pain free by 5pm.', 'patient has had intermittent nausea and vomiting when ever she has taken any food or fluid.', 'renal: she has diuresed well to lasix and is 1360 neg thus far.', 'both patient and her family have good understanding of proposed proceedure.', 'None']</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>['e1=Pain|1:pain decreased thru the afternoon and she was completely pain free by 5pm.', 'e2=Eating|1:patient has had intermittent nausea and vomiting when ever she has taken any food or fluid.', 'e3=Excretion|1:renal: she has diuresed well to lasix and is 1360 neg thus far.', 'e4=Family|1:both patient and her family have good understanding of proposed proceedure.', 'e5=Sleep|0:None']</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5213,52 +5803,62 @@
       <c r="E60" t="n">
         <v>0</v>
       </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-11 03:37:00'), Timestamp('2183-03-11 03:59:00'))</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{'text': 'ccu nursing progress note 1900-0700: 3vd\ns-am i going to get the rest of my pill?"\n\nsee carevue for all vs and objective data\n\no-ms:a/o/x/3. flat affect but pleasant. usually having to elicit a response from patient or will answer just "yes" and "no." obeys and follows commands. maes\n\ncv: hr 60s to 70s. nsr with rare pvc. k and mg repleted by mouth. sbps 90s to low 100s. map high 50s to 60s. tolerating lopressor dose well. right groin intact with dsd. no hematoma or ooze at site. pulses palpable, warm and with good palor. troponin &gt; 50 and cks in the 500s with mbs with a mb of 9. pre op cabg for this am but postponed till wed due to (+) ua. heparin at 950u/hr. ptt from  8pm not accurated due to just starting 4hrs prior. am ptt pending. patient remaining pain free overnight so nitro drops weaned. currently at 1.05mcgs/kg.min.\n\nresp: ls clear in upper fields but dim at bases. fine crackles at bases. o2sats on 2ls &gt; 95%. breahting unlabored. denies sob. no noted doe.\n\ngu/gi: foley draining fair amounts of urine overnight. huos 30-50cc/hr. dr. [**last name (stitle) 3040**] aware. post cath fluids done. patient (-) for los.\nurine clear and occasionally cloudy in appearance. ua (+) for blood and bacteria. abd softly distendend. kept npo for most of night secondary to nausea but no vomiting. nausea improving post compazine pr on prior shift. tolerating pos post without difficulty.\n\nid: afebrile. starting on cipro for uti. no other issues\n\nendo: niddm. fs at mn 146 not requiring coverage. continue to follow fsqid and cover with slscl.\n\nsoc: [**name (ni) 29**] son updated by rn that patient not going to surgery in am and spoke to mother shortly after. patient stating "wanting to get it over with" but understands reasoning for not going." son, is hcp and number in chart and on patient\'s board. son with be today to visit.\n\na/p: 3vd awaiting cabg on wednseday\n\ncontinue to monitor.\n', 'event': ['Pain', 'Excretion', 'Family', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "niddm"\n        },\n        {\n            "attribute_name": "surgery plan",\n            "attribute_value": "cabg on wednesday"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient remaining pain free overnight so nitro drops weaned.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "Unknown",\n                    "duration": "overnight"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "foley draining fair amounts of urine overnight.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "fair amounts",\n                    "quality": "clear and occasionally cloudy"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "[**name (ni) 29**] son updated by rn that patient not going to surgery in am and spoke to mother shortly after.",\n            "actor": "son",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "son"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "kept npo for most of night secondary to nausea but no vomiting.",\n            "actor": "patient",\n            "object": "food",\n            "negation": true,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "patient remaining pain free overnight so nitro drops weaned.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "overnight"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair amounts', 'quality': 'clear and occasionally cloudy'}}}, {'Family': {'Family': {'interaction': 'update', 'relation': 'son'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'overnight'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ['patient remaining pain free overnight so nitro drops weaned.', 'foley draining fair amounts of urine overnight.', '[**name (ni) 29**] son updated by rn that patient not going to surgery in am and spoke to mother shortly after.', 'kept npo for most of night secondary to nausea but no vomiting.', 'patient remaining pain free overnight so nitro drops weaned.'], 'event_time': ['overnight', 'overnight', 'Unknown', 'night', 'overnight'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-11 03:37:00 and 2183-03-11 03:59:00):\n           ccu nursing progress note 1900-0700: 3vd\ns-am i going to get the rest of my pill?"\n\nsee carevue for all vs and objective data\n\no-ms:a/o/x/3. flat affect but pleasant. usually having to elicit a response from patient or will answer just "yes" and "no." obeys and follows commands. maes\n\ncv: hr 60s to 70s. nsr with rare pvc. k and mg repleted by mouth. sbps 90s to low 100s. map high 50s to 60s. tolerating lopressor dose well. right groin intact with dsd. no hematoma or ooze at site. pulses palpable, warm and with good palor. troponin &gt; 50 and cks in the 500s with mbs with a mb of 9. pre op cabg for this am but postponed till wed due to (+) ua. heparin at 950u/hr. ptt from  8pm not accurated due to just starting 4hrs prior. am ptt pending. patient remaining pain free overnight so nitro drops weaned. currently at 1.05mcgs/kg.min.\n\nresp: ls clear in upper fields but dim at bases. fine crackles at bases. o2sats on 2ls &gt; 95%. breahting unlabored. denies sob. no noted doe.\n\ngu/gi: foley draining fair amounts of urine overnight. huos 30-50cc/hr. dr. [**last name (stitle) 3040**] aware. post cath fluids done. patient (-) for los.\nurine clear and occasionally cloudy in appearance. ua (+) for blood and bacteria. abd softly distendend. kept npo for most of night secondary to nausea but no vomiting. nausea improving post compazine pr on prior shift. tolerating pos post without difficulty.\n\nid: afebrile. starting on cipro for uti. no other issues\n\nendo: niddm. fs at mn 146 not requiring coverage. continue to follow fsqid and cover with slscl.\n\nsoc: [**name (ni) 29**] son updated by rn that patient not going to surgery in am and spoke to mother shortly after. patient stating "wanting to get it over with" but understands reasoning for not going." son, is hcp and number in chart and on patient\'s board. son with be today to visit.\n\na/p: 3vd awaiting cabg on wednseday\n\ncontinue to monitor.\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'niddm'}, {'attribute_name': 'surgery plan', 'attribute_value': 'cabg on wednesday'}]], 'actor': ['patient', 'patient', 'son', 'patient', 'patient'], 'event_detection_time': 21.84708166611381}</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>['patient remaining pain free overnight so nitro drops weaned.']</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'overnight'}}}]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Family', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'overnight'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair amounts', 'quality': 'clear and occasionally cloudy'}}}, {'Family': {'Family': {'interaction': 'update', 'relation': 'son'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'overnight'}}}]</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>['patient remaining pain free overnight so nitro drops weaned.', 'foley draining fair amounts of urine overnight.', '[**name (ni) 29**] son updated by rn that patient not going to surgery in am and spoke to mother shortly after.', 'kept npo for most of night secondary to nausea but no vomiting.', 'patient remaining pain free overnight so nitro drops weaned.']</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient remaining pain free overnight so nitro drops weaned.', 'e2=Excretion|1:foley draining fair amounts of urine overnight.', 'e3=Family|1:[**name (ni) 29**] son updated by rn that patient not going to surgery in am and spoke to mother shortly after.', 'e4=Eating|1:kept npo for most of night secondary to nausea but no vomiting.', 'e5=Sleep|1:patient remaining pain free overnight so nitro drops weaned.']</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -5295,52 +5895,62 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-11 18:23:00'), Timestamp('2183-03-11 18:38:00'))</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>{'text': "mi, preop cabg\nccu npn\no- t max 99.8. [**name8 (md) **] np aware. cont. on cipro for uti. u/a, c+s sent.\ncv- hr 60s-70s sr, no vea. bp 115-130s/. creat 1.5. k-3.6, re'd 40meq by mouth, mg 1.7, re'ing 3 doses today. hct 28.7, repeat 27.5. 1 unit prbcs up at 4:15pm, premed with tylenol 650mg by mouth ok with ho d/t low grade temp. groin d+i, dsd removed. no cpain or cv c/o. preop cabg for early am, has 4 units prbcs ready. cont. on iv ntg, heparin decreased x2 after 1 hr holds d/t high ptts, now on 550units/hr.\nresp- on 4l n/c, sats high 90s-100. l/s cxs l base, and occ. scat. on r, otherwise clear. no sob. u/o 30-40cc/hr.\ngi- refused food in am, although denies n/v. taking small amts food rest day. no bm.\nskin- intact, no breakdown although has multiple areas of ecchymosis and abrasions on her face from recent fall at home.\nms- a+ox3, sl. anxious at times. ativan ordered for sleep per anesthesia.\na- preop, painfree\np- follow temps, urine c+s results. check ptt about 11pm and follow scale. check patient/inr also for or. check hct post transfusion. notify surgery if unstable/cpain per team.\nready for or by 6:30am. follow creat, u/o.\n", 'event': ['Eating', 'Excretion', 'Pain', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "recent fall at home"\n        },\n        {\n            "attribute_name": "medication",\n            "attribute_value": "cipro for uti"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Eating",\n            "text_quote": "refused food in am, although denies n/v. taking small amts food rest day.",\n            "actor": "patient",\n            "object": "food",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "small amounts of food",\n                    "amount": "small amounts",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "no bm.",\n            "actor": "patient",\n            "object": "bowel movement",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "bowel movement",\n                    "frequency": "none",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "no cpain or cv c/o.",\n            "actor": "patient",\n            "object": "pain",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "ativan ordered for sleep per anesthesia.",\n            "actor": "patient",\n            "object": "sleep",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Eating': {'Eating': {'food': 'small amounts of food', 'amount': 'small amounts', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'bowel movement', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['refused food in am, although denies n/v. taking small amts food rest day.', 'no bm.', 'no cpain or cv c/o.', 'ativan ordered for sleep per anesthesia.', ''], 'event_time': ['am', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, True, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-11 18:23:00 and 2183-03-11 18:38:00):\n           mi, preop cabg\nccu npn\no- t max 99.8. [**name8 (md) **] np aware. cont. on cipro for uti. u/a, c+s sent.\ncv- hr 60s-70s sr, no vea. bp 115-130s/. creat 1.5. k-3.6, re\'d 40meq by mouth, mg 1.7, re\'ing 3 doses today. hct 28.7, repeat 27.5. 1 unit prbcs up at 4:15pm, premed with tylenol 650mg by mouth ok with ho d/t low grade temp. groin d+i, dsd removed. no cpain or cv c/o. preop cabg for early am, has 4 units prbcs ready. cont. on iv ntg, heparin decreased x2 after 1 hr holds d/t high ptts, now on 550units/hr.\nresp- on 4l n/c, sats high 90s-100. l/s cxs l base, and occ. scat. on r, otherwise clear. no sob. u/o 30-40cc/hr.\ngi- refused food in am, although denies n/v. taking small amts food rest day. no bm.\nskin- intact, no breakdown although has multiple areas of ecchymosis and abrasions on her face from recent fall at home.\nms- a+ox3, sl. anxious at times. ativan ordered for sleep per anesthesia.\na- preop, painfree\np- follow temps, urine c+s results. check ptt about 11pm and follow scale. check patient/inr also for or. check hct post transfusion. notify surgery if unstable/cpain per team.\nready for or by 6:30am. follow creat, u/o.\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'recent fall at home'}, {'attribute_name': 'medication', 'attribute_value': 'cipro for uti'}]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 19.732864526100457}</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['ativan ordered for sleep per anesthesia.']</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>['Eating', 'Excretion', 'Pain', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'food': 'small amounts of food', 'amount': 'small amounts', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'bowel movement', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>['refused food in am, although denies n/v. taking small amts food rest day.', 'no bm.', 'no cpain or cv c/o.', 'ativan ordered for sleep per anesthesia.', '']</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>['e1=Eating|1:refused food in am, although denies n/v. taking small amts food rest day.', 'e2=Excretion|1:no bm.', 'e3=Pain|1:no cpain or cv c/o.', 'e4=Sleep|1:ativan ordered for sleep per anesthesia.', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5374,52 +5984,62 @@
       <c r="E62" t="n">
         <v>0</v>
       </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-13 04:46:00'), Timestamp('2183-03-13 05:08:00'))</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{'text': "csru update\nneuro: on propofol for sedation. anesthesia reversals given early in shift. maew in bed. follows some commands. propofol off ~0030.patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.\n\ncv: vs/hemos as per flowsheet. thermodiluition co lower than ficks. both requiring fluid with good effect. mvo2 sat 60 at last check and thermo co ~4.0. nsr 70's, though a-paced much of shift for co assist. extrems cool though equal bilat. av wires in place.  on low dose neo this am. has cont on epi 0.03 mcq/k/min throughout shift.\n\nresp: tol cpap +5/10ips much of shift. lungs coarse at times. sx for small amt thick white secretions occas. increased rr at times though appear r/t restlessness. tv in 400's much of the time.\n\ngi: abd soft. no bsp. ogt present.\n\ngu: uop qs via foley. large uop earlier in shift while receiviing fluid boluses.\n\nassess: requiring fluids for ci. restless with propofol off and decrease in mvo2.\n\nplan: prbc if fluid needed. wean propofol /vent as able.\n", 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "uop qs via foley. large uop earlier in shift while receiviing fluid boluses.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "large"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'large'}}}, {'Pain': {'Pain': {'severity': 'unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.', 'uop qs via foley. large uop earlier in shift while receiviing fluid boluses.', 'patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-13 04:46:00 and 2183-03-13 05:08:00):\n           csru update\nneuro: on propofol for sedation. anesthesia reversals given early in shift. maew in bed. follows some commands. propofol off ~0030.patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.\n\ncv: vs/hemos as per flowsheet. thermodiluition co lower than ficks. both requiring fluid with good effect. mvo2 sat 60 at last check and thermo co ~4.0. nsr 70\'s, though a-paced much of shift for co assist. extrems cool though equal bilat. av wires in place.  on low dose neo this am. has cont on epi 0.03 mcq/k/min throughout shift.\n\nresp: tol cpap +5/10ips much of shift. lungs coarse at times. sx for small amt thick white secretions occas. increased rr at times though appear r/t restlessness. tv in 400\'s much of the time.\n\ngi: abd soft. no bsp. ogt present.\n\ngu: uop qs via foley. large uop earlier in shift while receiviing fluid boluses.\n\nassess: requiring fluids for ci. restless with propofol off and decrease in mvo2.\n\nplan: prbc if fluid needed. wean propofol /vent as able.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.12138411588967}</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.']</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'large'}}}, {'Pain': {'Pain': {'severity': 'unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}]</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>['patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.', 'uop qs via foley. large uop earlier in shift while receiviing fluid boluses.', 'patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.', '', '']</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.', 'e2=Excretion|1:uop qs via foley. large uop earlier in shift while receiviing fluid boluses.', 'e3=Pain|1:patient quite restless at that time with decreasing mvo2 sat-&gt;propofol restarted.', 'e4=Eating|1:', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5453,52 +6073,62 @@
       <c r="E63" t="n">
         <v>0</v>
       </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-14 18:57:00'), Timestamp('2183-03-14 19:07:00'))</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>{'text': 'cv:  apaced, underlying rhythm nsr 70s.  afebrile.  svo2 improving after prbc.  moderate to severe tr per echo report.  going to fick ci only now which is improving also.  very slow wean of epi drops.\n\npulm:  4l/nc, good sats, good cough.  cts draining thin seronsagn fluid.\n\nneuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.  no c/o pain.\n\ngu:  foley, good uop.\n\ngi:  taking clear liquids.  good bowel sounds.\n\nendo:  insulin drops stopped, monitoring bg.\n\nskin:  multiple bruises from fall prior to hospitalization.\n\nplan:  monitor ci by fick method, wean epi drops very slowly, pulm toilet, increase mobility.\n', 'event': ['Excretion', 'Eating', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "multiple bruises from fall prior to hospitalization"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "gu:  foley, good uop.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "gi:  taking clear liquids.  good bowel sounds.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "clear liquids",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "neuro:  patient moaning alot still and \\"talking to myself\\" but oriented and aware she is talking to herself.  no c/o pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "neuro:  patient moaning alot still and \\"talking to myself\\" but oriented and aware she is talking to herself.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['gu:  foley, good uop.', 'gi:  taking clear liquids.  good bowel sounds.', 'neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.  no c/o pain.', 'neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-14 18:57:00 and 2183-03-14 19:07:00):\n           cv:  apaced, underlying rhythm nsr 70s.  afebrile.  svo2 improving after prbc.  moderate to severe tr per echo report.  going to fick ci only now which is improving also.  very slow wean of epi drops.\n\npulm:  4l/nc, good sats, good cough.  cts draining thin seronsagn fluid.\n\nneuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.  no c/o pain.\n\ngu:  foley, good uop.\n\ngi:  taking clear liquids.  good bowel sounds.\n\nendo:  insulin drops stopped, monitoring bg.\n\nskin:  multiple bruises from fall prior to hospitalization.\n\nplan:  monitor ci by fick method, wean epi drops very slowly, pulm toilet, increase mobility.\n\n        ', 'case_attributes': [[{'attribute_name': 'multiple bruises from fall prior to hospitalization'}]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.779485211940482}</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>['neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.']</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'clear liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>['gu:  foley, good uop.', 'gi:  taking clear liquids.  good bowel sounds.', 'neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.  no c/o pain.', 'neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.']</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:gu:  foley, good uop.', 'e2=Eating|1:gi:  taking clear liquids.  good bowel sounds.', 'e3=Pain|1:neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.  no c/o pain.', 'e4=Sleep|1:neuro:  patient moaning alot still and "talking to myself" but oriented and aware she is talking to herself.']</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5532,52 +6162,62 @@
       <c r="E64" t="n">
         <v>0</v>
       </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-15 16:53:00'), Timestamp('2183-03-15 17:10:00'))</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>{'text': "patient update\n  patient is status post cabg x3 on [**3-12**].   neuro: patient is a&amp;o x3. in good spirits.\n\n  resp:  patient had rales [**12-23**] way up this am-rales only in base by early afternoon; now mostly just sounds decreased. u/o good. cxr done-looks wet and patient to receive lasix this afternoon. patient has good strong cough, non-productive. sats 96-99 on 4lnp.\n\n  cv: patient weaned off epi early this am. initially ci 2.08-up to 2.68 this afternoon. dr. [**last name (stitle) 2791**] by and pa line d/c'd. pacer off at 1500 and patient in sr, rate 80's. bp by cuff stable.\n\n   gu: adequate u/o. patient remains 6kg above preop weight. as stated-to start on lasix [**hospital1 **].\n\n   gi: patient with poor appetite. taking liquids only. no bm yet.\n\n   lab: bs down to 67 this am and insulin drops off for a few hours. bs back up to 153 and drops back on. hct 34 this am. plts low-65 this am. repeated and up to 73.\n\n   other: patient denies pain. c/o some indigestion earlier. assisted oob this afternoon-did well-very steady on feet. sat up for 1 [**11-21**]-tol well. children in to visit this afternoon. ct's with 100cc dumb before getting up and 100cc after getting up-to stay in for today. leg jp to be d/c'd. sternal incision now ota-c&amp;d, looks good. patient to stay in csru for now. doing well.\n", 'event': ['Excretion', 'Eating', 'Pain', 'Family', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post cabg x3",\n            "attribute_value": "on 3-12"\n        },\n        {\n            "attribute_name": "neuro status",\n            "attribute_value": "a&amp;o x3, in good spirits"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "patient had rales [**12-23**] way up this am-rales only in base by early afternoon; now mostly just sounds decreased. u/o good.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "this am, early afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good",\n                    "quality": "decreased"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "patient with poor appetite. taking liquids only.",\n            "actor": "patient",\n            "object": "liquids",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "liquids",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "patient denies pain. c/o some indigestion earlier.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "children in to visit this afternoon.",\n            "actor": "patient\'s children",\n            "object": "patient",\n            "negation": false,\n            "time": "this afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "children"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'decreased'}}}, {'Eating': {'Eating': {'food': 'liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'children'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['patient had rales [**12-23**] way up this am-rales only in base by early afternoon; now mostly just sounds decreased. u/o good.', 'patient with poor appetite. taking liquids only.', 'patient denies pain. c/o some indigestion earlier.', 'children in to visit this afternoon.', 'None'], 'event_time': ['this am, early afternoon', 'Unknown', 'Unknown', 'this afternoon', 'Unknown'], 'negation': [False, False, True, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-15 16:53:00 and 2183-03-15 17:10:00):\n           patient update\n  patient is status post cabg x3 on [**3-12**].   neuro: patient is a&amp;o x3. in good spirits.\n\n  resp:  patient had rales [**12-23**] way up this am-rales only in base by early afternoon; now mostly just sounds decreased. u/o good. cxr done-looks wet and patient to receive lasix this afternoon. patient has good strong cough, non-productive. sats 96-99 on 4lnp.\n\n  cv: patient weaned off epi early this am. initially ci 2.08-up to 2.68 this afternoon. dr. [**last name (stitle) 2791**] by and pa line d/c\'d. pacer off at 1500 and patient in sr, rate 80\'s. bp by cuff stable.\n\n   gu: adequate u/o. patient remains 6kg above preop weight. as stated-to start on lasix [**hospital1 **].\n\n   gi: patient with poor appetite. taking liquids only. no bm yet.\n\n   lab: bs down to 67 this am and insulin drops off for a few hours. bs back up to 153 and drops back on. hct 34 this am. plts low-65 this am. repeated and up to 73.\n\n   other: patient denies pain. c/o some indigestion earlier. assisted oob this afternoon-did well-very steady on feet. sat up for 1 [**11-21**]-tol well. children in to visit this afternoon. ct\'s with 100cc dumb before getting up and 100cc after getting up-to stay in for today. leg jp to be d/c\'d. sternal incision now ota-c&amp;d, looks good. patient to stay in csru for now. doing well.\n\n        ', 'case_attributes': [[{'attribute_name': 'status post cabg x3', 'attribute_value': 'on 3-12'}, {'attribute_name': 'neuro status', 'attribute_value': 'a&amp;o x3, in good spirits'}]], 'actor': ['patient', 'patient', 'patient', "patient's children", 'patient'], 'event_detection_time': 22.757582416990772}</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>['None']</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Pain', 'Family', 'Sleep']</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'decreased'}}}, {'Eating': {'Eating': {'food': 'liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'children'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>['patient had rales [**12-23**] way up this am-rales only in base by early afternoon; now mostly just sounds decreased. u/o good.', 'patient with poor appetite. taking liquids only.', 'patient denies pain. c/o some indigestion earlier.', 'children in to visit this afternoon.', 'None']</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:patient had rales [**12-23**] way up this am-rales only in base by early afternoon; now mostly just sounds decreased. u/o good.', 'e2=Eating|1:patient with poor appetite. taking liquids only.', 'e3=Pain|1:patient denies pain. c/o some indigestion earlier.', 'e4=Family|1:children in to visit this afternoon.', 'e5=Sleep|0:None']</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5610,52 +6250,62 @@
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-06 18:45:00'), Timestamp('2171-01-06 18:52:00'))</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>{'text': "7a-7p\nneuro: patient alert and oriented, mae, follows commands. flushed face, no change from yesterday, patient with h/o eczema. denies pain.\n\ncv: hr 70-80s. goal hr 70s. lopressor by mouth started, increased to 50mg [**hospital1 35**]-&gt;tid. diastolic blood pressure 100-130s. goal diastolic blood pressure&lt;140 [**name8 (md) **] md [**last name (titles) **].continues on esmolol and nipride gtts, weaning as patient tolerates. see flowsheet for details. +palpable pulses.\n\nresp: ls clear diminished. sats &gt;94% on ra while in chair. will need bipap when sleeping.\n\ngi/gu: abd large soft obese. +bs. tolerating by mouth's. foley dc'd, voiding via urinal.\n\nendo: per cvicu scale.\n\nplan: monitor hemodynamics. monitor resp. status. monitor for pain. wean gtts as patient tolerates, increase by mouth meds as needed.\n", 'event': ['Pain', 'Excretion', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "history of eczema",\n      "attribute_value": "present"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "denies pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "None",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "voiding via urinal",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "tolerating by mouth\'s",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Sleep",\n      "text_quote": "will need bipap when sleeping",\n      "actor": "patient",\n      "object": "sleep",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'None', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['denies pain', 'voiding via urinal', "tolerating by mouth's", 'will need bipap when sleeping'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-06 18:45:00 and 2171-01-06 18:52:00):\n           7a-7p\nneuro: patient alert and oriented, mae, follows commands. flushed face, no change from yesterday, patient with h/o eczema. denies pain.\n\ncv: hr 70-80s. goal hr 70s. lopressor by mouth started, increased to 50mg [**hospital1 35**]-&gt;tid. diastolic blood pressure 100-130s. goal diastolic blood pressure&lt;140 [**name8 (md) **] md [**last name (titles) **].continues on esmolol and nipride gtts, weaning as patient tolerates. see flowsheet for details. +palpable pulses.\n\nresp: ls clear diminished. sats &gt;94% on ra while in chair. will need bipap when sleeping.\n\ngi/gu: abd large soft obese. +bs. tolerating by mouth\'s. foley dc\'d, voiding via urinal.\n\nendo: per cvicu scale.\n\nplan: monitor hemodynamics. monitor resp. status. monitor for pain. wean gtts as patient tolerates, increase by mouth meds as needed.\n\n        ', 'case_attributes': [[{'attribute_name': 'history of eczema', 'attribute_value': 'present'}]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.17152117821388}</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>['will need bipap when sleeping']</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'None', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>['denies pain', 'voiding via urinal', "tolerating by mouth's", 'will need bipap when sleeping']</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>['e1=Pain|1:denies pain', 'e2=Excretion|1:voiding via urinal', "e3=Eating|1:tolerating by mouth's", 'e4=Sleep|1:will need bipap when sleeping']</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5688,52 +6338,62 @@
       <c r="E66" t="n">
         <v>0</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-09 14:50:00'), Timestamp('2171-01-09 15:02:00'))</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>{'text': "neuro: alert and oriented x 3, mae, following commands correctlly oob to chair, diladid x 1 given for back pain.\n\ncardiac: nsr with no ectopy, conts nipride drops to keep diastolic blood pressure below 140, palpible pedial pulses, skin warm and dry, afebrile, +2 edema in extremities.\n\nresp: on 2 lites satting at 95% uses bipap as needed at night does have exper wheezing.\n\nskin: intact.\n\ngi/gu: tolerating by mouth's, abd is soft round nontender and obese with good bowel sounds, on riss, is voiding wnl's.\n\nsocial: brother in to visit and patient is in for social work consult.\n\nplan: wean nipride as tolerates, ? when off nipride to vicu for monitoring, await for ct results from today of abd and neck.\n", 'event': ['Pain', 'Family', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "back pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "brother in to visit",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "brother"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "tolerating by mouth\'s",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "is voiding wnl\'s",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "wnl\'s",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "uses bipap as needed at night",\n      "actor": "patient",\n      "object": "sleep",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'brother'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "wnl's", 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['back pain', 'brother in to visit', "tolerating by mouth's", "is voiding wnl's", 'uses bipap as needed at night'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'night'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-09 14:50:00 and 2171-01-09 15:02:00):\n           neuro: alert and oriented x 3, mae, following commands correctlly oob to chair, diladid x 1 given for back pain.\n\ncardiac: nsr with no ectopy, conts nipride drops to keep diastolic blood pressure below 140, palpible pedial pulses, skin warm and dry, afebrile, +2 edema in extremities.\n\nresp: on 2 lites satting at 95% uses bipap as needed at night does have exper wheezing.\n\nskin: intact.\n\ngi/gu: tolerating by mouth\'s, abd is soft round nontender and obese with good bowel sounds, on riss, is voiding wnl\'s.\n\nsocial: brother in to visit and patient is in for social work consult.\n\nplan: wean nipride as tolerates, ? when off nipride to vicu for monitoring, await for ct results from today of abd and neck.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 18.624466720037162}</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>['uses bipap as needed at night']</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>['Pain', 'Family', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'brother'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': "wnl's", 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>['back pain', 'brother in to visit', "tolerating by mouth's", "is voiding wnl's", 'uses bipap as needed at night']</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>['e1=Pain|1:back pain', 'e2=Family|1:brother in to visit', "e3=Eating|1:tolerating by mouth's", "e4=Excretion|1:is voiding wnl's", 'e5=Sleep|1:uses bipap as needed at night']</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
